--- a/Aspen Plus Automation Transfer/Simulation Mapper - A+.xlsx
+++ b/Aspen Plus Automation Transfer/Simulation Mapper - A+.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CF21A-D434-447B-8D5A-2AEBF4928F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EC356-5EBF-445B-83D6-D5FC6DC3CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pump &amp; Pump Curves" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1329">
   <si>
     <r>
       <t>Capacity/Volumetirc flow rate (m</t>
@@ -2854,12 +2854,6 @@
     <t>5. Click on Mapper tab, in the Flowsheet Objects page. Click on object 'FEED' to enter the Object Mapping page.</t>
   </si>
   <si>
-    <t>MIX03</t>
-  </si>
-  <si>
-    <t>1. Launch ammonia.apwz file.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Launch ICPEbegin-1.apwz file. </t>
   </si>
   <si>
@@ -3236,13 +3230,7 @@
     <t>Viscosity, mixture</t>
   </si>
   <si>
-    <t>4. Click on Mapper tab, in the Flowsheet Objects page. Click on object 'MIX03' to enter the Object Mapping page.</t>
-  </si>
-  <si>
     <t>5. Select 'Filter' for Map As column, select 'Create' for Workspace Object column.</t>
-  </si>
-  <si>
-    <t>9. Click on Explorer tab and expand the attributes of MIX03, check the attributes list below. The data in ABE should be in accordance with those in A+.</t>
   </si>
   <si>
     <t>MaterialPorts.MIX03-Inlet2.Flow.LiquidPhase.PvtProperties.Compressibility</t>
@@ -4168,7 +4156,25 @@
     <t>defect: CQ00770596 [SM] A+ - Column: "Feed Tray Number" is incorrect.</t>
   </si>
   <si>
-    <t>open file example Biodiesel Production from Vegetable Oil.bkp</t>
+    <t>Biodiesel Production from Vegetable Oil.bkp</t>
+  </si>
+  <si>
+    <t>MIXER1</t>
+  </si>
+  <si>
+    <t>1. Launch Biodiesel Production from Vegetable Oil.bkp file.</t>
+  </si>
+  <si>
+    <t>4. Click on Mapper tab, in the Flowsheet Objects page. Click on object 'MIXER1' to enter the Object Mapping page.</t>
+  </si>
+  <si>
+    <t>9. Click on Explorer tab and expand the attributes of MIXER1, check the attributes list below. The data in ABE should be in accordance with those in A+.</t>
+  </si>
+  <si>
+    <t>Properties are already added in template, so no need to add them</t>
+  </si>
+  <si>
+    <t>Go to Simulation-&gt; Streams -&gt; 2 -&gt; Results, select 'add properties', add  cloud point, freeze point, smoke point</t>
   </si>
 </sst>
 </file>
@@ -10787,7 +10793,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B1" s="93"/>
     </row>
@@ -11818,8 +11824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA207"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11849,7 +11855,7 @@
         <v>885</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11873,12 +11879,12 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13244,16 +13250,19 @@
     </row>
     <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="176" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B128" s="176" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F128" s="111"/>
     </row>
     <row r="129" spans="1:27">
+      <c r="A129" t="s">
+        <v>1328</v>
+      </c>
       <c r="F129" s="41" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -13261,10 +13270,10 @@
         <v>10</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D130" s="2">
         <v>201.88499999999999</v>
@@ -13275,10 +13284,10 @@
         <v>21</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D131" s="3">
         <v>172.49700000000001</v>
@@ -13289,10 +13298,10 @@
         <v>45</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D132" s="2">
         <v>27.370699999999999</v>
@@ -13369,8 +13378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C66" sqref="C65:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13393,7 +13402,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -13401,7 +13410,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>889</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -13411,7 +13420,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>890</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13426,12 +13435,12 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1016</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -13451,7 +13460,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1018</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" thickBot="1">
@@ -13477,7 +13486,7 @@
       </c>
       <c r="G18" s="179"/>
       <c r="P18" s="8" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1">
@@ -13491,10 +13500,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="187" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C20" s="188" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D20" s="186">
         <v>20255.5</v>
@@ -13536,7 +13545,7 @@
         <v>791</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D23" s="29">
         <v>7.28E-3</v>
@@ -13547,7 +13556,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C24" s="105" t="s">
         <v>794</v>
@@ -13589,7 +13598,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C27" s="105" t="s">
         <v>800</v>
@@ -13617,7 +13626,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C29" s="106" t="s">
         <v>804</v>
@@ -13715,7 +13724,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C36" s="105" t="s">
         <v>818</v>
@@ -13785,10 +13794,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C41" s="105" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D41" s="7">
         <v>3.5176150000000002</v>
@@ -13799,10 +13808,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D42" s="7">
         <v>73.224599999999995</v>
@@ -13869,10 +13878,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D47" s="105">
         <v>0.18647</v>
@@ -13926,7 +13935,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C51" s="105" t="s">
         <v>848</v>
@@ -13935,7 +13944,7 @@
         <v>0.23039999999999999</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -13949,7 +13958,7 @@
         <v>850</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
@@ -13957,10 +13966,10 @@
         <v>60</v>
       </c>
       <c r="B53" s="217" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C53" s="218" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D53" s="145">
         <v>4535.08</v>
@@ -14046,117 +14055,120 @@
     </row>
     <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="180" t="s">
-        <v>1003</v>
+        <v>1001</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -14190,7 +14202,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B1" s="93"/>
       <c r="G1" s="124"/>
@@ -14198,7 +14210,7 @@
     <row r="2" spans="1:10" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="125" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
@@ -14211,7 +14223,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14224,10 +14236,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="123" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickBot="1">
@@ -14255,7 +14267,7 @@
         <v>191</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
@@ -14267,89 +14279,89 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="191" t="s">
+        <v>905</v>
+      </c>
+      <c r="B12" s="153" t="s">
+        <v>906</v>
+      </c>
+      <c r="C12" s="153" t="s">
+        <v>906</v>
+      </c>
+      <c r="D12" s="153" t="s">
         <v>907</v>
-      </c>
-      <c r="B12" s="153" t="s">
-        <v>908</v>
-      </c>
-      <c r="C12" s="153" t="s">
-        <v>908</v>
-      </c>
-      <c r="D12" s="153" t="s">
-        <v>909</v>
       </c>
       <c r="E12" s="153"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="118" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D13" s="6">
         <v>17.898499999999999</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J13" s="119"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="118" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D14" s="6">
         <v>17.898499999999999</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="118" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D15" s="6">
         <v>1.3423799999999999</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="120" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E16" s="121"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="125" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75">
@@ -14362,7 +14374,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14375,10 +14387,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="123" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B24" s="123" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1">
@@ -14406,7 +14418,7 @@
         <v>191</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1">
@@ -14418,88 +14430,88 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="191" t="s">
+        <v>905</v>
+      </c>
+      <c r="B29" s="153" t="s">
+        <v>906</v>
+      </c>
+      <c r="C29" s="153" t="s">
+        <v>906</v>
+      </c>
+      <c r="D29" s="153" t="s">
         <v>907</v>
-      </c>
-      <c r="B29" s="153" t="s">
-        <v>908</v>
-      </c>
-      <c r="C29" s="153" t="s">
-        <v>908</v>
-      </c>
-      <c r="D29" s="153" t="s">
-        <v>909</v>
       </c>
       <c r="E29" s="153"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="118" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D30" s="6">
         <v>3134.49</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="118" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D31" s="6">
         <v>5545.72</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="118" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D32" s="6">
         <v>24.825099999999999</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="120" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B33" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C33" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D33" s="121" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E33" s="121"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="125" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75">
@@ -14512,7 +14524,7 @@
         <v>65</v>
       </c>
       <c r="B39" s="123" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14520,15 +14532,15 @@
         <v>64</v>
       </c>
       <c r="B40" s="123" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="123" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B41" s="123" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" thickBot="1">
@@ -14556,7 +14568,7 @@
         <v>191</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1">
@@ -14568,90 +14580,90 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="118" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="118" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D47" s="6">
         <v>128.375</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="118" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D48" s="6">
         <v>128.375</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="118" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D49" s="6">
         <v>9.94909</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1">
       <c r="A50" s="120" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B50" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C50" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D50" s="121">
         <v>44.533799999999999</v>
       </c>
       <c r="E50" s="121" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" s="125" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75">
@@ -14664,10 +14676,10 @@
         <v>65</v>
       </c>
       <c r="B56" s="123" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C56" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -14680,10 +14692,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="123" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B58" s="123" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" thickBot="1">
@@ -14711,7 +14723,7 @@
         <v>191</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
@@ -14723,41 +14735,41 @@
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="118" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D63" s="6">
         <v>69.946700000000007</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="118" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D64" s="6">
         <v>5.4208699999999999</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="125" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75">
@@ -14770,7 +14782,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -14783,10 +14795,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="123" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B72" s="123" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" thickBot="1">
@@ -14814,7 +14826,7 @@
         <v>191</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1">
@@ -14826,90 +14838,90 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="118" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="118" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D78" s="44">
         <v>935.5</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="118" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D79" s="6">
         <v>1655.14</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="118" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D80" s="6">
         <v>7.40916</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1">
       <c r="A81" s="121" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C81" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D81" s="121">
         <v>221.44300000000001</v>
       </c>
       <c r="E81" s="121" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75">
       <c r="A85" s="125" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75">
@@ -14922,7 +14934,7 @@
         <v>65</v>
       </c>
       <c r="B87" s="123" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -14930,12 +14942,12 @@
         <v>64</v>
       </c>
       <c r="B88" s="123" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -14950,62 +14962,62 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="16.5" thickBot="1">
@@ -15033,10 +15045,10 @@
         <v>191</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
@@ -15048,173 +15060,173 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D110" s="6">
         <v>-32.410800000000002</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D111" s="6">
         <v>87008.8</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D112" s="6">
         <v>0.3902041</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D113" s="6">
         <v>6.5211699999999997</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>952</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>954</v>
       </c>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D115" s="6">
         <v>412.96100000000001</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D116" s="6">
         <v>864.67700000000002</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D117" s="6">
         <v>3.71665</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D118" s="6">
         <v>97.752099999999999</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75">
       <c r="A125" s="125" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75">
@@ -15227,7 +15239,7 @@
         <v>65</v>
       </c>
       <c r="B127" s="123" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -15240,10 +15252,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="123" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B129" s="123" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="16.5" thickBot="1">
@@ -15271,7 +15283,7 @@
         <v>191</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
@@ -15283,28 +15295,28 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="118" t="s">
+        <v>905</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>909</v>
       </c>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="118" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D135" s="6">
         <v>-34855.000403600003</v>
@@ -15315,13 +15327,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="118" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D136" s="6">
         <v>34855.004999999997</v>
@@ -15332,36 +15344,36 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="118" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D137" s="6">
         <v>0.78423799999999999</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" thickBot="1">
       <c r="A138" s="120" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B138" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C138" s="121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D138" s="121" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E138" s="121" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -15431,7 +15443,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
@@ -15440,10 +15452,10 @@
         <v>65</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
@@ -15451,10 +15463,10 @@
         <v>64</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D4" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
@@ -15464,7 +15476,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -15479,42 +15491,42 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I17" s="96" t="s">
         <v>550</v>
@@ -15522,32 +15534,32 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickTop="1">
       <c r="A18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="117" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="86" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="8" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="41.25" customHeight="1" thickBot="1">
@@ -15558,13 +15570,13 @@
         <v>37</v>
       </c>
       <c r="C25" s="233" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D25" s="232" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E25" s="232" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F25" s="234" t="s">
         <v>191</v>
@@ -15575,13 +15587,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="220" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D26" s="135" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E26" s="193">
         <v>7</v>
@@ -15593,13 +15605,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C27" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D27" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E27" s="197">
         <v>7</v>
@@ -15611,13 +15623,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C28" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D28" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E28" s="197">
         <v>100000</v>
@@ -15631,13 +15643,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C29" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D29" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E29" s="197">
         <v>200833</v>
@@ -15651,13 +15663,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C30" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D30" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E30" s="197">
         <v>8105.9900781595397</v>
@@ -15671,13 +15683,13 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C31" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D31" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E31" s="197">
         <v>2</v>
@@ -15689,13 +15701,13 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C32" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D32" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E32" s="197">
         <v>6.2373165299999998E-2</v>
@@ -15708,13 +15720,13 @@
         <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C33" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D33" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E33" s="199">
         <v>-38920792</v>
@@ -15728,13 +15740,13 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C34" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D34" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E34" s="197">
         <v>338.06271900000002</v>
@@ -15748,13 +15760,13 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C35" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D35" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E35" s="199">
         <v>2326000</v>
@@ -15768,13 +15780,13 @@
         <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C36" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D36" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E36" s="197">
         <v>573.20999700000004</v>
@@ -15786,19 +15798,19 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C37" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D37" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E37" s="199">
         <v>1.5836709900000001E-3</v>
       </c>
       <c r="F37" s="206" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -15806,19 +15818,19 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C38" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="D38" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E38" s="197">
         <v>0.92051691800000002</v>
       </c>
       <c r="F38" s="206" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1">
@@ -15826,13 +15838,13 @@
         <v>79</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E39" s="201">
         <v>397.86855100000002</v>
@@ -15863,15 +15875,15 @@
     </row>
     <row r="44" spans="1:16">
       <c r="I44" s="8" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -15879,10 +15891,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="135" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C46" s="135" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D46" s="135"/>
       <c r="E46" s="193">
@@ -15890,7 +15902,7 @@
       </c>
       <c r="F46" s="205"/>
       <c r="G46" s="8" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H46" s="8"/>
     </row>
@@ -15899,13 +15911,13 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C47" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D47" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E47" s="197">
         <v>5</v>
@@ -15917,19 +15929,19 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C48" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D48" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E48" s="197">
         <v>3.2004000000000001</v>
       </c>
       <c r="F48" s="206" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -15937,19 +15949,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C49" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D49" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E49" s="197">
         <v>1.2</v>
       </c>
       <c r="F49" s="206" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -15957,16 +15969,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C50" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D50" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E50" s="197" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F50" s="206"/>
       <c r="G50" s="209"/>
@@ -15976,16 +15988,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C51" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D51" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E51" s="197" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F51" s="206"/>
       <c r="J51" s="81"/>
@@ -15995,19 +16007,19 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C52" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D52" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E52" s="197">
         <v>130</v>
       </c>
       <c r="F52" s="206" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1">
@@ -16015,13 +16027,13 @@
         <v>56</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E53" s="203">
         <v>391.01516410289099</v>
@@ -16035,22 +16047,22 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C54" s="135" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D54" s="135" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E54" s="193">
         <v>0.88390000000000002</v>
       </c>
       <c r="F54" s="205" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H54" s="8"/>
     </row>
@@ -16059,13 +16071,13 @@
         <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C55" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D55" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E55" s="197">
         <v>1</v>
@@ -16077,19 +16089,19 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C56" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D56" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E56" s="197">
         <v>0.76200000000000001</v>
       </c>
       <c r="F56" s="206" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -16097,19 +16109,19 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C57" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D57" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="197">
         <v>0.61361525663460903</v>
       </c>
       <c r="F57" s="206" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -16117,19 +16129,19 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C58" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D58" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E58" s="197">
         <v>0.33744501407333399</v>
       </c>
       <c r="F58" s="206" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -16137,13 +16149,13 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C59" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D59" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E59" s="197">
         <v>0.1</v>
@@ -16155,19 +16167,19 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C60" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D60" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E60" s="197">
         <v>244.2596455</v>
       </c>
       <c r="F60" s="206" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -16175,19 +16187,19 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C61" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D61" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E61" s="197">
         <v>244.2596455</v>
       </c>
       <c r="F61" s="206" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -16195,19 +16207,19 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C62" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D62" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E62" s="197">
         <v>0.13808512128063699</v>
       </c>
       <c r="F62" s="206" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -16215,19 +16227,19 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C63" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D63" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E63" s="197">
         <v>0.13808512128063699</v>
       </c>
       <c r="F63" s="206" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1">
@@ -16235,19 +16247,19 @@
         <v>33</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E64" s="203">
         <v>0.79053988194818903</v>
       </c>
       <c r="F64" s="207" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -16255,22 +16267,22 @@
         <v>69</v>
       </c>
       <c r="B65" s="135" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C65" s="135" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D65" s="135" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E65" s="193">
         <v>6.9793052799286895E-2</v>
       </c>
       <c r="F65" s="205" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -16279,19 +16291,19 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C66" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D66" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E66" s="197">
         <v>64.401512049797702</v>
       </c>
       <c r="F66" s="206" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -16299,13 +16311,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C67" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D67" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E67" s="197">
         <v>1.00589</v>
@@ -16317,13 +16329,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C68" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D68" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E68" s="197">
         <v>1.1140699999999999</v>
@@ -16335,13 +16347,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C69" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D69" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E69" s="197">
         <v>2.9825200000000001</v>
@@ -16353,13 +16365,13 @@
         <v>64</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E70" s="203">
         <v>0.95</v>
@@ -16368,7 +16380,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="I72" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -16376,7 +16388,7 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" thickBot="1">
       <c r="A77" s="8" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -16384,20 +16396,20 @@
         <v>9</v>
       </c>
       <c r="B78" s="135" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C78" s="135" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D78" s="135" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E78" s="193">
         <v>7</v>
       </c>
       <c r="F78" s="205"/>
       <c r="G78" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -16406,13 +16418,13 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C79" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D79" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E79" s="197">
         <v>394.14797900000002</v>
@@ -16426,13 +16438,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C80" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D80" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E80" s="197">
         <v>200833</v>
@@ -16446,19 +16458,19 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C81" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D81" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E81" s="197">
         <v>0.91014285399999995</v>
       </c>
       <c r="F81" s="206" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -16466,13 +16478,13 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C82" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D82" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E82" s="197">
         <v>0.79751498600000004</v>
@@ -16486,19 +16498,19 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C83" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="D83" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E83" s="197">
         <v>18.014480599999999</v>
       </c>
       <c r="F83" s="206" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -16506,19 +16518,19 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C84" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D84" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E84" s="197">
         <v>1.1412235100000001</v>
       </c>
       <c r="F84" s="206" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -16526,13 +16538,13 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C85" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D85" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E85" s="197">
         <v>393.49675000000002</v>
@@ -16546,13 +16558,13 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C86" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D86" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E86" s="197">
         <v>1.8562601799999998E-2</v>
@@ -16566,19 +16578,19 @@
         <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C87" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D87" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E87" s="197">
         <v>17.4934762</v>
       </c>
       <c r="F87" s="206" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -16586,19 +16598,19 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C88" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D88" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E88" s="197">
         <v>2.2796017399999999E-4</v>
       </c>
       <c r="F88" s="206" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1">
@@ -16606,19 +16618,19 @@
         <v>20</v>
       </c>
       <c r="B89" s="215" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D89" s="204" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E89" s="203">
         <v>942.40432099999998</v>
       </c>
       <c r="F89" s="207" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -16651,7 +16663,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="212"/>
       <c r="I99" s="8" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="24" customHeight="1">
@@ -16659,7 +16671,7 @@
     </row>
     <row r="101" spans="1:9" ht="15.75" thickBot="1">
       <c r="A101" s="8" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -16671,18 +16683,18 @@
         <v>34</v>
       </c>
       <c r="B102" s="213" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C102" s="135" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D102" s="135"/>
       <c r="E102" s="213" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="F102" s="195"/>
       <c r="G102" s="8" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H102" s="8"/>
     </row>
@@ -16691,13 +16703,13 @@
         <v>36</v>
       </c>
       <c r="B103" s="209" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C103" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D103" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E103" s="197">
         <v>397.86200000000002</v>
@@ -16711,13 +16723,13 @@
         <v>37</v>
       </c>
       <c r="B104" s="209" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C104" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D104" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="E104" s="197">
         <v>196667</v>
@@ -16731,19 +16743,19 @@
         <v>38</v>
       </c>
       <c r="B105" s="209" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C105" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D105" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E105" s="197">
         <v>18.0152</v>
       </c>
       <c r="F105" s="206" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -16751,19 +16763,19 @@
         <v>39</v>
       </c>
       <c r="B106" s="209" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C106" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D106" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E106" s="197">
         <v>1.08371</v>
       </c>
       <c r="F106" s="206" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -16771,19 +16783,19 @@
         <v>40</v>
       </c>
       <c r="B107" s="209" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C107" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D107" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E107" s="199">
         <v>1.35079E-5</v>
       </c>
       <c r="F107" s="206" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -16791,19 +16803,19 @@
         <v>41</v>
       </c>
       <c r="B108" s="209" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C108" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D108" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E108" s="197">
         <v>17.499500000000001</v>
       </c>
       <c r="F108" s="206" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -16811,13 +16823,13 @@
         <v>42</v>
       </c>
       <c r="B109" s="209" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C109" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D109" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="E109" s="197">
         <v>16.1477</v>
@@ -16831,13 +16843,13 @@
         <v>43</v>
       </c>
       <c r="B110" s="209" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C110" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D110" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E110" s="197">
         <v>338.06299999999999</v>
@@ -16851,13 +16863,13 @@
         <v>44</v>
       </c>
       <c r="B111" s="209" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C111" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D111" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E111" s="214">
         <v>100000</v>
@@ -16871,19 +16883,19 @@
         <v>45</v>
       </c>
       <c r="B112" s="209" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C112" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="D112" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E112" s="197">
         <v>18.0852</v>
       </c>
       <c r="F112" s="206" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -16891,19 +16903,19 @@
         <v>46</v>
       </c>
       <c r="B113" s="209" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C113" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D113" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E113" s="197">
         <v>868.65300000000002</v>
       </c>
       <c r="F113" s="206" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -16911,19 +16923,19 @@
         <v>47</v>
       </c>
       <c r="B114" s="209" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C114" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D114" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="E114" s="14">
         <v>3.7827716000000001E-4</v>
       </c>
       <c r="F114" s="206" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -16931,19 +16943,19 @@
         <v>48</v>
       </c>
       <c r="B115" s="209" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C115" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D115" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E115" s="197">
         <v>6.0059899999999999E-2</v>
       </c>
       <c r="F115" s="206" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75" thickBot="1">
@@ -16951,19 +16963,19 @@
         <v>49</v>
       </c>
       <c r="B116" s="215" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D116" s="204" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E116" s="203">
         <v>16.417300000000001</v>
       </c>
       <c r="F116" s="207" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -17023,12 +17035,12 @@
       <c r="A128" s="212"/>
       <c r="E128" s="14"/>
       <c r="I128" s="8" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="15.75" thickBot="1">
       <c r="A129" s="8" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -17036,13 +17048,13 @@
         <v>70</v>
       </c>
       <c r="B130" s="213" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C130" s="135" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D130" s="195" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E130" s="194">
         <v>3</v>
@@ -17054,13 +17066,13 @@
         <v>71</v>
       </c>
       <c r="B131" s="209" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C131" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D131" s="198" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="E131" s="14">
         <v>6</v>
@@ -17072,13 +17084,13 @@
         <v>81</v>
       </c>
       <c r="B132" s="209" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C132" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D132" s="198" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E132" s="14">
         <v>500000</v>
@@ -17092,13 +17104,13 @@
         <v>74</v>
       </c>
       <c r="B133" s="209" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C133" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D133" s="198" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E133" s="14">
         <v>-3557.3522200000002</v>
@@ -17112,13 +17124,13 @@
         <v>80</v>
       </c>
       <c r="B134" s="215" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D134" s="204" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E134" s="202">
         <v>323.14999999999998</v>
@@ -17137,13 +17149,13 @@
     </row>
     <row r="138" spans="1:17" ht="15.75">
       <c r="A138" s="9" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I138" s="33"/>
     </row>
     <row r="139" spans="1:17" ht="15.75" thickBot="1">
       <c r="A139" s="8" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -17151,13 +17163,13 @@
         <v>37</v>
       </c>
       <c r="B140" s="249" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C140" s="316" t="s">
         <v>191</v>
       </c>
       <c r="Q140" s="8" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="15.75" thickBot="1">
@@ -17170,7 +17182,7 @@
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="318" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B142" s="225" t="s">
         <v>877</v>
@@ -17181,7 +17193,7 @@
     <row r="143" spans="1:17">
       <c r="A143" s="319"/>
       <c r="B143" s="226" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C143" s="198"/>
     </row>
@@ -17195,13 +17207,13 @@
     <row r="145" spans="1:3">
       <c r="A145" s="319"/>
       <c r="B145" s="230" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C145" s="198"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="319" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B146" s="226" t="s">
         <v>877</v>
@@ -17211,7 +17223,7 @@
     <row r="147" spans="1:3">
       <c r="A147" s="319"/>
       <c r="B147" s="226" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C147" s="198"/>
     </row>
@@ -17225,13 +17237,13 @@
     <row r="149" spans="1:3">
       <c r="A149" s="319"/>
       <c r="B149" s="226" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C149" s="198"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="197" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B150" s="226" t="b">
         <v>1</v>
@@ -17240,7 +17252,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="197" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B151" s="226" t="b">
         <v>0</v>
@@ -17249,7 +17261,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="319" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B152" s="226">
         <v>0.86609800000000003</v>
@@ -17279,7 +17291,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="209" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B156" s="226">
         <v>100</v>
@@ -17290,35 +17302,35 @@
     </row>
     <row r="157" spans="1:3" ht="15.75" thickBot="1">
       <c r="A157" s="215" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B157" s="228">
         <v>5.7012200000000002</v>
       </c>
       <c r="C157" s="204" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" thickBot="1">
       <c r="A160" s="8" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B160" s="33"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="213" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B161" s="213">
         <v>932.63499999999999</v>
       </c>
       <c r="C161" s="195" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="209" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B162" s="209">
         <v>62640.6</v>
@@ -17329,40 +17341,40 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="209" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B163" s="209">
         <v>51.753259399999997</v>
       </c>
       <c r="C163" s="198" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="209" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B164" s="209">
         <v>-276652143</v>
       </c>
       <c r="C164" s="198" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="209" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B165" s="209">
         <v>965.56</v>
       </c>
       <c r="C165" s="198" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="209" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B166" s="209">
         <v>18.020800000000001</v>
@@ -17371,18 +17383,18 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="209" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B167" s="209">
         <v>5.5309200000000003E-2</v>
       </c>
       <c r="C167" s="198" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="209" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B168" s="209">
         <v>386.01299999999998</v>
@@ -17393,18 +17405,18 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="209" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B169" s="209">
         <v>2.41394E-4</v>
       </c>
       <c r="C169" s="198" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="209" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B170" s="209">
         <v>180000</v>
@@ -17415,7 +17427,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="209" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B171" s="209">
         <v>386.01299999999998</v>
@@ -17426,7 +17438,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="209" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B172" s="209">
         <v>59202.400000000001</v>
@@ -17440,40 +17452,40 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="209" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B173" s="209">
         <v>1.80208E-2</v>
       </c>
       <c r="C173" s="198" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="209" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B174" s="209">
         <v>-212266540</v>
       </c>
       <c r="C174" s="198" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="209" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B175" s="209">
         <v>0.90935999999999995</v>
       </c>
       <c r="C175" s="198" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="209" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B176" s="209">
         <v>18.02</v>
@@ -17482,7 +17494,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="209" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B177" s="209">
         <v>390.39800000000002</v>
@@ -17493,24 +17505,24 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="209" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B178" s="224">
         <v>1.3240299999999999E-5</v>
       </c>
       <c r="C178" s="198" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" thickBot="1">
       <c r="A179" s="229" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B179" s="215">
         <v>60660.7</v>
       </c>
       <c r="C179" s="204" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -17531,19 +17543,19 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="213" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B183" s="213">
         <v>0.24</v>
       </c>
       <c r="C183" s="195" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F183" s="8"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="209" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B184" s="209">
         <v>45.359200000000001</v>
@@ -17552,18 +17564,18 @@
         <v>480</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15.75" thickBot="1">
       <c r="A185" s="215" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B185" s="215">
         <v>2.5177999999999998</v>
       </c>
       <c r="C185" s="204" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -17576,13 +17588,13 @@
     </row>
     <row r="188" spans="1:9" ht="15.75" thickBot="1">
       <c r="A188" s="8" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B188" s="33"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="213" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B189" s="213">
         <v>62898.329010000001</v>
@@ -17594,7 +17606,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="209" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B190" s="209">
         <v>63186.050999999999</v>
@@ -17605,31 +17617,31 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="209" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B191" s="209">
         <v>3491.4</v>
       </c>
       <c r="C191" s="198" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="G191" s="33"/>
       <c r="H191" s="33"/>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="209" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B192" s="209">
         <v>3507.52</v>
       </c>
       <c r="C192" s="198" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" s="209" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B193" s="209">
         <v>45.359200000000001</v>
@@ -17640,18 +17652,18 @@
     </row>
     <row r="194" spans="1:16">
       <c r="A194" s="209" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B194" s="209">
         <v>2.5177999999999998</v>
       </c>
       <c r="C194" s="198" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="195" spans="1:16">
       <c r="A195" s="209" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B195" s="209">
         <v>59800</v>
@@ -17662,24 +17674,24 @@
     </row>
     <row r="196" spans="1:16" ht="15.75" thickBot="1">
       <c r="A196" s="215" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B196" s="215">
         <v>3319.56</v>
       </c>
       <c r="C196" s="204" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="203" spans="1:16" ht="15.75" thickBot="1">
       <c r="A203" s="8" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I203" s="8" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="P203" s="8" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -17690,13 +17702,13 @@
         <v>37</v>
       </c>
       <c r="C204" s="249" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D204" s="249" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E204" s="249" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F204" s="249" t="s">
         <v>191</v>
@@ -17719,13 +17731,13 @@
         <v>60</v>
       </c>
       <c r="B206" s="213" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C206" s="135" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D206" s="135" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E206" s="216">
         <v>-38920792</v>
@@ -17741,10 +17753,10 @@
         <v>82</v>
       </c>
       <c r="B207" s="209" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C207" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="E207" s="197"/>
       <c r="F207" s="206"/>
@@ -17756,10 +17768,10 @@
         <v>83</v>
       </c>
       <c r="B208" s="209" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C208" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="E208" s="197"/>
       <c r="F208" s="206"/>
@@ -17771,10 +17783,10 @@
         <v>84</v>
       </c>
       <c r="B209" s="209" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C209" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="E209" s="197"/>
       <c r="F209" s="206"/>
@@ -17789,7 +17801,7 @@
         <v>85</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="D210" s="20"/>
       <c r="E210" s="203"/>
@@ -17797,10 +17809,10 @@
       <c r="G210" s="14"/>
       <c r="H210" s="14"/>
       <c r="I210" s="8" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="P210" s="8" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -17812,7 +17824,7 @@
     </row>
     <row r="212" spans="1:16">
       <c r="A212" s="8" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="E212" s="14"/>
       <c r="F212" s="14"/>
@@ -17940,7 +17952,7 @@
     </row>
     <row r="230" spans="1:8" ht="15.75" thickBot="1">
       <c r="A230" s="8" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B230" s="8"/>
       <c r="G230" s="14"/>
@@ -17954,13 +17966,13 @@
         <v>37</v>
       </c>
       <c r="C231" s="249" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D231" s="249" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E231" s="249" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F231" s="249" t="s">
         <v>191</v>
@@ -17981,7 +17993,7 @@
         <v>61</v>
       </c>
       <c r="B233" s="213" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C233" s="135" t="s">
         <v>192</v>
@@ -17999,10 +18011,10 @@
         <v>86</v>
       </c>
       <c r="B234" s="209" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C234" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E234" s="209"/>
       <c r="F234" s="198"/>
@@ -18012,10 +18024,10 @@
         <v>87</v>
       </c>
       <c r="B235" s="209" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C235" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="E235" s="209"/>
       <c r="F235" s="198"/>
@@ -18025,10 +18037,10 @@
         <v>88</v>
       </c>
       <c r="B236" s="209" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C236" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E236" s="209"/>
       <c r="F236" s="198"/>
@@ -18041,7 +18053,7 @@
         <v>85</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="D237" s="20"/>
       <c r="E237" s="215"/>
@@ -18049,7 +18061,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="8" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -18286,7 +18298,7 @@
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" thickBot="1">
@@ -18307,7 +18319,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="240" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C36" s="240" t="s">
         <v>75</v>
@@ -19313,7 +19325,7 @@
         <v>96</v>
       </c>
       <c r="F18" s="245" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -20247,7 +20259,7 @@
     </row>
     <row r="7" spans="1:44" ht="18" thickBot="1">
       <c r="A7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>550</v>
@@ -20952,7 +20964,7 @@
         <v>37</v>
       </c>
       <c r="C64" s="245" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D64" s="245" t="s">
         <v>504</v>
@@ -21540,7 +21552,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -21608,7 +21620,7 @@
         <v>73</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -21627,7 +21639,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="270" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B21" s="271"/>
       <c r="C21" s="271"/>
@@ -23175,7 +23187,7 @@
       <c r="D138" s="70"/>
       <c r="E138" s="72"/>
       <c r="G138" s="8" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="45" hidden="1" customHeight="1">
@@ -23318,7 +23330,7 @@
     </row>
     <row r="151" spans="1:5" ht="16.5" thickBot="1">
       <c r="A151" s="265" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B151" s="266"/>
       <c r="C151" s="266"/>
@@ -26470,7 +26482,7 @@
         <v>96</v>
       </c>
       <c r="E19" s="286" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">

--- a/Aspen Plus Automation Transfer/Simulation Mapper - A+.xlsx
+++ b/Aspen Plus Automation Transfer/Simulation Mapper - A+.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EC356-5EBF-445B-83D6-D5FC6DC3CA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311B99D-6EB3-4E63-8111-A9F6853F599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pump &amp; Pump Curves" sheetId="1" r:id="rId1"/>
@@ -5677,6 +5677,51 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5685,27 +5730,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5719,41 +5743,17 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5779,9 +5779,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5794,25 +5791,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5823,6 +5802,15 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5840,6 +5828,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8867,16 +8867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>227890</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>170600</xdr:rowOff>
+      <xdr:colOff>119940</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>18200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8899,8 +8899,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8972550" y="3609975"/>
-          <a:ext cx="5676190" cy="6800000"/>
+          <a:off x="9232900" y="3530600"/>
+          <a:ext cx="5676190" cy="6393600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8911,16 +8911,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>208839</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>151609</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>564439</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>50009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8943,8 +8943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943975" y="10163175"/>
-          <a:ext cx="5685714" cy="6133309"/>
+          <a:off x="9077325" y="9893300"/>
+          <a:ext cx="5685714" cy="5574509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8956,15 +8956,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161218</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>180182</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593018</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8987,8 +8987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="16325850"/>
-          <a:ext cx="5657143" cy="5580857"/>
+          <a:off x="9134475" y="15751175"/>
+          <a:ext cx="5657143" cy="5282407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8999,16 +8999,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84207</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>57702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>208838</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>37589</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293045</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>69891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9031,8 +9031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11010900" y="22755225"/>
-          <a:ext cx="5695238" cy="4085714"/>
+          <a:off x="8775424" y="21620093"/>
+          <a:ext cx="5675360" cy="3949189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10066,16 +10066,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="64.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="15.5">
       <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15.5">
       <c r="A2" s="87" t="s">
         <v>64</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.5">
       <c r="A19" s="86" t="s">
         <v>140</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="174" t="s">
         <v>714</v>
       </c>
@@ -10201,7 +10201,7 @@
       <c r="E22" s="241"/>
       <c r="F22" s="119"/>
     </row>
-    <row r="23" spans="1:7" ht="17.25">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="130">
         <v>1</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>302.59399999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>17.898499999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="15" thickBot="1">
       <c r="A38" s="133">
         <v>24</v>
       </c>
@@ -10477,7 +10477,7 @@
       <c r="C39" s="135"/>
       <c r="D39" s="135"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" thickBot="1">
+    <row r="53" spans="1:8" ht="16" thickBot="1">
       <c r="A53" s="175" t="s">
         <v>715</v>
       </c>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1">
+    <row r="73" spans="1:6" ht="15" thickBot="1">
       <c r="A73" s="133"/>
       <c r="B73" s="121"/>
       <c r="C73" s="133"/>
@@ -10756,17 +10756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10782,23 +10782,23 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>1319</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16.5" thickBot="1">
+    <row r="17" spans="1:27" ht="16" thickBot="1">
       <c r="A17" s="86" t="s">
         <v>140</v>
       </c>
@@ -10937,13 +10937,13 @@
       <c r="AA19" s="279"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="253">
+      <c r="A20" s="268">
         <v>28</v>
       </c>
-      <c r="B20" s="253" t="s">
+      <c r="B20" s="268" t="s">
         <v>688</v>
       </c>
-      <c r="C20" s="260" t="s">
+      <c r="C20" s="265" t="s">
         <v>689</v>
       </c>
       <c r="D20" s="97" t="s">
@@ -10954,9 +10954,9 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="254"/>
-      <c r="B21" s="254"/>
-      <c r="C21" s="261"/>
+      <c r="A21" s="269"/>
+      <c r="B21" s="269"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="97" t="s">
         <v>691</v>
       </c>
@@ -10965,9 +10965,9 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="255"/>
-      <c r="B22" s="255"/>
-      <c r="C22" s="262"/>
+      <c r="A22" s="270"/>
+      <c r="B22" s="270"/>
+      <c r="C22" s="275"/>
       <c r="D22" s="74" t="s">
         <v>692</v>
       </c>
@@ -10976,13 +10976,13 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="253">
+      <c r="A23" s="268">
         <v>29</v>
       </c>
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="268" t="s">
         <v>693</v>
       </c>
-      <c r="C23" s="292" t="s">
+      <c r="C23" s="295" t="s">
         <v>694</v>
       </c>
       <c r="D23" s="97" t="s">
@@ -10993,9 +10993,9 @@
       </c>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="254"/>
-      <c r="B24" s="254"/>
-      <c r="C24" s="293"/>
+      <c r="A24" s="269"/>
+      <c r="B24" s="269"/>
+      <c r="C24" s="296"/>
       <c r="D24" s="97" t="s">
         <v>691</v>
       </c>
@@ -11004,9 +11004,9 @@
       </c>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="255"/>
-      <c r="B25" s="255"/>
-      <c r="C25" s="294"/>
+      <c r="A25" s="270"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="297"/>
       <c r="D25" s="74" t="s">
         <v>692</v>
       </c>
@@ -11015,13 +11015,13 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="253">
+      <c r="A26" s="268">
         <v>30</v>
       </c>
-      <c r="B26" s="253" t="s">
+      <c r="B26" s="268" t="s">
         <v>695</v>
       </c>
-      <c r="C26" s="292" t="s">
+      <c r="C26" s="295" t="s">
         <v>696</v>
       </c>
       <c r="D26" s="97" t="s">
@@ -11032,9 +11032,9 @@
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="254"/>
-      <c r="B27" s="254"/>
-      <c r="C27" s="293"/>
+      <c r="A27" s="269"/>
+      <c r="B27" s="269"/>
+      <c r="C27" s="296"/>
       <c r="D27" s="97" t="s">
         <v>691</v>
       </c>
@@ -11043,9 +11043,9 @@
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="255"/>
-      <c r="B28" s="255"/>
-      <c r="C28" s="294"/>
+      <c r="A28" s="270"/>
+      <c r="B28" s="270"/>
+      <c r="C28" s="297"/>
       <c r="D28" s="74" t="s">
         <v>692</v>
       </c>
@@ -11054,13 +11054,13 @@
       </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="253">
+      <c r="A29" s="268">
         <v>31</v>
       </c>
-      <c r="B29" s="253" t="s">
+      <c r="B29" s="268" t="s">
         <v>697</v>
       </c>
-      <c r="C29" s="260" t="s">
+      <c r="C29" s="265" t="s">
         <v>698</v>
       </c>
       <c r="D29" s="97" t="s">
@@ -11071,9 +11071,9 @@
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="254"/>
-      <c r="B30" s="254"/>
-      <c r="C30" s="261"/>
+      <c r="A30" s="269"/>
+      <c r="B30" s="269"/>
+      <c r="C30" s="266"/>
       <c r="D30" s="97" t="s">
         <v>691</v>
       </c>
@@ -11082,9 +11082,9 @@
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="255"/>
-      <c r="B31" s="255"/>
-      <c r="C31" s="262"/>
+      <c r="A31" s="270"/>
+      <c r="B31" s="270"/>
+      <c r="C31" s="275"/>
       <c r="D31" s="74" t="s">
         <v>692</v>
       </c>
@@ -11093,13 +11093,13 @@
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="253">
+      <c r="A32" s="268">
         <v>32</v>
       </c>
-      <c r="B32" s="253" t="s">
+      <c r="B32" s="268" t="s">
         <v>699</v>
       </c>
-      <c r="C32" s="260" t="s">
+      <c r="C32" s="265" t="s">
         <v>700</v>
       </c>
       <c r="D32" s="97" t="s">
@@ -11110,9 +11110,9 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="254"/>
-      <c r="B33" s="254"/>
-      <c r="C33" s="261"/>
+      <c r="A33" s="269"/>
+      <c r="B33" s="269"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="97" t="s">
         <v>691</v>
       </c>
@@ -11121,9 +11121,9 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="255"/>
-      <c r="B34" s="255"/>
-      <c r="C34" s="262"/>
+      <c r="A34" s="270"/>
+      <c r="B34" s="270"/>
+      <c r="C34" s="275"/>
       <c r="D34" s="74" t="s">
         <v>692</v>
       </c>
@@ -11132,13 +11132,13 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="253">
+      <c r="A35" s="268">
         <v>33</v>
       </c>
-      <c r="B35" s="253" t="s">
+      <c r="B35" s="268" t="s">
         <v>701</v>
       </c>
-      <c r="C35" s="296" t="s">
+      <c r="C35" s="305" t="s">
         <v>702</v>
       </c>
       <c r="D35" s="97" t="s">
@@ -11149,9 +11149,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="254"/>
-      <c r="B36" s="254"/>
-      <c r="C36" s="297"/>
+      <c r="A36" s="269"/>
+      <c r="B36" s="269"/>
+      <c r="C36" s="306"/>
       <c r="D36" s="97" t="s">
         <v>691</v>
       </c>
@@ -11160,9 +11160,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="255"/>
-      <c r="B37" s="255"/>
-      <c r="C37" s="298"/>
+      <c r="A37" s="270"/>
+      <c r="B37" s="270"/>
+      <c r="C37" s="307"/>
       <c r="D37" s="74" t="s">
         <v>692</v>
       </c>
@@ -11171,13 +11171,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1">
-      <c r="A38" s="302">
+      <c r="A38" s="298">
         <v>34</v>
       </c>
-      <c r="B38" s="302" t="s">
+      <c r="B38" s="298" t="s">
         <v>703</v>
       </c>
-      <c r="C38" s="305" t="s">
+      <c r="C38" s="301" t="s">
         <v>704</v>
       </c>
       <c r="D38" s="99" t="s">
@@ -11186,42 +11186,42 @@
       <c r="E38" s="100">
         <v>0.72</v>
       </c>
-      <c r="F38" s="299" t="s">
+      <c r="F38" s="292" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="303"/>
-      <c r="B39" s="303"/>
-      <c r="C39" s="306"/>
+      <c r="A39" s="299"/>
+      <c r="B39" s="299"/>
+      <c r="C39" s="302"/>
       <c r="D39" s="99" t="s">
         <v>691</v>
       </c>
       <c r="E39" s="100">
         <v>0.72</v>
       </c>
-      <c r="F39" s="300"/>
+      <c r="F39" s="293"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="304"/>
-      <c r="B40" s="304"/>
-      <c r="C40" s="307"/>
+      <c r="A40" s="300"/>
+      <c r="B40" s="300"/>
+      <c r="C40" s="303"/>
       <c r="D40" s="101" t="s">
         <v>692</v>
       </c>
       <c r="E40" s="100">
         <v>0.72</v>
       </c>
-      <c r="F40" s="301"/>
+      <c r="F40" s="294"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="253">
+      <c r="A41" s="268">
         <v>35</v>
       </c>
-      <c r="B41" s="253" t="s">
+      <c r="B41" s="268" t="s">
         <v>706</v>
       </c>
-      <c r="C41" s="292" t="s">
+      <c r="C41" s="295" t="s">
         <v>707</v>
       </c>
       <c r="D41" s="97" t="s">
@@ -11232,9 +11232,9 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="254"/>
-      <c r="B42" s="254"/>
-      <c r="C42" s="293"/>
+      <c r="A42" s="269"/>
+      <c r="B42" s="269"/>
+      <c r="C42" s="296"/>
       <c r="D42" s="97" t="s">
         <v>691</v>
       </c>
@@ -11243,9 +11243,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="255"/>
-      <c r="B43" s="255"/>
-      <c r="C43" s="294"/>
+      <c r="A43" s="270"/>
+      <c r="B43" s="270"/>
+      <c r="C43" s="297"/>
       <c r="D43" s="74" t="s">
         <v>692</v>
       </c>
@@ -11254,13 +11254,13 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="253">
+      <c r="A44" s="268">
         <v>36</v>
       </c>
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="268" t="s">
         <v>708</v>
       </c>
-      <c r="C44" s="292" t="s">
+      <c r="C44" s="295" t="s">
         <v>709</v>
       </c>
       <c r="D44" s="97" t="s">
@@ -11272,9 +11272,9 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="254"/>
-      <c r="B45" s="254"/>
-      <c r="C45" s="293"/>
+      <c r="A45" s="269"/>
+      <c r="B45" s="269"/>
+      <c r="C45" s="296"/>
       <c r="D45" s="97" t="s">
         <v>691</v>
       </c>
@@ -11283,9 +11283,9 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="255"/>
-      <c r="B46" s="255"/>
-      <c r="C46" s="294"/>
+      <c r="A46" s="270"/>
+      <c r="B46" s="270"/>
+      <c r="C46" s="297"/>
       <c r="D46" s="74" t="s">
         <v>692</v>
       </c>
@@ -11294,13 +11294,13 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="253">
+      <c r="A47" s="268">
         <v>37</v>
       </c>
-      <c r="B47" s="253" t="s">
+      <c r="B47" s="268" t="s">
         <v>710</v>
       </c>
-      <c r="C47" s="292" t="s">
+      <c r="C47" s="295" t="s">
         <v>711</v>
       </c>
       <c r="D47" s="97" t="s">
@@ -11311,9 +11311,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="254"/>
-      <c r="B48" s="254"/>
-      <c r="C48" s="293"/>
+      <c r="A48" s="269"/>
+      <c r="B48" s="269"/>
+      <c r="C48" s="296"/>
       <c r="D48" s="97" t="s">
         <v>691</v>
       </c>
@@ -11321,10 +11321,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A49" s="254"/>
-      <c r="B49" s="256"/>
-      <c r="C49" s="295"/>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
+      <c r="A49" s="269"/>
+      <c r="B49" s="276"/>
+      <c r="C49" s="304"/>
       <c r="D49" s="181" t="s">
         <v>692</v>
       </c>
@@ -11337,25 +11337,20 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
@@ -11368,20 +11363,25 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11396,23 +11396,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="81.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="81.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>732</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+    <row r="17" spans="1:7" ht="16" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+    <row r="18" spans="1:7" ht="15" thickTop="1">
       <c r="A18" s="308" t="s">
         <v>36</v>
       </c>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="F18" s="119"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="15" thickBot="1">
       <c r="A19" s="309"/>
       <c r="B19" s="250"/>
       <c r="C19" s="250"/>
@@ -11784,7 +11784,7 @@
         <v>3172188.11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+    <row r="36" spans="1:5" ht="15" thickBot="1">
       <c r="A36" s="127">
         <v>20</v>
       </c>
@@ -11824,26 +11824,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1">
+    <row r="1" spans="1:4" ht="17.5" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>730</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
+    <row r="2" spans="1:4" ht="15" thickTop="1"/>
     <row r="3" spans="1:4">
       <c r="A3" s="114" t="s">
         <v>65</v>
@@ -11872,7 +11872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16.5" thickBot="1">
+    <row r="17" spans="1:27" ht="16" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -11930,8 +11930,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickTop="1">
-      <c r="A18" s="289" t="s">
+    <row r="18" spans="1:27" ht="15" thickTop="1">
+      <c r="A18" s="288" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="249" t="s">
@@ -11953,8 +11953,8 @@
         <v>863</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A19" s="290"/>
+    <row r="19" spans="1:27" ht="15" thickBot="1">
+      <c r="A19" s="289"/>
       <c r="B19" s="250"/>
       <c r="C19" s="250"/>
       <c r="D19" s="285"/>
@@ -12580,7 +12580,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="272">
+      <c r="A60" s="262">
         <v>64</v>
       </c>
       <c r="B60" s="310" t="s">
@@ -12594,7 +12594,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="272"/>
+      <c r="A61" s="262"/>
       <c r="B61" s="310"/>
       <c r="C61" s="60" t="s">
         <v>865</v>
@@ -12604,7 +12604,7 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="272"/>
+      <c r="A62" s="262"/>
       <c r="B62" s="310"/>
       <c r="C62" s="60" t="s">
         <v>866</v>
@@ -12614,7 +12614,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="272"/>
+      <c r="A63" s="262"/>
       <c r="B63" s="310"/>
       <c r="C63" s="60" t="s">
         <v>858</v>
@@ -12624,7 +12624,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="272"/>
+      <c r="A64" s="262"/>
       <c r="B64" s="310"/>
       <c r="C64" s="60" t="s">
         <v>867</v>
@@ -12634,7 +12634,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="272"/>
+      <c r="A65" s="262"/>
       <c r="B65" s="310"/>
       <c r="C65" s="60" t="s">
         <v>868</v>
@@ -12644,7 +12644,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="272"/>
+      <c r="A66" s="262"/>
       <c r="B66" s="310"/>
       <c r="C66" s="60" t="s">
         <v>869</v>
@@ -12654,7 +12654,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="272"/>
+      <c r="A67" s="262"/>
       <c r="B67" s="310"/>
       <c r="C67" s="60" t="s">
         <v>870</v>
@@ -12664,7 +12664,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="272"/>
+      <c r="A68" s="262"/>
       <c r="B68" s="310"/>
       <c r="C68" s="60" t="s">
         <v>871</v>
@@ -12674,7 +12674,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="272"/>
+      <c r="A69" s="262"/>
       <c r="B69" s="310"/>
       <c r="C69" s="60" t="s">
         <v>872</v>
@@ -12684,7 +12684,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="272">
+      <c r="A70" s="262">
         <v>65</v>
       </c>
       <c r="B70" s="311" t="s">
@@ -12698,7 +12698,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="272"/>
+      <c r="A71" s="262"/>
       <c r="B71" s="312"/>
       <c r="C71" s="60" t="s">
         <v>865</v>
@@ -12708,7 +12708,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="272"/>
+      <c r="A72" s="262"/>
       <c r="B72" s="312"/>
       <c r="C72" s="60" t="s">
         <v>866</v>
@@ -12718,7 +12718,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="272"/>
+      <c r="A73" s="262"/>
       <c r="B73" s="312"/>
       <c r="C73" s="60" t="s">
         <v>858</v>
@@ -12728,7 +12728,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="272"/>
+      <c r="A74" s="262"/>
       <c r="B74" s="312"/>
       <c r="C74" s="60" t="s">
         <v>867</v>
@@ -12738,7 +12738,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="272"/>
+      <c r="A75" s="262"/>
       <c r="B75" s="312"/>
       <c r="C75" s="60" t="s">
         <v>868</v>
@@ -12749,7 +12749,7 @@
       <c r="F75" s="111"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="272"/>
+      <c r="A76" s="262"/>
       <c r="B76" s="312"/>
       <c r="C76" s="60" t="s">
         <v>869</v>
@@ -12760,7 +12760,7 @@
       <c r="F76" s="111"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="272"/>
+      <c r="A77" s="262"/>
       <c r="B77" s="312"/>
       <c r="C77" s="60" t="s">
         <v>870</v>
@@ -12771,7 +12771,7 @@
       <c r="F77" s="111"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="272"/>
+      <c r="A78" s="262"/>
       <c r="B78" s="312"/>
       <c r="C78" s="60" t="s">
         <v>871</v>
@@ -12782,7 +12782,7 @@
       <c r="F78" s="111"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="272"/>
+      <c r="A79" s="262"/>
       <c r="B79" s="313"/>
       <c r="C79" s="60" t="s">
         <v>872</v>
@@ -12826,7 +12826,7 @@
     <row r="85" spans="1:15">
       <c r="F85" s="111"/>
     </row>
-    <row r="86" spans="1:15" ht="15.75">
+    <row r="86" spans="1:15" ht="15.5">
       <c r="A86" s="176" t="s">
         <v>873</v>
       </c>
@@ -12845,7 +12845,7 @@
       <c r="F87" s="111"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="260">
+      <c r="A88" s="265">
         <v>66</v>
       </c>
       <c r="B88" s="311" t="s">
@@ -12860,7 +12860,7 @@
       <c r="E88" s="112"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="261"/>
+      <c r="A89" s="266"/>
       <c r="B89" s="312"/>
       <c r="C89" s="60" t="s">
         <v>875</v>
@@ -12871,7 +12871,7 @@
       <c r="E89" s="112"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="261"/>
+      <c r="A90" s="266"/>
       <c r="B90" s="312"/>
       <c r="C90" s="60" t="s">
         <v>876</v>
@@ -12882,7 +12882,7 @@
       <c r="E90" s="112"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="261"/>
+      <c r="A91" s="266"/>
       <c r="B91" s="312"/>
       <c r="C91" s="60" t="s">
         <v>877</v>
@@ -12893,7 +12893,7 @@
       <c r="E91" s="112"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="261"/>
+      <c r="A92" s="266"/>
       <c r="B92" s="312"/>
       <c r="C92" s="60" t="s">
         <v>878</v>
@@ -12904,7 +12904,7 @@
       <c r="E92" s="112"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="261"/>
+      <c r="A93" s="266"/>
       <c r="B93" s="312"/>
       <c r="C93" s="60" t="s">
         <v>879</v>
@@ -12915,7 +12915,7 @@
       <c r="E93" s="112"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="261"/>
+      <c r="A94" s="266"/>
       <c r="B94" s="312"/>
       <c r="C94" s="60" t="s">
         <v>880</v>
@@ -12926,7 +12926,7 @@
       <c r="E94" s="112"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="262"/>
+      <c r="A95" s="275"/>
       <c r="B95" s="313"/>
       <c r="C95" s="60" t="s">
         <v>881</v>
@@ -12937,7 +12937,7 @@
       <c r="E95" s="112"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="260">
+      <c r="A96" s="265">
         <v>67</v>
       </c>
       <c r="B96" s="311" t="s">
@@ -12952,7 +12952,7 @@
       <c r="E96" s="112"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="261"/>
+      <c r="A97" s="266"/>
       <c r="B97" s="312"/>
       <c r="C97" s="60" t="s">
         <v>875</v>
@@ -12963,7 +12963,7 @@
       <c r="E97" s="112"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="261"/>
+      <c r="A98" s="266"/>
       <c r="B98" s="312"/>
       <c r="C98" s="60" t="s">
         <v>876</v>
@@ -12974,7 +12974,7 @@
       <c r="E98" s="112"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="261"/>
+      <c r="A99" s="266"/>
       <c r="B99" s="312"/>
       <c r="C99" s="60" t="s">
         <v>877</v>
@@ -12985,7 +12985,7 @@
       <c r="E99" s="112"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="261"/>
+      <c r="A100" s="266"/>
       <c r="B100" s="312"/>
       <c r="C100" s="60" t="s">
         <v>878</v>
@@ -12996,7 +12996,7 @@
       <c r="E100" s="112"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="261"/>
+      <c r="A101" s="266"/>
       <c r="B101" s="312"/>
       <c r="C101" s="60" t="s">
         <v>879</v>
@@ -13007,7 +13007,7 @@
       <c r="E101" s="112"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="261"/>
+      <c r="A102" s="266"/>
       <c r="B102" s="312"/>
       <c r="C102" s="60" t="s">
         <v>880</v>
@@ -13018,7 +13018,7 @@
       <c r="E102" s="112"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="262"/>
+      <c r="A103" s="275"/>
       <c r="B103" s="313"/>
       <c r="C103" s="60" t="s">
         <v>881</v>
@@ -13029,7 +13029,7 @@
       <c r="E103" s="112"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="260">
+      <c r="A104" s="265">
         <v>68</v>
       </c>
       <c r="B104" s="311" t="s">
@@ -13044,7 +13044,7 @@
       <c r="E104" s="112"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="261"/>
+      <c r="A105" s="266"/>
       <c r="B105" s="312"/>
       <c r="C105" s="60" t="s">
         <v>875</v>
@@ -13055,7 +13055,7 @@
       <c r="E105" s="112"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="261"/>
+      <c r="A106" s="266"/>
       <c r="B106" s="312"/>
       <c r="C106" s="60" t="s">
         <v>876</v>
@@ -13066,7 +13066,7 @@
       <c r="E106" s="112"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="261"/>
+      <c r="A107" s="266"/>
       <c r="B107" s="312"/>
       <c r="C107" s="60" t="s">
         <v>877</v>
@@ -13083,7 +13083,7 @@
       </c>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="261"/>
+      <c r="A108" s="266"/>
       <c r="B108" s="312"/>
       <c r="C108" s="60" t="s">
         <v>878</v>
@@ -13094,7 +13094,7 @@
       <c r="E108" s="112"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="261"/>
+      <c r="A109" s="266"/>
       <c r="B109" s="312"/>
       <c r="C109" s="60" t="s">
         <v>879</v>
@@ -13105,7 +13105,7 @@
       <c r="E109" s="112"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="261"/>
+      <c r="A110" s="266"/>
       <c r="B110" s="312"/>
       <c r="C110" s="60" t="s">
         <v>880</v>
@@ -13116,7 +13116,7 @@
       <c r="E110" s="112"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="262"/>
+      <c r="A111" s="275"/>
       <c r="B111" s="313"/>
       <c r="C111" s="60" t="s">
         <v>881</v>
@@ -13127,7 +13127,7 @@
       <c r="E111" s="112"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="272">
+      <c r="A112" s="262">
         <v>69</v>
       </c>
       <c r="B112" s="310" t="s">
@@ -13141,7 +13141,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="272"/>
+      <c r="A113" s="262"/>
       <c r="B113" s="310"/>
       <c r="C113" s="60" t="s">
         <v>875</v>
@@ -13152,7 +13152,7 @@
       <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="272"/>
+      <c r="A114" s="262"/>
       <c r="B114" s="310"/>
       <c r="C114" s="60" t="s">
         <v>876</v>
@@ -13163,7 +13163,7 @@
       <c r="F114" s="111"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="272"/>
+      <c r="A115" s="262"/>
       <c r="B115" s="310"/>
       <c r="C115" s="60" t="s">
         <v>877</v>
@@ -13174,7 +13174,7 @@
       <c r="F115" s="111"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="272"/>
+      <c r="A116" s="262"/>
       <c r="B116" s="310"/>
       <c r="C116" s="60" t="s">
         <v>878</v>
@@ -13185,7 +13185,7 @@
       <c r="F116" s="111"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="272"/>
+      <c r="A117" s="262"/>
       <c r="B117" s="310"/>
       <c r="C117" s="60" t="s">
         <v>879</v>
@@ -13196,7 +13196,7 @@
       <c r="F117" s="111"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="272"/>
+      <c r="A118" s="262"/>
       <c r="B118" s="310"/>
       <c r="C118" s="60" t="s">
         <v>880</v>
@@ -13207,7 +13207,7 @@
       <c r="F118" s="111"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="272"/>
+      <c r="A119" s="262"/>
       <c r="B119" s="310"/>
       <c r="C119" s="60" t="s">
         <v>881</v>
@@ -13248,7 +13248,7 @@
     <row r="127" spans="1:6">
       <c r="F127" s="111"/>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="15.5">
       <c r="A128" s="176" t="s">
         <v>979</v>
       </c>
@@ -13349,16 +13349,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="X19:Y19"/>
     <mergeCell ref="B112:B119"/>
     <mergeCell ref="A112:A119"/>
     <mergeCell ref="A88:A95"/>
@@ -13367,6 +13357,16 @@
     <mergeCell ref="A96:A103"/>
     <mergeCell ref="B104:B111"/>
     <mergeCell ref="A104:A111"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13378,26 +13378,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C66" sqref="C65:C66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>729</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" thickBot="1">
+    <row r="17" spans="1:16" ht="16" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>678</v>
       </c>
@@ -13471,8 +13471,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1">
-      <c r="A18" s="289" t="s">
+    <row r="18" spans="1:16" ht="15" thickTop="1">
+      <c r="A18" s="288" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="249" t="s">
@@ -13489,8 +13489,8 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A19" s="290"/>
+    <row r="19" spans="1:16" ht="15" thickBot="1">
+      <c r="A19" s="289"/>
       <c r="B19" s="250"/>
       <c r="C19" s="250"/>
       <c r="D19" s="315"/>
@@ -13961,7 +13961,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1">
+    <row r="53" spans="1:6" ht="15" thickBot="1">
       <c r="A53" s="133">
         <v>60</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1">
+    <row r="59" spans="1:6" ht="15" thickBot="1">
       <c r="A59" s="146"/>
       <c r="B59" s="190" t="s">
         <v>86</v>
@@ -14053,7 +14053,7 @@
       <c r="C60" s="135"/>
       <c r="D60" s="135"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" ht="15.5">
       <c r="A61" s="180" t="s">
         <v>1001</v>
       </c>
@@ -14188,15 +14188,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14207,13 +14207,13 @@
       <c r="B1" s="93"/>
       <c r="G1" s="124"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" ht="15" thickTop="1"/>
+    <row r="3" spans="1:10" ht="15.5">
       <c r="A3" s="125" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10" ht="15.5">
       <c r="A4" s="122" t="s">
         <v>141</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="86" t="s">
         <v>140</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickTop="1">
+    <row r="10" spans="1:10" ht="15" thickTop="1">
       <c r="A10" s="247" t="s">
         <v>36</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="248"/>
       <c r="B11" s="241"/>
       <c r="C11" s="241"/>
@@ -14344,7 +14344,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="120" t="s">
         <v>917</v>
       </c>
@@ -14359,12 +14359,12 @@
       </c>
       <c r="E16" s="121"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="15.5">
       <c r="A20" s="125" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.5">
       <c r="A21" s="122" t="s">
         <v>141</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="122" t="s">
         <v>140</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1">
+    <row r="27" spans="1:7" ht="15" thickTop="1">
       <c r="A27" s="247" t="s">
         <v>36</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+    <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="248"/>
       <c r="B28" s="241"/>
       <c r="C28" s="241"/>
@@ -14494,7 +14494,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1">
+    <row r="33" spans="1:7" ht="15" thickBot="1">
       <c r="A33" s="120" t="s">
         <v>917</v>
       </c>
@@ -14509,12 +14509,12 @@
       </c>
       <c r="E33" s="121"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="15.5">
       <c r="A37" s="125" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="15.5">
       <c r="A38" s="122" t="s">
         <v>141</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1">
+    <row r="43" spans="1:7" ht="16" thickBot="1">
       <c r="A43" s="86" t="s">
         <v>140</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickTop="1">
+    <row r="44" spans="1:7" ht="15" thickTop="1">
       <c r="A44" s="247" t="s">
         <v>36</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
+    <row r="45" spans="1:7" ht="15" thickBot="1">
       <c r="A45" s="248"/>
       <c r="B45" s="241"/>
       <c r="C45" s="241"/>
@@ -14644,7 +14644,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
+    <row r="50" spans="1:7" ht="15" thickBot="1">
       <c r="A50" s="120" t="s">
         <v>917</v>
       </c>
@@ -14661,12 +14661,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="15.5">
       <c r="A54" s="125" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="15.5">
       <c r="A55" s="122" t="s">
         <v>141</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" thickBot="1">
+    <row r="60" spans="1:7" ht="16" thickBot="1">
       <c r="A60" s="86" t="s">
         <v>140</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickTop="1">
+    <row r="61" spans="1:7" ht="15" thickTop="1">
       <c r="A61" s="247" t="s">
         <v>36</v>
       </c>
@@ -14767,12 +14767,12 @@
         <v>916</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="15.5">
       <c r="A68" s="125" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="15.5">
       <c r="A69" s="122" t="s">
         <v>141</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" thickBot="1">
+    <row r="74" spans="1:7" ht="16" thickBot="1">
       <c r="A74" s="86" t="s">
         <v>140</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickTop="1">
+    <row r="75" spans="1:7" ht="15" thickTop="1">
       <c r="A75" s="247" t="s">
         <v>36</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1">
+    <row r="76" spans="1:7" ht="15" thickBot="1">
       <c r="A76" s="248"/>
       <c r="B76" s="241"/>
       <c r="C76" s="241"/>
@@ -14902,7 +14902,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1">
+    <row r="81" spans="1:5" ht="15" thickBot="1">
       <c r="A81" s="121" t="s">
         <v>917</v>
       </c>
@@ -14919,12 +14919,12 @@
         <v>923</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75">
+    <row r="85" spans="1:5" ht="15.5">
       <c r="A85" s="125" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75">
+    <row r="86" spans="1:5" ht="15.5">
       <c r="A86" s="122" t="s">
         <v>141</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16.5" thickBot="1">
+    <row r="106" spans="1:14" ht="16" thickBot="1">
       <c r="A106" s="86" t="s">
         <v>140</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15.75" thickTop="1">
+    <row r="107" spans="1:14" ht="15" thickTop="1">
       <c r="A107" s="247" t="s">
         <v>36</v>
       </c>
@@ -15224,12 +15224,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75">
+    <row r="125" spans="1:5" ht="15.5">
       <c r="A125" s="125" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75">
+    <row r="126" spans="1:5" ht="15.5">
       <c r="A126" s="122" t="s">
         <v>141</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.5" thickBot="1">
+    <row r="131" spans="1:7" ht="16" thickBot="1">
       <c r="A131" s="86" t="s">
         <v>140</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" ht="15" thickBot="1">
       <c r="A138" s="120" t="s">
         <v>917</v>
       </c>
@@ -15378,41 +15378,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15424,30 +15424,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q239"/>
   <sheetViews>
-    <sheetView topLeftCell="C234" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1">
+    <row r="1" spans="1:4" ht="16" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="15" thickTop="1"/>
+    <row r="3" spans="1:4" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+    <row r="17" spans="1:12" ht="16" thickBot="1">
       <c r="A17" t="s">
         <v>1313</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickTop="1">
+    <row r="18" spans="1:12" ht="15" thickTop="1">
       <c r="A18" t="s">
         <v>971</v>
       </c>
@@ -15552,12 +15552,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="15.5">
       <c r="A23" s="86" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="15" thickBot="1">
       <c r="A24" s="8" t="s">
         <v>1297</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15" thickBot="1">
       <c r="A31" s="196">
         <v>58</v>
       </c>
@@ -15696,7 +15696,7 @@
       </c>
       <c r="F31" s="206"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15" thickBot="1">
       <c r="A32" s="196">
         <v>59</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1">
+    <row r="39" spans="1:16" ht="15" thickBot="1">
       <c r="A39" s="200">
         <v>79</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1">
+    <row r="45" spans="1:16" ht="15" thickBot="1">
       <c r="A45" s="8" t="s">
         <v>1061</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1">
+    <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" s="200">
         <v>56</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1">
+    <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" s="200">
         <v>33</v>
       </c>
@@ -16360,7 +16360,7 @@
       </c>
       <c r="F69" s="206"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1">
+    <row r="70" spans="1:9" ht="15" thickBot="1">
       <c r="A70" s="200">
         <v>64</v>
       </c>
@@ -16386,7 +16386,7 @@
     <row r="73" spans="1:9">
       <c r="I73" s="8"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1">
+    <row r="77" spans="1:9" ht="15" thickBot="1">
       <c r="A77" s="8" t="s">
         <v>1133</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1">
+    <row r="89" spans="1:6" ht="15" thickBot="1">
       <c r="A89" s="200">
         <v>20</v>
       </c>
@@ -16669,7 +16669,7 @@
     <row r="100" spans="1:9" ht="24" customHeight="1">
       <c r="A100" s="33"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1">
+    <row r="101" spans="1:9" ht="15" thickBot="1">
       <c r="A101" s="8" t="s">
         <v>1181</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1">
+    <row r="116" spans="1:9" ht="15" thickBot="1">
       <c r="A116" s="200">
         <v>49</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15.75" thickBot="1">
+    <row r="129" spans="1:17" ht="15" thickBot="1">
       <c r="A129" s="8" t="s">
         <v>1224</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15.75" thickBot="1">
+    <row r="134" spans="1:17" ht="15" thickBot="1">
       <c r="A134" s="210">
         <v>80</v>
       </c>
@@ -17147,13 +17147,13 @@
     <row r="137" spans="1:17">
       <c r="I137" s="33"/>
     </row>
-    <row r="138" spans="1:17" ht="15.75">
+    <row r="138" spans="1:17" ht="15.5">
       <c r="A138" s="9" t="s">
         <v>1245</v>
       </c>
       <c r="I138" s="33"/>
     </row>
-    <row r="139" spans="1:17" ht="15.75" thickBot="1">
+    <row r="139" spans="1:17" ht="15" thickBot="1">
       <c r="A139" s="8" t="s">
         <v>1246</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15.75" thickBot="1">
+    <row r="141" spans="1:17" ht="15" thickBot="1">
       <c r="A141" s="250"/>
       <c r="B141" s="250"/>
       <c r="C141" s="317"/>
@@ -17300,7 +17300,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1">
+    <row r="157" spans="1:3" ht="15" thickBot="1">
       <c r="A157" s="215" t="s">
         <v>1280</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" thickBot="1">
+    <row r="160" spans="1:3" ht="15" thickBot="1">
       <c r="A160" s="8" t="s">
         <v>1301</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.75" thickBot="1">
+    <row r="179" spans="1:9" ht="15" thickBot="1">
       <c r="A179" s="229" t="s">
         <v>1291</v>
       </c>
@@ -17535,7 +17535,7 @@
       <c r="B181" s="33"/>
       <c r="F181" s="33"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" thickBot="1">
+    <row r="182" spans="1:9" ht="15" thickBot="1">
       <c r="A182" s="8" t="s">
         <v>692</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.75" thickBot="1">
+    <row r="185" spans="1:9" ht="15" thickBot="1">
       <c r="A185" s="215" t="s">
         <v>1263</v>
       </c>
@@ -17586,7 +17586,7 @@
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" thickBot="1">
+    <row r="188" spans="1:9" ht="15" thickBot="1">
       <c r="A188" s="8" t="s">
         <v>1247</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15.75" thickBot="1">
+    <row r="196" spans="1:16" ht="15" thickBot="1">
       <c r="A196" s="215" t="s">
         <v>1282</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15.75" thickBot="1">
+    <row r="203" spans="1:16" ht="15" thickBot="1">
       <c r="A203" s="8" t="s">
         <v>1307</v>
       </c>
@@ -17716,7 +17716,7 @@
       <c r="G204" s="197"/>
       <c r="H204" s="14"/>
     </row>
-    <row r="205" spans="1:16" ht="15.75" thickBot="1">
+    <row r="205" spans="1:16" ht="15" thickBot="1">
       <c r="A205" s="250"/>
       <c r="B205" s="250"/>
       <c r="C205" s="250"/>
@@ -17793,7 +17793,7 @@
       <c r="G209" s="14"/>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="1:16" ht="15.75" thickBot="1">
+    <row r="210" spans="1:16" ht="15" thickBot="1">
       <c r="A210" s="210">
         <v>85</v>
       </c>
@@ -17950,7 +17950,7 @@
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" ht="15.75" thickBot="1">
+    <row r="230" spans="1:8" ht="15" thickBot="1">
       <c r="A230" s="8" t="s">
         <v>1308</v>
       </c>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="G231" s="209"/>
     </row>
-    <row r="232" spans="1:8" ht="15.75" thickBot="1">
+    <row r="232" spans="1:8" ht="15" thickBot="1">
       <c r="A232" s="250"/>
       <c r="B232" s="250"/>
       <c r="C232" s="250"/>
@@ -18045,7 +18045,7 @@
       <c r="E236" s="209"/>
       <c r="F236" s="198"/>
     </row>
-    <row r="237" spans="1:8" ht="15.75" thickBot="1">
+    <row r="237" spans="1:8" ht="15" thickBot="1">
       <c r="A237" s="210">
         <v>89</v>
       </c>
@@ -18066,6 +18066,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A140:A141"/>
     <mergeCell ref="F204:F205"/>
     <mergeCell ref="A231:A232"/>
     <mergeCell ref="B231:B232"/>
@@ -18075,15 +18084,6 @@
     <mergeCell ref="F231:F232"/>
     <mergeCell ref="D204:D205"/>
     <mergeCell ref="E204:E205"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A140:A141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18099,16 +18099,16 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="1" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="87" t="s">
         <v>64</v>
       </c>
@@ -18124,12 +18124,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+    <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="A4" s="92" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickTop="1">
+    <row r="5" spans="1:7" ht="16" thickTop="1">
       <c r="A5" s="86" t="s">
         <v>141</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="166" t="s">
         <v>140</v>
       </c>
@@ -18255,13 +18255,13 @@
     <row r="23" spans="1:9" ht="21.75" customHeight="1">
       <c r="A23" s="28"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1">
+    <row r="25" spans="1:9" ht="16" thickBot="1">
       <c r="A25" s="94" t="s">
         <v>717</v>
       </c>
       <c r="B25" s="94"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1">
+    <row r="26" spans="1:9" ht="16" thickTop="1">
       <c r="A26" s="86" t="s">
         <v>141</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1">
+    <row r="35" spans="1:8" ht="16" thickBot="1">
       <c r="A35" s="166" t="s">
         <v>140</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>404.59699999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1">
+    <row r="50" spans="1:6" ht="15" thickBot="1">
       <c r="A50" s="19"/>
       <c r="B50" s="21" t="s">
         <v>80</v>
@@ -18746,7 +18746,7 @@
         <v>3447380</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1">
+    <row r="63" spans="1:6" ht="15" thickBot="1">
       <c r="A63" s="19"/>
       <c r="B63" s="21" t="s">
         <v>84</v>
@@ -18954,7 +18954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1">
+    <row r="76" spans="1:6" ht="15" thickBot="1">
       <c r="A76" s="19"/>
       <c r="B76" s="21" t="s">
         <v>85</v>
@@ -19162,7 +19162,7 @@
         <v>-74.957300000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1">
+    <row r="89" spans="1:6" ht="15" thickBot="1">
       <c r="A89" s="19"/>
       <c r="B89" s="21" t="s">
         <v>87</v>
@@ -19180,12 +19180,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -19194,6 +19188,12 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19209,26 +19209,26 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1">
+    <row r="1" spans="1:6" ht="17.5" thickBot="1">
       <c r="A1" s="83" t="s">
         <v>718</v>
       </c>
       <c r="B1" s="84"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15" thickTop="1"/>
+    <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -19244,7 +19244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -19297,7 +19297,7 @@
     <row r="16" spans="1:6">
       <c r="F16" s="242"/>
     </row>
-    <row r="17" spans="1:15" ht="18" thickBot="1">
+    <row r="17" spans="1:15" ht="17.5" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -19576,7 +19576,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+    <row r="30" spans="1:15" ht="15" thickBot="1">
       <c r="A30" s="150">
         <v>19</v>
       </c>
@@ -19734,26 +19734,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="A1:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" customWidth="1"/>
     <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" thickBot="1">
+    <row r="1" spans="1:2" ht="17.5" thickBot="1">
       <c r="A1" s="83" t="s">
         <v>719</v>
       </c>
       <c r="B1" s="58"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>188</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1">
+    <row r="17" spans="1:6" ht="16" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:4" ht="15" thickBot="1">
       <c r="A43" s="146">
         <v>2</v>
       </c>
@@ -20209,28 +20209,28 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="44" max="44" width="18.5703125" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="61.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="44" max="44" width="18.54296875" customWidth="1"/>
+    <col min="46" max="46" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="18" thickBot="1">
+    <row r="1" spans="1:44" ht="17.5" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>721</v>
       </c>
       <c r="B1" s="85"/>
     </row>
-    <row r="2" spans="1:44" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:44" ht="15.75">
+    <row r="2" spans="1:44" ht="15" thickTop="1"/>
+    <row r="3" spans="1:44" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -20241,7 +20241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.75">
+    <row r="4" spans="1:44" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -20252,12 +20252,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.75">
+    <row r="6" spans="1:44" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="18" thickBot="1">
+    <row r="7" spans="1:44" ht="17.5" thickBot="1">
       <c r="A7" t="s">
         <v>976</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.75" thickTop="1">
+    <row r="8" spans="1:44" ht="15" thickTop="1">
       <c r="A8" t="s">
         <v>638</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1">
+    <row r="19" spans="1:8" ht="16" thickBot="1">
       <c r="A19" s="122" t="s">
         <v>140</v>
       </c>
@@ -20848,7 +20848,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="1:8" ht="18" thickBot="1">
+    <row r="47" spans="1:8" ht="17.5" thickBot="1">
       <c r="A47" s="89" t="s">
         <v>720</v>
       </c>
@@ -20860,7 +20860,7 @@
       <c r="G47" s="36"/>
       <c r="H47" s="34"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" thickTop="1">
+    <row r="48" spans="1:8" ht="16" thickTop="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="48"/>
@@ -20870,7 +20870,7 @@
       <c r="G48" s="36"/>
       <c r="H48" s="34"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75">
+    <row r="49" spans="1:8" ht="15.5">
       <c r="A49" s="86" t="s">
         <v>65</v>
       </c>
@@ -20884,7 +20884,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="34"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75">
+    <row r="50" spans="1:8" ht="15.5">
       <c r="A50" s="86" t="s">
         <v>64</v>
       </c>
@@ -20898,7 +20898,7 @@
       <c r="G50" s="36"/>
       <c r="H50" s="34"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
+    <row r="52" spans="1:8" ht="15.5">
       <c r="A52" s="86" t="s">
         <v>188</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18" thickBot="1">
+    <row r="63" spans="1:8" ht="17.5" thickBot="1">
       <c r="A63" s="86" t="s">
         <v>140</v>
       </c>
@@ -20986,7 +20986,7 @@
       <c r="F65" s="241"/>
       <c r="G65" s="119"/>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="29">
       <c r="A66" s="12">
         <v>19</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30">
+    <row r="67" spans="1:7" ht="29">
       <c r="A67" s="12">
         <v>20</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30">
+    <row r="70" spans="1:7" ht="29">
       <c r="A70" s="12">
         <v>30</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="29">
       <c r="A71" s="12">
         <v>31</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1">
+    <row r="91" spans="1:6" ht="15" thickBot="1">
       <c r="A91" s="143">
         <v>89</v>
       </c>
@@ -21506,26 +21506,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="S200" sqref="S200"/>
+    <sheetView tabSelected="1" topLeftCell="D101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="50.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1">
+    <row r="1" spans="1:4" ht="17.5" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>722</v>
       </c>
       <c r="B1" s="89"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="15" thickTop="1"/>
+    <row r="3" spans="1:4" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -21537,7 +21537,7 @@
       </c>
       <c r="D3" s="81"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>188</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1">
+    <row r="17" spans="1:7" ht="17.5" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -21603,20 +21603,20 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A18" s="273" t="s">
+    <row r="18" spans="1:7" ht="15" thickTop="1">
+      <c r="A18" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="271" t="s">
+      <c r="B18" s="256" t="s">
         <v>562</v>
       </c>
-      <c r="C18" s="278" t="s">
+      <c r="C18" s="259" t="s">
         <v>563</v>
       </c>
-      <c r="D18" s="278" t="s">
+      <c r="D18" s="259" t="s">
         <v>564</v>
       </c>
-      <c r="E18" s="278" t="s">
+      <c r="E18" s="259" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -21624,33 +21624,33 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="274"/>
-      <c r="B19" s="276"/>
-      <c r="C19" s="276"/>
-      <c r="D19" s="276"/>
-      <c r="E19" s="276"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="275"/>
-      <c r="B20" s="277"/>
-      <c r="C20" s="277"/>
-      <c r="D20" s="277"/>
-      <c r="E20" s="277"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="270" t="s">
+      <c r="A19" s="254"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="257"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1">
+      <c r="A20" s="255"/>
+      <c r="B20" s="258"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="258"/>
+      <c r="E20" s="258"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5">
+      <c r="A21" s="260" t="s">
         <v>1022</v>
       </c>
-      <c r="B21" s="271"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="271"/>
-      <c r="E21" s="271"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="257">
+      <c r="A22" s="261">
         <v>32</v>
       </c>
-      <c r="B22" s="272" t="s">
+      <c r="B22" s="262" t="s">
         <v>565</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -21664,8 +21664,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="257"/>
-      <c r="B23" s="272"/>
+      <c r="A23" s="261"/>
+      <c r="B23" s="262"/>
       <c r="C23" s="12">
         <v>2</v>
       </c>
@@ -21677,8 +21677,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="257"/>
-      <c r="B24" s="272"/>
+      <c r="A24" s="261"/>
+      <c r="B24" s="262"/>
       <c r="C24" s="12">
         <v>3</v>
       </c>
@@ -21690,8 +21690,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="257"/>
-      <c r="B25" s="272"/>
+      <c r="A25" s="261"/>
+      <c r="B25" s="262"/>
       <c r="C25" s="12">
         <v>4</v>
       </c>
@@ -21703,8 +21703,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="257"/>
-      <c r="B26" s="272"/>
+      <c r="A26" s="261"/>
+      <c r="B26" s="262"/>
       <c r="C26" s="12">
         <v>5</v>
       </c>
@@ -21716,8 +21716,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="257"/>
-      <c r="B27" s="272"/>
+      <c r="A27" s="261"/>
+      <c r="B27" s="262"/>
       <c r="C27" s="12">
         <v>6</v>
       </c>
@@ -21729,8 +21729,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="257"/>
-      <c r="B28" s="272"/>
+      <c r="A28" s="261"/>
+      <c r="B28" s="262"/>
       <c r="C28" s="12">
         <v>7</v>
       </c>
@@ -21742,8 +21742,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="257"/>
-      <c r="B29" s="272"/>
+      <c r="A29" s="261"/>
+      <c r="B29" s="262"/>
       <c r="C29" s="12">
         <v>8</v>
       </c>
@@ -21755,8 +21755,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="257"/>
-      <c r="B30" s="272"/>
+      <c r="A30" s="261"/>
+      <c r="B30" s="262"/>
       <c r="C30" s="12">
         <v>9</v>
       </c>
@@ -21768,8 +21768,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="257"/>
-      <c r="B31" s="272"/>
+      <c r="A31" s="261"/>
+      <c r="B31" s="262"/>
       <c r="C31" s="12">
         <v>10</v>
       </c>
@@ -21781,8 +21781,8 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="257"/>
-      <c r="B32" s="272"/>
+      <c r="A32" s="261"/>
+      <c r="B32" s="262"/>
       <c r="C32" s="12">
         <v>11</v>
       </c>
@@ -21794,8 +21794,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="257"/>
-      <c r="B33" s="272"/>
+      <c r="A33" s="261"/>
+      <c r="B33" s="262"/>
       <c r="C33" s="12">
         <v>12</v>
       </c>
@@ -21807,10 +21807,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="267">
+      <c r="A34" s="263">
         <v>33</v>
       </c>
-      <c r="B34" s="260" t="s">
+      <c r="B34" s="265" t="s">
         <v>568</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -21824,8 +21824,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="268"/>
-      <c r="B35" s="261"/>
+      <c r="A35" s="264"/>
+      <c r="B35" s="266"/>
       <c r="C35" s="12">
         <v>2</v>
       </c>
@@ -21837,8 +21837,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="268"/>
-      <c r="B36" s="261"/>
+      <c r="A36" s="264"/>
+      <c r="B36" s="266"/>
       <c r="C36" s="12">
         <v>3</v>
       </c>
@@ -21850,8 +21850,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="268"/>
-      <c r="B37" s="261"/>
+      <c r="A37" s="264"/>
+      <c r="B37" s="266"/>
       <c r="C37" s="12">
         <v>4</v>
       </c>
@@ -21863,8 +21863,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="268"/>
-      <c r="B38" s="261"/>
+      <c r="A38" s="264"/>
+      <c r="B38" s="266"/>
       <c r="C38" s="12">
         <v>5</v>
       </c>
@@ -21876,8 +21876,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="268"/>
-      <c r="B39" s="261"/>
+      <c r="A39" s="264"/>
+      <c r="B39" s="266"/>
       <c r="C39" s="12">
         <v>6</v>
       </c>
@@ -21889,8 +21889,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="268"/>
-      <c r="B40" s="261"/>
+      <c r="A40" s="264"/>
+      <c r="B40" s="266"/>
       <c r="C40" s="12">
         <v>7</v>
       </c>
@@ -21902,8 +21902,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="268"/>
-      <c r="B41" s="261"/>
+      <c r="A41" s="264"/>
+      <c r="B41" s="266"/>
       <c r="C41" s="12">
         <v>8</v>
       </c>
@@ -21915,8 +21915,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="268"/>
-      <c r="B42" s="261"/>
+      <c r="A42" s="264"/>
+      <c r="B42" s="266"/>
       <c r="C42" s="12">
         <v>9</v>
       </c>
@@ -21928,8 +21928,8 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="268"/>
-      <c r="B43" s="261"/>
+      <c r="A43" s="264"/>
+      <c r="B43" s="266"/>
       <c r="C43" s="12">
         <v>10</v>
       </c>
@@ -21941,8 +21941,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="268"/>
-      <c r="B44" s="261"/>
+      <c r="A44" s="264"/>
+      <c r="B44" s="266"/>
       <c r="C44" s="12">
         <v>11</v>
       </c>
@@ -21954,8 +21954,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="268"/>
-      <c r="B45" s="261"/>
+      <c r="A45" s="264"/>
+      <c r="B45" s="266"/>
       <c r="C45" s="12">
         <v>12</v>
       </c>
@@ -21966,11 +21966,11 @@
         <v>1896060</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="267">
+    <row r="46" spans="1:5">
+      <c r="A46" s="263">
         <v>34</v>
       </c>
-      <c r="B46" s="253" t="s">
+      <c r="B46" s="268" t="s">
         <v>571</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -21984,10 +21984,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="268">
+      <c r="A47" s="264">
         <v>62</v>
       </c>
-      <c r="B47" s="254" t="s">
+      <c r="B47" s="269" t="s">
         <v>574</v>
       </c>
       <c r="C47" s="12">
@@ -22001,8 +22001,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="268"/>
-      <c r="B48" s="254"/>
+      <c r="A48" s="264"/>
+      <c r="B48" s="269"/>
       <c r="C48" s="12">
         <v>3</v>
       </c>
@@ -22014,8 +22014,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="268"/>
-      <c r="B49" s="254"/>
+      <c r="A49" s="264"/>
+      <c r="B49" s="269"/>
       <c r="C49" s="12">
         <v>4</v>
       </c>
@@ -22027,8 +22027,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="268"/>
-      <c r="B50" s="254"/>
+      <c r="A50" s="264"/>
+      <c r="B50" s="269"/>
       <c r="C50" s="12">
         <v>5</v>
       </c>
@@ -22040,8 +22040,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="268"/>
-      <c r="B51" s="254"/>
+      <c r="A51" s="264"/>
+      <c r="B51" s="269"/>
       <c r="C51" s="12">
         <v>6</v>
       </c>
@@ -22053,8 +22053,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="268"/>
-      <c r="B52" s="254"/>
+      <c r="A52" s="264"/>
+      <c r="B52" s="269"/>
       <c r="C52" s="12">
         <v>7</v>
       </c>
@@ -22066,8 +22066,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="268"/>
-      <c r="B53" s="254"/>
+      <c r="A53" s="264"/>
+      <c r="B53" s="269"/>
       <c r="C53" s="12">
         <v>8</v>
       </c>
@@ -22079,8 +22079,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="268"/>
-      <c r="B54" s="254"/>
+      <c r="A54" s="264"/>
+      <c r="B54" s="269"/>
       <c r="C54" s="12">
         <v>9</v>
       </c>
@@ -22092,8 +22092,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="268"/>
-      <c r="B55" s="254"/>
+      <c r="A55" s="264"/>
+      <c r="B55" s="269"/>
       <c r="C55" s="12">
         <v>10</v>
       </c>
@@ -22105,8 +22105,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="268"/>
-      <c r="B56" s="254"/>
+      <c r="A56" s="264"/>
+      <c r="B56" s="269"/>
       <c r="C56" s="12">
         <v>11</v>
       </c>
@@ -22118,8 +22118,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="268"/>
-      <c r="B57" s="254"/>
+      <c r="A57" s="264"/>
+      <c r="B57" s="269"/>
       <c r="C57" s="12">
         <v>12</v>
       </c>
@@ -22131,8 +22131,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="269"/>
-      <c r="B58" s="254"/>
+      <c r="A58" s="267"/>
+      <c r="B58" s="269"/>
       <c r="C58" s="70"/>
       <c r="D58" s="71">
         <v>13</v>
@@ -22140,10 +22140,10 @@
       <c r="E58" s="72"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="267">
+      <c r="A59" s="263">
         <v>35</v>
       </c>
-      <c r="B59" s="253" t="s">
+      <c r="B59" s="268" t="s">
         <v>575</v>
       </c>
       <c r="C59" s="73" t="s">
@@ -22157,8 +22157,8 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="268"/>
-      <c r="B60" s="254"/>
+      <c r="A60" s="264"/>
+      <c r="B60" s="269"/>
       <c r="C60" s="12">
         <v>2</v>
       </c>
@@ -22170,8 +22170,8 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="268"/>
-      <c r="B61" s="254"/>
+      <c r="A61" s="264"/>
+      <c r="B61" s="269"/>
       <c r="C61" s="12">
         <v>3</v>
       </c>
@@ -22183,8 +22183,8 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="268"/>
-      <c r="B62" s="254"/>
+      <c r="A62" s="264"/>
+      <c r="B62" s="269"/>
       <c r="C62" s="12">
         <v>4</v>
       </c>
@@ -22196,8 +22196,8 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="268"/>
-      <c r="B63" s="254"/>
+      <c r="A63" s="264"/>
+      <c r="B63" s="269"/>
       <c r="C63" s="12">
         <v>5</v>
       </c>
@@ -22209,8 +22209,8 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="268"/>
-      <c r="B64" s="254"/>
+      <c r="A64" s="264"/>
+      <c r="B64" s="269"/>
       <c r="C64" s="12">
         <v>6</v>
       </c>
@@ -22222,8 +22222,8 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="268"/>
-      <c r="B65" s="254"/>
+      <c r="A65" s="264"/>
+      <c r="B65" s="269"/>
       <c r="C65" s="12">
         <v>7</v>
       </c>
@@ -22235,8 +22235,8 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="268"/>
-      <c r="B66" s="254"/>
+      <c r="A66" s="264"/>
+      <c r="B66" s="269"/>
       <c r="C66" s="12">
         <v>8</v>
       </c>
@@ -22248,8 +22248,8 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="268"/>
-      <c r="B67" s="254"/>
+      <c r="A67" s="264"/>
+      <c r="B67" s="269"/>
       <c r="C67" s="12">
         <v>9</v>
       </c>
@@ -22261,8 +22261,8 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="268"/>
-      <c r="B68" s="254"/>
+      <c r="A68" s="264"/>
+      <c r="B68" s="269"/>
       <c r="C68" s="12">
         <v>10</v>
       </c>
@@ -22274,8 +22274,8 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="268"/>
-      <c r="B69" s="254"/>
+      <c r="A69" s="264"/>
+      <c r="B69" s="269"/>
       <c r="C69" s="12">
         <v>11</v>
       </c>
@@ -22287,8 +22287,8 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="268"/>
-      <c r="B70" s="254"/>
+      <c r="A70" s="264"/>
+      <c r="B70" s="269"/>
       <c r="C70" s="12">
         <v>12</v>
       </c>
@@ -22300,13 +22300,13 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="269"/>
-      <c r="B71" s="254"/>
+      <c r="A71" s="267"/>
+      <c r="B71" s="269"/>
       <c r="C71" s="70"/>
       <c r="D71" s="71"/>
       <c r="E71" s="72"/>
     </row>
-    <row r="72" spans="1:5" ht="30">
+    <row r="72" spans="1:5" ht="29">
       <c r="A72" s="223">
         <v>36</v>
       </c>
@@ -22323,11 +22323,11 @@
         <v>39.283200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30">
-      <c r="A73" s="253">
+    <row r="73" spans="1:5">
+      <c r="A73" s="268">
         <v>37</v>
       </c>
-      <c r="B73" s="253" t="s">
+      <c r="B73" s="268" t="s">
         <v>581</v>
       </c>
       <c r="C73" s="12" t="s">
@@ -22341,8 +22341,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="254"/>
-      <c r="B74" s="254"/>
+      <c r="A74" s="269"/>
+      <c r="B74" s="269"/>
       <c r="C74" s="12">
         <v>2</v>
       </c>
@@ -22354,8 +22354,8 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="254"/>
-      <c r="B75" s="254"/>
+      <c r="A75" s="269"/>
+      <c r="B75" s="269"/>
       <c r="C75" s="12">
         <v>3</v>
       </c>
@@ -22367,8 +22367,8 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="254"/>
-      <c r="B76" s="254"/>
+      <c r="A76" s="269"/>
+      <c r="B76" s="269"/>
       <c r="C76" s="12">
         <v>4</v>
       </c>
@@ -22380,8 +22380,8 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="254"/>
-      <c r="B77" s="254"/>
+      <c r="A77" s="269"/>
+      <c r="B77" s="269"/>
       <c r="C77" s="12">
         <v>5</v>
       </c>
@@ -22393,8 +22393,8 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="254"/>
-      <c r="B78" s="254"/>
+      <c r="A78" s="269"/>
+      <c r="B78" s="269"/>
       <c r="C78" s="12">
         <v>6</v>
       </c>
@@ -22406,8 +22406,8 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="254"/>
-      <c r="B79" s="254"/>
+      <c r="A79" s="269"/>
+      <c r="B79" s="269"/>
       <c r="C79" s="12">
         <v>7</v>
       </c>
@@ -22419,8 +22419,8 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="254"/>
-      <c r="B80" s="254"/>
+      <c r="A80" s="269"/>
+      <c r="B80" s="269"/>
       <c r="C80" s="12">
         <v>8</v>
       </c>
@@ -22432,8 +22432,8 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="254"/>
-      <c r="B81" s="254"/>
+      <c r="A81" s="269"/>
+      <c r="B81" s="269"/>
       <c r="C81" s="12">
         <v>9</v>
       </c>
@@ -22445,8 +22445,8 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="254"/>
-      <c r="B82" s="254"/>
+      <c r="A82" s="269"/>
+      <c r="B82" s="269"/>
       <c r="C82" s="12">
         <v>10</v>
       </c>
@@ -22458,8 +22458,8 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="254"/>
-      <c r="B83" s="254"/>
+      <c r="A83" s="269"/>
+      <c r="B83" s="269"/>
       <c r="C83" s="12">
         <v>11</v>
       </c>
@@ -22471,8 +22471,8 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="254"/>
-      <c r="B84" s="254"/>
+      <c r="A84" s="269"/>
+      <c r="B84" s="269"/>
       <c r="C84" s="12">
         <v>12</v>
       </c>
@@ -22484,8 +22484,8 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="255"/>
-      <c r="B85" s="255"/>
+      <c r="A85" s="270"/>
+      <c r="B85" s="270"/>
       <c r="C85" s="70"/>
       <c r="D85" s="74"/>
       <c r="E85" s="72"/>
@@ -22508,10 +22508,10 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="253">
+      <c r="A87" s="268">
         <v>39</v>
       </c>
-      <c r="B87" s="253" t="s">
+      <c r="B87" s="268" t="s">
         <v>587</v>
       </c>
       <c r="C87" s="12" t="s">
@@ -22525,8 +22525,8 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="254"/>
-      <c r="B88" s="254"/>
+      <c r="A88" s="269"/>
+      <c r="B88" s="269"/>
       <c r="C88" s="12">
         <v>2</v>
       </c>
@@ -22538,8 +22538,8 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="254"/>
-      <c r="B89" s="254"/>
+      <c r="A89" s="269"/>
+      <c r="B89" s="269"/>
       <c r="C89" s="12">
         <v>3</v>
       </c>
@@ -22551,8 +22551,8 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="254"/>
-      <c r="B90" s="254"/>
+      <c r="A90" s="269"/>
+      <c r="B90" s="269"/>
       <c r="C90" s="12">
         <v>4</v>
       </c>
@@ -22564,8 +22564,8 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="254"/>
-      <c r="B91" s="254"/>
+      <c r="A91" s="269"/>
+      <c r="B91" s="269"/>
       <c r="C91" s="12">
         <v>5</v>
       </c>
@@ -22577,8 +22577,8 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="254"/>
-      <c r="B92" s="254"/>
+      <c r="A92" s="269"/>
+      <c r="B92" s="269"/>
       <c r="C92" s="12">
         <v>6</v>
       </c>
@@ -22590,8 +22590,8 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="254"/>
-      <c r="B93" s="254"/>
+      <c r="A93" s="269"/>
+      <c r="B93" s="269"/>
       <c r="C93" s="12">
         <v>7</v>
       </c>
@@ -22603,8 +22603,8 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="254"/>
-      <c r="B94" s="254"/>
+      <c r="A94" s="269"/>
+      <c r="B94" s="269"/>
       <c r="C94" s="12">
         <v>8</v>
       </c>
@@ -22616,8 +22616,8 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="254"/>
-      <c r="B95" s="254"/>
+      <c r="A95" s="269"/>
+      <c r="B95" s="269"/>
       <c r="C95" s="12">
         <v>9</v>
       </c>
@@ -22629,8 +22629,8 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="254"/>
-      <c r="B96" s="254"/>
+      <c r="A96" s="269"/>
+      <c r="B96" s="269"/>
       <c r="C96" s="12">
         <v>10</v>
       </c>
@@ -22642,8 +22642,8 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="254"/>
-      <c r="B97" s="254"/>
+      <c r="A97" s="269"/>
+      <c r="B97" s="269"/>
       <c r="C97" s="12">
         <v>11</v>
       </c>
@@ -22655,8 +22655,8 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="254"/>
-      <c r="B98" s="254"/>
+      <c r="A98" s="269"/>
+      <c r="B98" s="269"/>
       <c r="C98" s="12">
         <v>12</v>
       </c>
@@ -22668,8 +22668,8 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="255"/>
-      <c r="B99" s="255"/>
+      <c r="A99" s="270"/>
+      <c r="B99" s="270"/>
       <c r="C99" s="70"/>
       <c r="D99" s="70"/>
       <c r="E99" s="72"/>
@@ -22692,10 +22692,10 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A101" s="253">
+      <c r="A101" s="268">
         <v>41</v>
       </c>
-      <c r="B101" s="253" t="s">
+      <c r="B101" s="268" t="s">
         <v>593</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -22709,8 +22709,8 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="254"/>
-      <c r="B102" s="254"/>
+      <c r="A102" s="269"/>
+      <c r="B102" s="269"/>
       <c r="C102" s="12">
         <v>2</v>
       </c>
@@ -22722,8 +22722,8 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="254"/>
-      <c r="B103" s="254"/>
+      <c r="A103" s="269"/>
+      <c r="B103" s="269"/>
       <c r="C103" s="12">
         <v>3</v>
       </c>
@@ -22735,8 +22735,8 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="254"/>
-      <c r="B104" s="254"/>
+      <c r="A104" s="269"/>
+      <c r="B104" s="269"/>
       <c r="C104" s="12">
         <v>4</v>
       </c>
@@ -22748,8 +22748,8 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="254"/>
-      <c r="B105" s="254"/>
+      <c r="A105" s="269"/>
+      <c r="B105" s="269"/>
       <c r="C105" s="12">
         <v>5</v>
       </c>
@@ -22761,8 +22761,8 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="254"/>
-      <c r="B106" s="254"/>
+      <c r="A106" s="269"/>
+      <c r="B106" s="269"/>
       <c r="C106" s="12">
         <v>6</v>
       </c>
@@ -22774,8 +22774,8 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="254"/>
-      <c r="B107" s="254"/>
+      <c r="A107" s="269"/>
+      <c r="B107" s="269"/>
       <c r="C107" s="12">
         <v>7</v>
       </c>
@@ -22787,8 +22787,8 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="254"/>
-      <c r="B108" s="254"/>
+      <c r="A108" s="269"/>
+      <c r="B108" s="269"/>
       <c r="C108" s="12">
         <v>8</v>
       </c>
@@ -22800,8 +22800,8 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="254"/>
-      <c r="B109" s="254"/>
+      <c r="A109" s="269"/>
+      <c r="B109" s="269"/>
       <c r="C109" s="12">
         <v>9</v>
       </c>
@@ -22813,8 +22813,8 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="254"/>
-      <c r="B110" s="254"/>
+      <c r="A110" s="269"/>
+      <c r="B110" s="269"/>
       <c r="C110" s="12">
         <v>10</v>
       </c>
@@ -22826,8 +22826,8 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="254"/>
-      <c r="B111" s="254"/>
+      <c r="A111" s="269"/>
+      <c r="B111" s="269"/>
       <c r="C111" s="12">
         <v>11</v>
       </c>
@@ -22839,8 +22839,8 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="254"/>
-      <c r="B112" s="254"/>
+      <c r="A112" s="269"/>
+      <c r="B112" s="269"/>
       <c r="C112" s="12">
         <v>12</v>
       </c>
@@ -22852,10 +22852,10 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A113" s="253">
+      <c r="A113" s="268">
         <v>44</v>
       </c>
-      <c r="B113" s="253" t="s">
+      <c r="B113" s="268" t="s">
         <v>596</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -22869,8 +22869,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="254"/>
-      <c r="B114" s="254"/>
+      <c r="A114" s="269"/>
+      <c r="B114" s="269"/>
       <c r="C114" s="12">
         <v>2</v>
       </c>
@@ -22882,8 +22882,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="254"/>
-      <c r="B115" s="254"/>
+      <c r="A115" s="269"/>
+      <c r="B115" s="269"/>
       <c r="C115" s="12">
         <v>3</v>
       </c>
@@ -22895,8 +22895,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="254"/>
-      <c r="B116" s="254"/>
+      <c r="A116" s="269"/>
+      <c r="B116" s="269"/>
       <c r="C116" s="12">
         <v>4</v>
       </c>
@@ -22908,8 +22908,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="254"/>
-      <c r="B117" s="254"/>
+      <c r="A117" s="269"/>
+      <c r="B117" s="269"/>
       <c r="C117" s="12">
         <v>5</v>
       </c>
@@ -22921,8 +22921,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="254"/>
-      <c r="B118" s="254"/>
+      <c r="A118" s="269"/>
+      <c r="B118" s="269"/>
       <c r="C118" s="12">
         <v>6</v>
       </c>
@@ -22934,8 +22934,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="254"/>
-      <c r="B119" s="254"/>
+      <c r="A119" s="269"/>
+      <c r="B119" s="269"/>
       <c r="C119" s="12">
         <v>7</v>
       </c>
@@ -22947,8 +22947,8 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="254"/>
-      <c r="B120" s="254"/>
+      <c r="A120" s="269"/>
+      <c r="B120" s="269"/>
       <c r="C120" s="12">
         <v>8</v>
       </c>
@@ -22960,8 +22960,8 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="254"/>
-      <c r="B121" s="254"/>
+      <c r="A121" s="269"/>
+      <c r="B121" s="269"/>
       <c r="C121" s="12">
         <v>9</v>
       </c>
@@ -22973,8 +22973,8 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="254"/>
-      <c r="B122" s="254"/>
+      <c r="A122" s="269"/>
+      <c r="B122" s="269"/>
       <c r="C122" s="12">
         <v>10</v>
       </c>
@@ -22986,8 +22986,8 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="254"/>
-      <c r="B123" s="254"/>
+      <c r="A123" s="269"/>
+      <c r="B123" s="269"/>
       <c r="C123" s="12">
         <v>11</v>
       </c>
@@ -22999,8 +22999,8 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="254"/>
-      <c r="B124" s="254"/>
+      <c r="A124" s="269"/>
+      <c r="B124" s="269"/>
       <c r="C124" s="12">
         <v>12</v>
       </c>
@@ -23012,8 +23012,8 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="255"/>
-      <c r="B125" s="255"/>
+      <c r="A125" s="270"/>
+      <c r="B125" s="270"/>
       <c r="C125" s="70"/>
       <c r="D125" s="70">
         <v>13</v>
@@ -23021,10 +23021,10 @@
       <c r="E125" s="72"/>
     </row>
     <row r="126" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A126" s="253">
+      <c r="A126" s="268">
         <v>45</v>
       </c>
-      <c r="B126" s="253" t="s">
+      <c r="B126" s="268" t="s">
         <v>599</v>
       </c>
       <c r="C126" s="12" t="s">
@@ -23038,8 +23038,8 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="254"/>
-      <c r="B127" s="254"/>
+      <c r="A127" s="269"/>
+      <c r="B127" s="269"/>
       <c r="C127" s="12">
         <v>2</v>
       </c>
@@ -23051,8 +23051,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="254"/>
-      <c r="B128" s="254"/>
+      <c r="A128" s="269"/>
+      <c r="B128" s="269"/>
       <c r="C128" s="12">
         <v>3</v>
       </c>
@@ -23064,8 +23064,8 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="254"/>
-      <c r="B129" s="254"/>
+      <c r="A129" s="269"/>
+      <c r="B129" s="269"/>
       <c r="C129" s="12">
         <v>4</v>
       </c>
@@ -23077,8 +23077,8 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="254"/>
-      <c r="B130" s="254"/>
+      <c r="A130" s="269"/>
+      <c r="B130" s="269"/>
       <c r="C130" s="12">
         <v>5</v>
       </c>
@@ -23090,8 +23090,8 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="254"/>
-      <c r="B131" s="254"/>
+      <c r="A131" s="269"/>
+      <c r="B131" s="269"/>
       <c r="C131" s="12">
         <v>6</v>
       </c>
@@ -23103,8 +23103,8 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="254"/>
-      <c r="B132" s="254"/>
+      <c r="A132" s="269"/>
+      <c r="B132" s="269"/>
       <c r="C132" s="12">
         <v>7</v>
       </c>
@@ -23116,8 +23116,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="254"/>
-      <c r="B133" s="254"/>
+      <c r="A133" s="269"/>
+      <c r="B133" s="269"/>
       <c r="C133" s="12">
         <v>8</v>
       </c>
@@ -23129,8 +23129,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="254"/>
-      <c r="B134" s="254"/>
+      <c r="A134" s="269"/>
+      <c r="B134" s="269"/>
       <c r="C134" s="12">
         <v>9</v>
       </c>
@@ -23142,8 +23142,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="254"/>
-      <c r="B135" s="254"/>
+      <c r="A135" s="269"/>
+      <c r="B135" s="269"/>
       <c r="C135" s="12">
         <v>10</v>
       </c>
@@ -23155,8 +23155,8 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="254"/>
-      <c r="B136" s="254"/>
+      <c r="A136" s="269"/>
+      <c r="B136" s="269"/>
       <c r="C136" s="12">
         <v>11</v>
       </c>
@@ -23168,8 +23168,8 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="254"/>
-      <c r="B137" s="254"/>
+      <c r="A137" s="269"/>
+      <c r="B137" s="269"/>
       <c r="C137" s="12">
         <v>12</v>
       </c>
@@ -23180,9 +23180,9 @@
         <v>4231300</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A138" s="254"/>
-      <c r="B138" s="254"/>
+    <row r="138" spans="1:7" ht="15" thickBot="1">
+      <c r="A138" s="269"/>
+      <c r="B138" s="269"/>
       <c r="C138" s="70"/>
       <c r="D138" s="70"/>
       <c r="E138" s="72"/>
@@ -23191,10 +23191,10 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="45" hidden="1" customHeight="1">
-      <c r="A139" s="253">
+      <c r="A139" s="268">
         <v>46</v>
       </c>
-      <c r="B139" s="253" t="s">
+      <c r="B139" s="268" t="s">
         <v>602</v>
       </c>
       <c r="C139" s="12" t="s">
@@ -23208,8 +23208,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="254"/>
-      <c r="B140" s="254"/>
+      <c r="A140" s="269"/>
+      <c r="B140" s="269"/>
       <c r="C140" s="12">
         <v>2</v>
       </c>
@@ -23219,8 +23219,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="254"/>
-      <c r="B141" s="254"/>
+      <c r="A141" s="269"/>
+      <c r="B141" s="269"/>
       <c r="C141" s="12">
         <v>3</v>
       </c>
@@ -23230,8 +23230,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="254"/>
-      <c r="B142" s="254"/>
+      <c r="A142" s="269"/>
+      <c r="B142" s="269"/>
       <c r="C142" s="12">
         <v>4</v>
       </c>
@@ -23241,8 +23241,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="254"/>
-      <c r="B143" s="254"/>
+      <c r="A143" s="269"/>
+      <c r="B143" s="269"/>
       <c r="C143" s="12">
         <v>5</v>
       </c>
@@ -23252,8 +23252,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="254"/>
-      <c r="B144" s="254"/>
+      <c r="A144" s="269"/>
+      <c r="B144" s="269"/>
       <c r="C144" s="12">
         <v>6</v>
       </c>
@@ -23263,8 +23263,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="254"/>
-      <c r="B145" s="254"/>
+      <c r="A145" s="269"/>
+      <c r="B145" s="269"/>
       <c r="C145" s="12">
         <v>7</v>
       </c>
@@ -23274,8 +23274,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="254"/>
-      <c r="B146" s="254"/>
+      <c r="A146" s="269"/>
+      <c r="B146" s="269"/>
       <c r="C146" s="12">
         <v>8</v>
       </c>
@@ -23285,8 +23285,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="254"/>
-      <c r="B147" s="254"/>
+      <c r="A147" s="269"/>
+      <c r="B147" s="269"/>
       <c r="C147" s="12">
         <v>9</v>
       </c>
@@ -23296,8 +23296,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="254"/>
-      <c r="B148" s="254"/>
+      <c r="A148" s="269"/>
+      <c r="B148" s="269"/>
       <c r="C148" s="12">
         <v>10</v>
       </c>
@@ -23307,8 +23307,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="254"/>
-      <c r="B149" s="254"/>
+      <c r="A149" s="269"/>
+      <c r="B149" s="269"/>
       <c r="C149" s="12">
         <v>11</v>
       </c>
@@ -23318,8 +23318,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A150" s="254"/>
-      <c r="B150" s="254"/>
+      <c r="A150" s="269"/>
+      <c r="B150" s="269"/>
       <c r="C150" s="12">
         <v>12</v>
       </c>
@@ -23328,20 +23328,20 @@
         <v>943.53399999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A151" s="265" t="s">
+    <row r="151" spans="1:5" ht="16" thickBot="1">
+      <c r="A151" s="273" t="s">
         <v>1021</v>
       </c>
-      <c r="B151" s="266"/>
-      <c r="C151" s="266"/>
-      <c r="D151" s="266"/>
-      <c r="E151" s="266"/>
+      <c r="B151" s="274"/>
+      <c r="C151" s="274"/>
+      <c r="D151" s="274"/>
+      <c r="E151" s="274"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="263">
+      <c r="A152" s="271">
         <v>47</v>
       </c>
-      <c r="B152" s="264" t="s">
+      <c r="B152" s="272" t="s">
         <v>605</v>
       </c>
       <c r="C152" s="78" t="s">
@@ -23355,8 +23355,8 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="254"/>
-      <c r="B153" s="261"/>
+      <c r="A153" s="269"/>
+      <c r="B153" s="266"/>
       <c r="C153" s="12">
         <v>2</v>
       </c>
@@ -23368,8 +23368,8 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="254"/>
-      <c r="B154" s="261"/>
+      <c r="A154" s="269"/>
+      <c r="B154" s="266"/>
       <c r="C154" s="12">
         <v>3</v>
       </c>
@@ -23381,8 +23381,8 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="254"/>
-      <c r="B155" s="261"/>
+      <c r="A155" s="269"/>
+      <c r="B155" s="266"/>
       <c r="C155" s="12">
         <v>4</v>
       </c>
@@ -23394,8 +23394,8 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="254"/>
-      <c r="B156" s="261"/>
+      <c r="A156" s="269"/>
+      <c r="B156" s="266"/>
       <c r="C156" s="12">
         <v>5</v>
       </c>
@@ -23407,8 +23407,8 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="254"/>
-      <c r="B157" s="261"/>
+      <c r="A157" s="269"/>
+      <c r="B157" s="266"/>
       <c r="C157" s="12">
         <v>6</v>
       </c>
@@ -23420,8 +23420,8 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="254"/>
-      <c r="B158" s="261"/>
+      <c r="A158" s="269"/>
+      <c r="B158" s="266"/>
       <c r="C158" s="12">
         <v>7</v>
       </c>
@@ -23433,8 +23433,8 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="254"/>
-      <c r="B159" s="261"/>
+      <c r="A159" s="269"/>
+      <c r="B159" s="266"/>
       <c r="C159" s="12">
         <v>8</v>
       </c>
@@ -23446,8 +23446,8 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="254"/>
-      <c r="B160" s="261"/>
+      <c r="A160" s="269"/>
+      <c r="B160" s="266"/>
       <c r="C160" s="12">
         <v>9</v>
       </c>
@@ -23459,8 +23459,8 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="254"/>
-      <c r="B161" s="261"/>
+      <c r="A161" s="269"/>
+      <c r="B161" s="266"/>
       <c r="C161" s="12">
         <v>10</v>
       </c>
@@ -23472,8 +23472,8 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="254"/>
-      <c r="B162" s="261"/>
+      <c r="A162" s="269"/>
+      <c r="B162" s="266"/>
       <c r="C162" s="12">
         <v>11</v>
       </c>
@@ -23485,8 +23485,8 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="254"/>
-      <c r="B163" s="261"/>
+      <c r="A163" s="269"/>
+      <c r="B163" s="266"/>
       <c r="C163" s="12">
         <v>12</v>
       </c>
@@ -23498,10 +23498,10 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="253">
+      <c r="A164" s="268">
         <v>48</v>
       </c>
-      <c r="B164" s="260" t="s">
+      <c r="B164" s="265" t="s">
         <v>607</v>
       </c>
       <c r="C164" s="12" t="s">
@@ -23515,8 +23515,8 @@
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="254"/>
-      <c r="B165" s="261"/>
+      <c r="A165" s="269"/>
+      <c r="B165" s="266"/>
       <c r="C165" s="12">
         <v>2</v>
       </c>
@@ -23528,8 +23528,8 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="254"/>
-      <c r="B166" s="261"/>
+      <c r="A166" s="269"/>
+      <c r="B166" s="266"/>
       <c r="C166" s="12">
         <v>3</v>
       </c>
@@ -23541,8 +23541,8 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="254"/>
-      <c r="B167" s="261"/>
+      <c r="A167" s="269"/>
+      <c r="B167" s="266"/>
       <c r="C167" s="12">
         <v>4</v>
       </c>
@@ -23554,8 +23554,8 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="254"/>
-      <c r="B168" s="261"/>
+      <c r="A168" s="269"/>
+      <c r="B168" s="266"/>
       <c r="C168" s="12">
         <v>5</v>
       </c>
@@ -23567,8 +23567,8 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="254"/>
-      <c r="B169" s="261"/>
+      <c r="A169" s="269"/>
+      <c r="B169" s="266"/>
       <c r="C169" s="12">
         <v>6</v>
       </c>
@@ -23580,8 +23580,8 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="254"/>
-      <c r="B170" s="261"/>
+      <c r="A170" s="269"/>
+      <c r="B170" s="266"/>
       <c r="C170" s="12">
         <v>7</v>
       </c>
@@ -23593,8 +23593,8 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="254"/>
-      <c r="B171" s="261"/>
+      <c r="A171" s="269"/>
+      <c r="B171" s="266"/>
       <c r="C171" s="12">
         <v>8</v>
       </c>
@@ -23606,8 +23606,8 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="254"/>
-      <c r="B172" s="261"/>
+      <c r="A172" s="269"/>
+      <c r="B172" s="266"/>
       <c r="C172" s="12">
         <v>9</v>
       </c>
@@ -23619,8 +23619,8 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="254"/>
-      <c r="B173" s="261"/>
+      <c r="A173" s="269"/>
+      <c r="B173" s="266"/>
       <c r="C173" s="12">
         <v>10</v>
       </c>
@@ -23632,8 +23632,8 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="254"/>
-      <c r="B174" s="261"/>
+      <c r="A174" s="269"/>
+      <c r="B174" s="266"/>
       <c r="C174" s="12">
         <v>11</v>
       </c>
@@ -23645,8 +23645,8 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="255"/>
-      <c r="B175" s="262"/>
+      <c r="A175" s="270"/>
+      <c r="B175" s="275"/>
       <c r="C175" s="12">
         <v>12</v>
       </c>
@@ -23657,11 +23657,11 @@
         <v>2068430</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="30">
-      <c r="A176" s="253">
+    <row r="176" spans="1:5" ht="29">
+      <c r="A176" s="268">
         <v>49</v>
       </c>
-      <c r="B176" s="260" t="s">
+      <c r="B176" s="265" t="s">
         <v>610</v>
       </c>
       <c r="C176" s="12" t="s">
@@ -23675,8 +23675,8 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="254"/>
-      <c r="B177" s="261"/>
+      <c r="A177" s="269"/>
+      <c r="B177" s="266"/>
       <c r="C177" s="12">
         <v>2</v>
       </c>
@@ -23688,8 +23688,8 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="254"/>
-      <c r="B178" s="261"/>
+      <c r="A178" s="269"/>
+      <c r="B178" s="266"/>
       <c r="C178" s="12">
         <v>3</v>
       </c>
@@ -23701,8 +23701,8 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="254"/>
-      <c r="B179" s="261"/>
+      <c r="A179" s="269"/>
+      <c r="B179" s="266"/>
       <c r="C179" s="12">
         <v>4</v>
       </c>
@@ -23714,8 +23714,8 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="254"/>
-      <c r="B180" s="261"/>
+      <c r="A180" s="269"/>
+      <c r="B180" s="266"/>
       <c r="C180" s="12">
         <v>5</v>
       </c>
@@ -23727,8 +23727,8 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="254"/>
-      <c r="B181" s="261"/>
+      <c r="A181" s="269"/>
+      <c r="B181" s="266"/>
       <c r="C181" s="12">
         <v>6</v>
       </c>
@@ -23740,8 +23740,8 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="254"/>
-      <c r="B182" s="261"/>
+      <c r="A182" s="269"/>
+      <c r="B182" s="266"/>
       <c r="C182" s="12">
         <v>7</v>
       </c>
@@ -23753,8 +23753,8 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="254"/>
-      <c r="B183" s="261"/>
+      <c r="A183" s="269"/>
+      <c r="B183" s="266"/>
       <c r="C183" s="12">
         <v>8</v>
       </c>
@@ -23766,8 +23766,8 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="254"/>
-      <c r="B184" s="261"/>
+      <c r="A184" s="269"/>
+      <c r="B184" s="266"/>
       <c r="C184" s="12">
         <v>9</v>
       </c>
@@ -23779,8 +23779,8 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="254"/>
-      <c r="B185" s="261"/>
+      <c r="A185" s="269"/>
+      <c r="B185" s="266"/>
       <c r="C185" s="12">
         <v>10</v>
       </c>
@@ -23792,8 +23792,8 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="254"/>
-      <c r="B186" s="261"/>
+      <c r="A186" s="269"/>
+      <c r="B186" s="266"/>
       <c r="C186" s="12">
         <v>11</v>
       </c>
@@ -23805,8 +23805,8 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="255"/>
-      <c r="B187" s="262"/>
+      <c r="A187" s="270"/>
+      <c r="B187" s="275"/>
       <c r="C187" s="12">
         <v>12</v>
       </c>
@@ -23818,10 +23818,10 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="253">
+      <c r="A188" s="268">
         <v>50</v>
       </c>
-      <c r="B188" s="260" t="s">
+      <c r="B188" s="265" t="s">
         <v>612</v>
       </c>
       <c r="C188" s="12" t="s">
@@ -23835,8 +23835,8 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="254"/>
-      <c r="B189" s="261"/>
+      <c r="A189" s="269"/>
+      <c r="B189" s="266"/>
       <c r="C189" s="12">
         <v>2</v>
       </c>
@@ -23848,8 +23848,8 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="254"/>
-      <c r="B190" s="261"/>
+      <c r="A190" s="269"/>
+      <c r="B190" s="266"/>
       <c r="C190" s="12">
         <v>3</v>
       </c>
@@ -23861,8 +23861,8 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="254"/>
-      <c r="B191" s="261"/>
+      <c r="A191" s="269"/>
+      <c r="B191" s="266"/>
       <c r="C191" s="12">
         <v>4</v>
       </c>
@@ -23874,8 +23874,8 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="254"/>
-      <c r="B192" s="261"/>
+      <c r="A192" s="269"/>
+      <c r="B192" s="266"/>
       <c r="C192" s="12">
         <v>5</v>
       </c>
@@ -23887,8 +23887,8 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="254"/>
-      <c r="B193" s="261"/>
+      <c r="A193" s="269"/>
+      <c r="B193" s="266"/>
       <c r="C193" s="12">
         <v>6</v>
       </c>
@@ -23900,8 +23900,8 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="254"/>
-      <c r="B194" s="261"/>
+      <c r="A194" s="269"/>
+      <c r="B194" s="266"/>
       <c r="C194" s="12">
         <v>7</v>
       </c>
@@ -23913,8 +23913,8 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="254"/>
-      <c r="B195" s="261"/>
+      <c r="A195" s="269"/>
+      <c r="B195" s="266"/>
       <c r="C195" s="12">
         <v>8</v>
       </c>
@@ -23926,8 +23926,8 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="254"/>
-      <c r="B196" s="261"/>
+      <c r="A196" s="269"/>
+      <c r="B196" s="266"/>
       <c r="C196" s="12">
         <v>9</v>
       </c>
@@ -23939,8 +23939,8 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="254"/>
-      <c r="B197" s="261"/>
+      <c r="A197" s="269"/>
+      <c r="B197" s="266"/>
       <c r="C197" s="12">
         <v>10</v>
       </c>
@@ -23952,8 +23952,8 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="254"/>
-      <c r="B198" s="261"/>
+      <c r="A198" s="269"/>
+      <c r="B198" s="266"/>
       <c r="C198" s="12">
         <v>11</v>
       </c>
@@ -23965,8 +23965,8 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="255"/>
-      <c r="B199" s="262"/>
+      <c r="A199" s="270"/>
+      <c r="B199" s="275"/>
       <c r="C199" s="12">
         <v>12</v>
       </c>
@@ -23978,10 +23978,10 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="253">
+      <c r="A200" s="268">
         <v>51</v>
       </c>
-      <c r="B200" s="253" t="s">
+      <c r="B200" s="268" t="s">
         <v>614</v>
       </c>
       <c r="C200" s="12" t="s">
@@ -23995,8 +23995,8 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="254"/>
-      <c r="B201" s="254"/>
+      <c r="A201" s="269"/>
+      <c r="B201" s="269"/>
       <c r="C201" s="12">
         <v>2</v>
       </c>
@@ -24008,8 +24008,8 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="254"/>
-      <c r="B202" s="254"/>
+      <c r="A202" s="269"/>
+      <c r="B202" s="269"/>
       <c r="C202" s="12">
         <v>3</v>
       </c>
@@ -24021,8 +24021,8 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="254"/>
-      <c r="B203" s="254"/>
+      <c r="A203" s="269"/>
+      <c r="B203" s="269"/>
       <c r="C203" s="12">
         <v>4</v>
       </c>
@@ -24034,8 +24034,8 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="254"/>
-      <c r="B204" s="254"/>
+      <c r="A204" s="269"/>
+      <c r="B204" s="269"/>
       <c r="C204" s="12">
         <v>5</v>
       </c>
@@ -24047,8 +24047,8 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="254"/>
-      <c r="B205" s="254"/>
+      <c r="A205" s="269"/>
+      <c r="B205" s="269"/>
       <c r="C205" s="12">
         <v>6</v>
       </c>
@@ -24060,8 +24060,8 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="254"/>
-      <c r="B206" s="254"/>
+      <c r="A206" s="269"/>
+      <c r="B206" s="269"/>
       <c r="C206" s="12">
         <v>7</v>
       </c>
@@ -24073,8 +24073,8 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="254"/>
-      <c r="B207" s="254"/>
+      <c r="A207" s="269"/>
+      <c r="B207" s="269"/>
       <c r="C207" s="12">
         <v>8</v>
       </c>
@@ -24086,8 +24086,8 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="254"/>
-      <c r="B208" s="254"/>
+      <c r="A208" s="269"/>
+      <c r="B208" s="269"/>
       <c r="C208" s="12">
         <v>9</v>
       </c>
@@ -24099,8 +24099,8 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="254"/>
-      <c r="B209" s="254"/>
+      <c r="A209" s="269"/>
+      <c r="B209" s="269"/>
       <c r="C209" s="12">
         <v>10</v>
       </c>
@@ -24112,8 +24112,8 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="254"/>
-      <c r="B210" s="254"/>
+      <c r="A210" s="269"/>
+      <c r="B210" s="269"/>
       <c r="C210" s="12">
         <v>11</v>
       </c>
@@ -24125,8 +24125,8 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="255"/>
-      <c r="B211" s="255"/>
+      <c r="A211" s="270"/>
+      <c r="B211" s="270"/>
       <c r="C211" s="12">
         <v>12</v>
       </c>
@@ -24138,10 +24138,10 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="253">
+      <c r="A212" s="268">
         <v>52</v>
       </c>
-      <c r="B212" s="253" t="s">
+      <c r="B212" s="268" t="s">
         <v>616</v>
       </c>
       <c r="C212" s="12" t="s">
@@ -24155,8 +24155,8 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="254"/>
-      <c r="B213" s="254"/>
+      <c r="A213" s="269"/>
+      <c r="B213" s="269"/>
       <c r="C213" s="12">
         <v>2</v>
       </c>
@@ -24168,8 +24168,8 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="254"/>
-      <c r="B214" s="254"/>
+      <c r="A214" s="269"/>
+      <c r="B214" s="269"/>
       <c r="C214" s="12">
         <v>3</v>
       </c>
@@ -24181,8 +24181,8 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="254"/>
-      <c r="B215" s="254"/>
+      <c r="A215" s="269"/>
+      <c r="B215" s="269"/>
       <c r="C215" s="12">
         <v>4</v>
       </c>
@@ -24194,8 +24194,8 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="254"/>
-      <c r="B216" s="254"/>
+      <c r="A216" s="269"/>
+      <c r="B216" s="269"/>
       <c r="C216" s="12">
         <v>5</v>
       </c>
@@ -24207,8 +24207,8 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="254"/>
-      <c r="B217" s="254"/>
+      <c r="A217" s="269"/>
+      <c r="B217" s="269"/>
       <c r="C217" s="12">
         <v>6</v>
       </c>
@@ -24220,8 +24220,8 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="254"/>
-      <c r="B218" s="254"/>
+      <c r="A218" s="269"/>
+      <c r="B218" s="269"/>
       <c r="C218" s="12">
         <v>7</v>
       </c>
@@ -24233,8 +24233,8 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="254"/>
-      <c r="B219" s="254"/>
+      <c r="A219" s="269"/>
+      <c r="B219" s="269"/>
       <c r="C219" s="12">
         <v>8</v>
       </c>
@@ -24246,8 +24246,8 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="254"/>
-      <c r="B220" s="254"/>
+      <c r="A220" s="269"/>
+      <c r="B220" s="269"/>
       <c r="C220" s="12">
         <v>9</v>
       </c>
@@ -24259,8 +24259,8 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="254"/>
-      <c r="B221" s="254"/>
+      <c r="A221" s="269"/>
+      <c r="B221" s="269"/>
       <c r="C221" s="12">
         <v>10</v>
       </c>
@@ -24272,8 +24272,8 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="254"/>
-      <c r="B222" s="254"/>
+      <c r="A222" s="269"/>
+      <c r="B222" s="269"/>
       <c r="C222" s="12">
         <v>11</v>
       </c>
@@ -24285,8 +24285,8 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="255"/>
-      <c r="B223" s="255"/>
+      <c r="A223" s="270"/>
+      <c r="B223" s="270"/>
       <c r="C223" s="12">
         <v>12</v>
       </c>
@@ -24298,10 +24298,10 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="253">
+      <c r="A224" s="268">
         <v>53</v>
       </c>
-      <c r="B224" s="253" t="s">
+      <c r="B224" s="268" t="s">
         <v>618</v>
       </c>
       <c r="C224" s="12" t="s">
@@ -24315,8 +24315,8 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="254"/>
-      <c r="B225" s="254"/>
+      <c r="A225" s="269"/>
+      <c r="B225" s="269"/>
       <c r="C225" s="12">
         <v>2</v>
       </c>
@@ -24328,8 +24328,8 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="254"/>
-      <c r="B226" s="254"/>
+      <c r="A226" s="269"/>
+      <c r="B226" s="269"/>
       <c r="C226" s="12">
         <v>3</v>
       </c>
@@ -24341,8 +24341,8 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="254"/>
-      <c r="B227" s="254"/>
+      <c r="A227" s="269"/>
+      <c r="B227" s="269"/>
       <c r="C227" s="12">
         <v>4</v>
       </c>
@@ -24354,8 +24354,8 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="254"/>
-      <c r="B228" s="254"/>
+      <c r="A228" s="269"/>
+      <c r="B228" s="269"/>
       <c r="C228" s="12">
         <v>5</v>
       </c>
@@ -24367,8 +24367,8 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="254"/>
-      <c r="B229" s="254"/>
+      <c r="A229" s="269"/>
+      <c r="B229" s="269"/>
       <c r="C229" s="12">
         <v>6</v>
       </c>
@@ -24380,8 +24380,8 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="254"/>
-      <c r="B230" s="254"/>
+      <c r="A230" s="269"/>
+      <c r="B230" s="269"/>
       <c r="C230" s="12">
         <v>7</v>
       </c>
@@ -24393,8 +24393,8 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="254"/>
-      <c r="B231" s="254"/>
+      <c r="A231" s="269"/>
+      <c r="B231" s="269"/>
       <c r="C231" s="12">
         <v>8</v>
       </c>
@@ -24406,8 +24406,8 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="254"/>
-      <c r="B232" s="254"/>
+      <c r="A232" s="269"/>
+      <c r="B232" s="269"/>
       <c r="C232" s="12">
         <v>9</v>
       </c>
@@ -24419,8 +24419,8 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="254"/>
-      <c r="B233" s="254"/>
+      <c r="A233" s="269"/>
+      <c r="B233" s="269"/>
       <c r="C233" s="12">
         <v>10</v>
       </c>
@@ -24432,8 +24432,8 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="254"/>
-      <c r="B234" s="254"/>
+      <c r="A234" s="269"/>
+      <c r="B234" s="269"/>
       <c r="C234" s="12">
         <v>11</v>
       </c>
@@ -24445,8 +24445,8 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="255"/>
-      <c r="B235" s="255"/>
+      <c r="A235" s="270"/>
+      <c r="B235" s="270"/>
       <c r="C235" s="12">
         <v>12</v>
       </c>
@@ -24458,10 +24458,10 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="253">
+      <c r="A236" s="268">
         <v>54</v>
       </c>
-      <c r="B236" s="253" t="s">
+      <c r="B236" s="268" t="s">
         <v>620</v>
       </c>
       <c r="C236" s="12" t="s">
@@ -24475,8 +24475,8 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="254"/>
-      <c r="B237" s="254"/>
+      <c r="A237" s="269"/>
+      <c r="B237" s="269"/>
       <c r="C237" s="12">
         <v>2</v>
       </c>
@@ -24488,8 +24488,8 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="254"/>
-      <c r="B238" s="254"/>
+      <c r="A238" s="269"/>
+      <c r="B238" s="269"/>
       <c r="C238" s="12">
         <v>3</v>
       </c>
@@ -24501,8 +24501,8 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="254"/>
-      <c r="B239" s="254"/>
+      <c r="A239" s="269"/>
+      <c r="B239" s="269"/>
       <c r="C239" s="12">
         <v>4</v>
       </c>
@@ -24514,8 +24514,8 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="254"/>
-      <c r="B240" s="254"/>
+      <c r="A240" s="269"/>
+      <c r="B240" s="269"/>
       <c r="C240" s="12">
         <v>5</v>
       </c>
@@ -24527,8 +24527,8 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="254"/>
-      <c r="B241" s="254"/>
+      <c r="A241" s="269"/>
+      <c r="B241" s="269"/>
       <c r="C241" s="12">
         <v>6</v>
       </c>
@@ -24540,8 +24540,8 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="254"/>
-      <c r="B242" s="254"/>
+      <c r="A242" s="269"/>
+      <c r="B242" s="269"/>
       <c r="C242" s="12">
         <v>7</v>
       </c>
@@ -24553,8 +24553,8 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="254"/>
-      <c r="B243" s="254"/>
+      <c r="A243" s="269"/>
+      <c r="B243" s="269"/>
       <c r="C243" s="12">
         <v>8</v>
       </c>
@@ -24566,8 +24566,8 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="254"/>
-      <c r="B244" s="254"/>
+      <c r="A244" s="269"/>
+      <c r="B244" s="269"/>
       <c r="C244" s="12">
         <v>9</v>
       </c>
@@ -24579,8 +24579,8 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="254"/>
-      <c r="B245" s="254"/>
+      <c r="A245" s="269"/>
+      <c r="B245" s="269"/>
       <c r="C245" s="12">
         <v>10</v>
       </c>
@@ -24592,8 +24592,8 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="254"/>
-      <c r="B246" s="254"/>
+      <c r="A246" s="269"/>
+      <c r="B246" s="269"/>
       <c r="C246" s="12">
         <v>11</v>
       </c>
@@ -24605,8 +24605,8 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="255"/>
-      <c r="B247" s="255"/>
+      <c r="A247" s="270"/>
+      <c r="B247" s="270"/>
       <c r="C247" s="12">
         <v>12</v>
       </c>
@@ -24618,10 +24618,10 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A248" s="253">
+      <c r="A248" s="268">
         <v>55</v>
       </c>
-      <c r="B248" s="253" t="s">
+      <c r="B248" s="268" t="s">
         <v>622</v>
       </c>
       <c r="C248" s="12" t="s">
@@ -24635,8 +24635,8 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="254"/>
-      <c r="B249" s="254"/>
+      <c r="A249" s="269"/>
+      <c r="B249" s="269"/>
       <c r="C249" s="12">
         <v>2</v>
       </c>
@@ -24648,8 +24648,8 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="254"/>
-      <c r="B250" s="254"/>
+      <c r="A250" s="269"/>
+      <c r="B250" s="269"/>
       <c r="C250" s="12">
         <v>3</v>
       </c>
@@ -24661,8 +24661,8 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="254"/>
-      <c r="B251" s="254"/>
+      <c r="A251" s="269"/>
+      <c r="B251" s="269"/>
       <c r="C251" s="12">
         <v>4</v>
       </c>
@@ -24674,8 +24674,8 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="254"/>
-      <c r="B252" s="254"/>
+      <c r="A252" s="269"/>
+      <c r="B252" s="269"/>
       <c r="C252" s="12">
         <v>5</v>
       </c>
@@ -24687,8 +24687,8 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="254"/>
-      <c r="B253" s="254"/>
+      <c r="A253" s="269"/>
+      <c r="B253" s="269"/>
       <c r="C253" s="12">
         <v>6</v>
       </c>
@@ -24700,8 +24700,8 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="254"/>
-      <c r="B254" s="254"/>
+      <c r="A254" s="269"/>
+      <c r="B254" s="269"/>
       <c r="C254" s="12">
         <v>7</v>
       </c>
@@ -24713,8 +24713,8 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="254"/>
-      <c r="B255" s="254"/>
+      <c r="A255" s="269"/>
+      <c r="B255" s="269"/>
       <c r="C255" s="12">
         <v>8</v>
       </c>
@@ -24726,8 +24726,8 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="254"/>
-      <c r="B256" s="254"/>
+      <c r="A256" s="269"/>
+      <c r="B256" s="269"/>
       <c r="C256" s="12">
         <v>9</v>
       </c>
@@ -24739,8 +24739,8 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="254"/>
-      <c r="B257" s="254"/>
+      <c r="A257" s="269"/>
+      <c r="B257" s="269"/>
       <c r="C257" s="12">
         <v>10</v>
       </c>
@@ -24752,8 +24752,8 @@
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="254"/>
-      <c r="B258" s="254"/>
+      <c r="A258" s="269"/>
+      <c r="B258" s="269"/>
       <c r="C258" s="12">
         <v>11</v>
       </c>
@@ -24765,8 +24765,8 @@
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="255"/>
-      <c r="B259" s="255"/>
+      <c r="A259" s="270"/>
+      <c r="B259" s="270"/>
       <c r="C259" s="12">
         <v>12</v>
       </c>
@@ -24777,11 +24777,11 @@
         <v>3.0354699999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="30">
-      <c r="A260" s="253">
+    <row r="260" spans="1:5" ht="29">
+      <c r="A260" s="268">
         <v>56</v>
       </c>
-      <c r="B260" s="253" t="s">
+      <c r="B260" s="268" t="s">
         <v>625</v>
       </c>
       <c r="C260" s="12" t="s">
@@ -24795,8 +24795,8 @@
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="254"/>
-      <c r="B261" s="254"/>
+      <c r="A261" s="269"/>
+      <c r="B261" s="269"/>
       <c r="C261" s="12">
         <v>2</v>
       </c>
@@ -24808,8 +24808,8 @@
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="254"/>
-      <c r="B262" s="254"/>
+      <c r="A262" s="269"/>
+      <c r="B262" s="269"/>
       <c r="C262" s="12">
         <v>3</v>
       </c>
@@ -24821,8 +24821,8 @@
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="254"/>
-      <c r="B263" s="254"/>
+      <c r="A263" s="269"/>
+      <c r="B263" s="269"/>
       <c r="C263" s="12">
         <v>4</v>
       </c>
@@ -24834,8 +24834,8 @@
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="254"/>
-      <c r="B264" s="254"/>
+      <c r="A264" s="269"/>
+      <c r="B264" s="269"/>
       <c r="C264" s="12">
         <v>5</v>
       </c>
@@ -24847,8 +24847,8 @@
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="254"/>
-      <c r="B265" s="254"/>
+      <c r="A265" s="269"/>
+      <c r="B265" s="269"/>
       <c r="C265" s="12">
         <v>6</v>
       </c>
@@ -24860,8 +24860,8 @@
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="254"/>
-      <c r="B266" s="254"/>
+      <c r="A266" s="269"/>
+      <c r="B266" s="269"/>
       <c r="C266" s="12">
         <v>7</v>
       </c>
@@ -24873,8 +24873,8 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="254"/>
-      <c r="B267" s="254"/>
+      <c r="A267" s="269"/>
+      <c r="B267" s="269"/>
       <c r="C267" s="12">
         <v>8</v>
       </c>
@@ -24886,8 +24886,8 @@
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="254"/>
-      <c r="B268" s="254"/>
+      <c r="A268" s="269"/>
+      <c r="B268" s="269"/>
       <c r="C268" s="12">
         <v>9</v>
       </c>
@@ -24899,8 +24899,8 @@
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="254"/>
-      <c r="B269" s="254"/>
+      <c r="A269" s="269"/>
+      <c r="B269" s="269"/>
       <c r="C269" s="12">
         <v>10</v>
       </c>
@@ -24912,8 +24912,8 @@
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="254"/>
-      <c r="B270" s="254"/>
+      <c r="A270" s="269"/>
+      <c r="B270" s="269"/>
       <c r="C270" s="12">
         <v>11</v>
       </c>
@@ -24925,8 +24925,8 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="255"/>
-      <c r="B271" s="255"/>
+      <c r="A271" s="270"/>
+      <c r="B271" s="270"/>
       <c r="C271" s="12">
         <v>12</v>
       </c>
@@ -24937,11 +24937,11 @@
         <v>8.9287599999999995E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="30">
-      <c r="A272" s="253">
+    <row r="272" spans="1:5" ht="29">
+      <c r="A272" s="268">
         <v>59</v>
       </c>
-      <c r="B272" s="253" t="s">
+      <c r="B272" s="268" t="s">
         <v>627</v>
       </c>
       <c r="C272" s="12" t="s">
@@ -24955,8 +24955,8 @@
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="254"/>
-      <c r="B273" s="254"/>
+      <c r="A273" s="269"/>
+      <c r="B273" s="269"/>
       <c r="C273" s="12">
         <v>2</v>
       </c>
@@ -24968,8 +24968,8 @@
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="254"/>
-      <c r="B274" s="254"/>
+      <c r="A274" s="269"/>
+      <c r="B274" s="269"/>
       <c r="C274" s="12">
         <v>3</v>
       </c>
@@ -24981,8 +24981,8 @@
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="254"/>
-      <c r="B275" s="254"/>
+      <c r="A275" s="269"/>
+      <c r="B275" s="269"/>
       <c r="C275" s="12">
         <v>4</v>
       </c>
@@ -24994,8 +24994,8 @@
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="254"/>
-      <c r="B276" s="254"/>
+      <c r="A276" s="269"/>
+      <c r="B276" s="269"/>
       <c r="C276" s="12">
         <v>5</v>
       </c>
@@ -25007,8 +25007,8 @@
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="254"/>
-      <c r="B277" s="254"/>
+      <c r="A277" s="269"/>
+      <c r="B277" s="269"/>
       <c r="C277" s="12">
         <v>6</v>
       </c>
@@ -25020,8 +25020,8 @@
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="254"/>
-      <c r="B278" s="254"/>
+      <c r="A278" s="269"/>
+      <c r="B278" s="269"/>
       <c r="C278" s="12">
         <v>7</v>
       </c>
@@ -25033,8 +25033,8 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="254"/>
-      <c r="B279" s="254"/>
+      <c r="A279" s="269"/>
+      <c r="B279" s="269"/>
       <c r="C279" s="12">
         <v>8</v>
       </c>
@@ -25046,8 +25046,8 @@
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="254"/>
-      <c r="B280" s="254"/>
+      <c r="A280" s="269"/>
+      <c r="B280" s="269"/>
       <c r="C280" s="12">
         <v>9</v>
       </c>
@@ -25059,8 +25059,8 @@
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="254"/>
-      <c r="B281" s="254"/>
+      <c r="A281" s="269"/>
+      <c r="B281" s="269"/>
       <c r="C281" s="12">
         <v>10</v>
       </c>
@@ -25072,8 +25072,8 @@
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="254"/>
-      <c r="B282" s="254"/>
+      <c r="A282" s="269"/>
+      <c r="B282" s="269"/>
       <c r="C282" s="12">
         <v>11</v>
       </c>
@@ -25085,8 +25085,8 @@
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="255"/>
-      <c r="B283" s="255"/>
+      <c r="A283" s="270"/>
+      <c r="B283" s="270"/>
       <c r="C283" s="12">
         <v>12</v>
       </c>
@@ -25097,11 +25097,11 @@
         <v>1.3520000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="30">
-      <c r="A284" s="253">
+    <row r="284" spans="1:5" ht="29">
+      <c r="A284" s="268">
         <v>60</v>
       </c>
-      <c r="B284" s="253" t="s">
+      <c r="B284" s="268" t="s">
         <v>630</v>
       </c>
       <c r="C284" s="12" t="s">
@@ -25115,8 +25115,8 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="254"/>
-      <c r="B285" s="254"/>
+      <c r="A285" s="269"/>
+      <c r="B285" s="269"/>
       <c r="C285" s="12">
         <v>2</v>
       </c>
@@ -25128,8 +25128,8 @@
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="254"/>
-      <c r="B286" s="254"/>
+      <c r="A286" s="269"/>
+      <c r="B286" s="269"/>
       <c r="C286" s="12">
         <v>3</v>
       </c>
@@ -25141,8 +25141,8 @@
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="254"/>
-      <c r="B287" s="254"/>
+      <c r="A287" s="269"/>
+      <c r="B287" s="269"/>
       <c r="C287" s="12">
         <v>4</v>
       </c>
@@ -25154,8 +25154,8 @@
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="254"/>
-      <c r="B288" s="254"/>
+      <c r="A288" s="269"/>
+      <c r="B288" s="269"/>
       <c r="C288" s="12">
         <v>5</v>
       </c>
@@ -25167,8 +25167,8 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="254"/>
-      <c r="B289" s="254"/>
+      <c r="A289" s="269"/>
+      <c r="B289" s="269"/>
       <c r="C289" s="12">
         <v>6</v>
       </c>
@@ -25180,8 +25180,8 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="254"/>
-      <c r="B290" s="254"/>
+      <c r="A290" s="269"/>
+      <c r="B290" s="269"/>
       <c r="C290" s="12">
         <v>7</v>
       </c>
@@ -25193,8 +25193,8 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="254"/>
-      <c r="B291" s="254"/>
+      <c r="A291" s="269"/>
+      <c r="B291" s="269"/>
       <c r="C291" s="12">
         <v>8</v>
       </c>
@@ -25206,8 +25206,8 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="254"/>
-      <c r="B292" s="254"/>
+      <c r="A292" s="269"/>
+      <c r="B292" s="269"/>
       <c r="C292" s="12">
         <v>9</v>
       </c>
@@ -25219,8 +25219,8 @@
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="254"/>
-      <c r="B293" s="254"/>
+      <c r="A293" s="269"/>
+      <c r="B293" s="269"/>
       <c r="C293" s="12">
         <v>10</v>
       </c>
@@ -25232,8 +25232,8 @@
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="254"/>
-      <c r="B294" s="254"/>
+      <c r="A294" s="269"/>
+      <c r="B294" s="269"/>
       <c r="C294" s="12">
         <v>11</v>
       </c>
@@ -25244,9 +25244,9 @@
         <v>4197060</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A295" s="256"/>
-      <c r="B295" s="256"/>
+    <row r="295" spans="1:5" ht="15" thickBot="1">
+      <c r="A295" s="276"/>
+      <c r="B295" s="276"/>
       <c r="C295" s="143">
         <v>12</v>
       </c>
@@ -25258,10 +25258,10 @@
       </c>
     </row>
     <row r="296" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A296" s="255">
+      <c r="A296" s="270">
         <v>61</v>
       </c>
-      <c r="B296" s="258" t="s">
+      <c r="B296" s="277" t="s">
         <v>632</v>
       </c>
       <c r="C296" s="142" t="s">
@@ -25274,9 +25274,9 @@
         <v>417.214</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A297" s="257"/>
-      <c r="B297" s="259"/>
+    <row r="297" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A297" s="261"/>
+      <c r="B297" s="278"/>
       <c r="C297" s="12">
         <v>2</v>
       </c>
@@ -25287,9 +25287,9 @@
         <v>420.73500000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A298" s="257"/>
-      <c r="B298" s="259"/>
+    <row r="298" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A298" s="261"/>
+      <c r="B298" s="278"/>
       <c r="C298" s="12">
         <v>3</v>
       </c>
@@ -25300,9 +25300,9 @@
         <v>424.48899999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A299" s="257"/>
-      <c r="B299" s="259"/>
+    <row r="299" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A299" s="261"/>
+      <c r="B299" s="278"/>
       <c r="C299" s="12">
         <v>4</v>
       </c>
@@ -25313,9 +25313,9 @@
         <v>428.51600000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A300" s="257"/>
-      <c r="B300" s="259"/>
+    <row r="300" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A300" s="261"/>
+      <c r="B300" s="278"/>
       <c r="C300" s="12">
         <v>5</v>
       </c>
@@ -25326,9 +25326,9 @@
         <v>432.85300000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A301" s="257"/>
-      <c r="B301" s="259"/>
+    <row r="301" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A301" s="261"/>
+      <c r="B301" s="278"/>
       <c r="C301" s="12">
         <v>6</v>
       </c>
@@ -25339,9 +25339,9 @@
         <v>437.53300000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A302" s="257"/>
-      <c r="B302" s="259"/>
+    <row r="302" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A302" s="261"/>
+      <c r="B302" s="278"/>
       <c r="C302" s="12">
         <v>7</v>
       </c>
@@ -25352,9 +25352,9 @@
         <v>442.58199999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A303" s="257"/>
-      <c r="B303" s="259"/>
+    <row r="303" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A303" s="261"/>
+      <c r="B303" s="278"/>
       <c r="C303" s="12">
         <v>8</v>
       </c>
@@ -25365,9 +25365,9 @@
         <v>448.01600000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A304" s="257"/>
-      <c r="B304" s="259"/>
+    <row r="304" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A304" s="261"/>
+      <c r="B304" s="278"/>
       <c r="C304" s="12">
         <v>9</v>
       </c>
@@ -25378,9 +25378,9 @@
         <v>453.08350000000002</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A305" s="257"/>
-      <c r="B305" s="259"/>
+    <row r="305" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A305" s="261"/>
+      <c r="B305" s="278"/>
       <c r="C305" s="12">
         <v>10</v>
       </c>
@@ -25391,9 +25391,9 @@
         <v>460.03100000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A306" s="257"/>
-      <c r="B306" s="259"/>
+    <row r="306" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A306" s="261"/>
+      <c r="B306" s="278"/>
       <c r="C306" s="12">
         <v>11</v>
       </c>
@@ -25404,9 +25404,9 @@
         <v>466.57799999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" hidden="1" thickBot="1">
-      <c r="A307" s="257"/>
-      <c r="B307" s="259"/>
+    <row r="307" spans="1:5" ht="15" hidden="1" thickBot="1">
+      <c r="A307" s="261"/>
+      <c r="B307" s="278"/>
       <c r="C307" s="12">
         <v>12</v>
       </c>
@@ -25422,22 +25422,30 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="B34:B45"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="B46:B58"/>
-    <mergeCell ref="A59:A71"/>
-    <mergeCell ref="B59:B71"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B73:B85"/>
+    <mergeCell ref="A272:A283"/>
+    <mergeCell ref="B272:B283"/>
+    <mergeCell ref="A284:A295"/>
+    <mergeCell ref="B284:B295"/>
+    <mergeCell ref="A296:A307"/>
+    <mergeCell ref="B296:B307"/>
+    <mergeCell ref="A236:A247"/>
+    <mergeCell ref="B236:B247"/>
+    <mergeCell ref="A248:A259"/>
+    <mergeCell ref="B248:B259"/>
+    <mergeCell ref="A260:A271"/>
+    <mergeCell ref="B260:B271"/>
+    <mergeCell ref="A200:A211"/>
+    <mergeCell ref="B200:B211"/>
+    <mergeCell ref="A212:A223"/>
+    <mergeCell ref="B212:B223"/>
+    <mergeCell ref="A224:A235"/>
+    <mergeCell ref="B224:B235"/>
+    <mergeCell ref="A164:A175"/>
+    <mergeCell ref="B164:B175"/>
+    <mergeCell ref="A176:A187"/>
+    <mergeCell ref="B176:B187"/>
+    <mergeCell ref="A188:A199"/>
+    <mergeCell ref="B188:B199"/>
     <mergeCell ref="A87:A99"/>
     <mergeCell ref="B87:B99"/>
     <mergeCell ref="A101:A112"/>
@@ -25451,30 +25459,22 @@
     <mergeCell ref="A139:A150"/>
     <mergeCell ref="B139:B150"/>
     <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A164:A175"/>
-    <mergeCell ref="B164:B175"/>
-    <mergeCell ref="A176:A187"/>
-    <mergeCell ref="B176:B187"/>
-    <mergeCell ref="A188:A199"/>
-    <mergeCell ref="B188:B199"/>
-    <mergeCell ref="A200:A211"/>
-    <mergeCell ref="B200:B211"/>
-    <mergeCell ref="A212:A223"/>
-    <mergeCell ref="B212:B223"/>
-    <mergeCell ref="A224:A235"/>
-    <mergeCell ref="B224:B235"/>
-    <mergeCell ref="A236:A247"/>
-    <mergeCell ref="B236:B247"/>
-    <mergeCell ref="A248:A259"/>
-    <mergeCell ref="B248:B259"/>
-    <mergeCell ref="A260:A271"/>
-    <mergeCell ref="B260:B271"/>
-    <mergeCell ref="A272:A283"/>
-    <mergeCell ref="B272:B283"/>
-    <mergeCell ref="A284:A295"/>
-    <mergeCell ref="B284:B295"/>
-    <mergeCell ref="A296:A307"/>
-    <mergeCell ref="B296:B307"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="B46:B58"/>
+    <mergeCell ref="A59:A71"/>
+    <mergeCell ref="B59:B71"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B73:B85"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25490,24 +25490,24 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.26953125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="6" max="6" width="61.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1">
+    <row r="1" spans="1:18" ht="17.5" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>724</v>
       </c>
       <c r="B1" s="90"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:18" ht="15.75">
+    <row r="2" spans="1:18" ht="15" thickTop="1"/>
+    <row r="3" spans="1:18" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -25518,7 +25518,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25">
+    <row r="4" spans="1:18" ht="17">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75">
+    <row r="6" spans="1:18" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" thickBot="1">
+    <row r="11" spans="1:18" ht="16" thickBot="1">
       <c r="A11" s="122" t="s">
         <v>140</v>
       </c>
@@ -25588,7 +25588,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+    <row r="13" spans="1:18" ht="15" thickBot="1">
       <c r="A13" s="281"/>
       <c r="B13" s="283"/>
       <c r="C13" s="250"/>
@@ -25897,7 +25897,7 @@
       <c r="I26" s="36"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="127">
         <v>87</v>
       </c>
@@ -26030,14 +26030,14 @@
       <c r="I37" s="36"/>
       <c r="J37" s="34"/>
     </row>
-    <row r="40" spans="1:10" ht="18" thickBot="1">
+    <row r="40" spans="1:10" ht="17.5" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>723</v>
       </c>
       <c r="B40" s="89"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15" thickTop="1"/>
+    <row r="42" spans="1:10" ht="15.5">
       <c r="A42" s="86" t="s">
         <v>65</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.5">
       <c r="A43" s="86" t="s">
         <v>64</v>
       </c>
@@ -26053,7 +26053,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.5">
       <c r="A45" s="86" t="s">
         <v>141</v>
       </c>
@@ -26068,10 +26068,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.5">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:9" ht="18" thickBot="1">
+    <row r="49" spans="1:9" ht="17.5" thickBot="1">
       <c r="A49" s="86" t="s">
         <v>140</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1">
+    <row r="62" spans="1:9" ht="15" thickBot="1">
       <c r="A62" s="127">
         <v>87</v>
       </c>
@@ -26364,27 +26364,27 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" customWidth="1"/>
+    <col min="6" max="6" width="62.453125" customWidth="1"/>
+    <col min="7" max="7" width="40.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1">
+    <row r="1" spans="1:7" ht="17.5" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>725</v>
       </c>
       <c r="B1" s="84"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15" thickTop="1"/>
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -26433,7 +26433,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1">
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" t="s">
         <v>670</v>
       </c>
@@ -26441,7 +26441,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickTop="1">
+    <row r="13" spans="1:7" ht="15" thickTop="1">
       <c r="A13" t="s">
         <v>645</v>
       </c>
@@ -26461,7 +26461,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="166" t="s">
         <v>140</v>
       </c>
@@ -26485,7 +26485,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="15" thickBot="1">
       <c r="A20" s="241"/>
       <c r="B20" s="241"/>
       <c r="C20" s="240"/>
@@ -26971,7 +26971,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1">
+    <row r="48" spans="1:7" ht="15" thickBot="1">
       <c r="A48" s="127">
         <v>52</v>
       </c>
@@ -27016,13 +27016,13 @@
       <c r="D52" s="47"/>
       <c r="E52" s="64"/>
     </row>
-    <row r="56" spans="1:5" ht="18" thickBot="1">
+    <row r="56" spans="1:5" ht="17.5" thickBot="1">
       <c r="A56" s="89" t="s">
         <v>726</v>
       </c>
       <c r="B56" s="57"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickTop="1"/>
+    <row r="57" spans="1:5" ht="15" thickTop="1"/>
     <row r="58" spans="1:5" ht="45" customHeight="1">
       <c r="A58" s="128" t="s">
         <v>65</v>
@@ -27039,7 +27039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75">
+    <row r="61" spans="1:5" ht="15.5">
       <c r="A61" s="86" t="s">
         <v>141</v>
       </c>
@@ -27094,7 +27094,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18" thickBot="1">
+    <row r="73" spans="1:8" ht="17.5" thickBot="1">
       <c r="A73" s="122" t="s">
         <v>678</v>
       </c>
@@ -27764,7 +27764,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1">
+    <row r="108" spans="1:6" ht="15" thickBot="1">
       <c r="A108" s="121" t="s">
         <v>490</v>
       </c>
@@ -27790,17 +27790,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="E74:E75"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -27816,20 +27816,20 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="1" max="2" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>727</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -27837,7 +27837,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -27845,7 +27845,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -27901,7 +27901,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" thickBot="1">
+    <row r="18" spans="1:14" ht="16" thickBot="1">
       <c r="A18" s="122" t="s">
         <v>140</v>
       </c>
@@ -27909,7 +27909,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickTop="1">
+    <row r="19" spans="1:14" ht="15" thickTop="1">
       <c r="A19" s="247" t="s">
         <v>37</v>
       </c>
@@ -27923,7 +27923,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1">
+    <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="248"/>
       <c r="B20" s="241"/>
       <c r="C20" s="241"/>
@@ -28127,7 +28127,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+    <row r="36" spans="1:4" ht="15" thickBot="1">
       <c r="A36" s="165" t="s">
         <v>543</v>
       </c>
@@ -28162,14 +28162,14 @@
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
     </row>
-    <row r="43" spans="1:4" ht="16.5" thickBot="1">
+    <row r="43" spans="1:4" ht="16" thickBot="1">
       <c r="A43" s="96" t="s">
         <v>728</v>
       </c>
       <c r="B43" s="93"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickTop="1"/>
-    <row r="45" spans="1:4" ht="15.75">
+    <row r="44" spans="1:4" ht="15" thickTop="1"/>
+    <row r="45" spans="1:4" ht="15.5">
       <c r="A45" s="86" t="s">
         <v>65</v>
       </c>
@@ -28177,7 +28177,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75">
+    <row r="46" spans="1:4" ht="15.5">
       <c r="A46" s="86" t="s">
         <v>64</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75">
+    <row r="48" spans="1:4" ht="15.5">
       <c r="A48" s="86" t="s">
         <v>141</v>
       </c>
@@ -28235,10 +28235,10 @@
         <v>655</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
+    <row r="58" spans="1:8" ht="15.5">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" thickBot="1">
+    <row r="59" spans="1:8" ht="16" thickBot="1">
       <c r="A59" s="122" t="s">
         <v>140</v>
       </c>
@@ -28246,8 +28246,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A60" s="289" t="s">
+    <row r="60" spans="1:8" ht="15" thickTop="1">
+      <c r="A60" s="288" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="249" t="s">
@@ -28262,23 +28262,23 @@
       <c r="E60" s="284" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="291"/>
-      <c r="G60" s="288"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A61" s="290"/>
+      <c r="F60" s="290"/>
+      <c r="G60" s="287"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1">
+      <c r="A61" s="289"/>
       <c r="B61" s="250"/>
       <c r="C61" s="250"/>
       <c r="D61" s="250"/>
       <c r="E61" s="285"/>
-      <c r="F61" s="291"/>
-      <c r="G61" s="288"/>
+      <c r="F61" s="290"/>
+      <c r="G61" s="287"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="272">
+      <c r="A62" s="262">
         <v>19</v>
       </c>
-      <c r="B62" s="260" t="s">
+      <c r="B62" s="265" t="s">
         <v>551</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -28290,8 +28290,8 @@
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="272"/>
-      <c r="B63" s="261"/>
+      <c r="A63" s="262"/>
+      <c r="B63" s="266"/>
       <c r="C63" s="5">
         <v>1</v>
       </c>
@@ -28303,8 +28303,8 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="272"/>
-      <c r="B64" s="261"/>
+      <c r="A64" s="262"/>
+      <c r="B64" s="266"/>
       <c r="C64" s="5">
         <v>2</v>
       </c>
@@ -28316,8 +28316,8 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="272"/>
-      <c r="B65" s="261"/>
+      <c r="A65" s="262"/>
+      <c r="B65" s="266"/>
       <c r="C65" s="5">
         <v>3</v>
       </c>
@@ -28329,8 +28329,8 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="272"/>
-      <c r="B66" s="261"/>
+      <c r="A66" s="262"/>
+      <c r="B66" s="266"/>
       <c r="C66" s="5">
         <v>4</v>
       </c>
@@ -28342,8 +28342,8 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="272"/>
-      <c r="B67" s="261"/>
+      <c r="A67" s="262"/>
+      <c r="B67" s="266"/>
       <c r="C67" s="5">
         <v>5</v>
       </c>
@@ -28355,8 +28355,8 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="272"/>
-      <c r="B68" s="262"/>
+      <c r="A68" s="262"/>
+      <c r="B68" s="275"/>
       <c r="C68" s="5">
         <v>6</v>
       </c>
@@ -28375,10 +28375,10 @@
       <c r="E69" s="69"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="272">
+      <c r="A70" s="262">
         <v>18</v>
       </c>
-      <c r="B70" s="272" t="s">
+      <c r="B70" s="262" t="s">
         <v>554</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -28390,8 +28390,8 @@
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="272"/>
-      <c r="B71" s="272"/>
+      <c r="A71" s="262"/>
+      <c r="B71" s="262"/>
       <c r="C71" s="5">
         <v>1</v>
       </c>
@@ -28403,8 +28403,8 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="272"/>
-      <c r="B72" s="272"/>
+      <c r="A72" s="262"/>
+      <c r="B72" s="262"/>
       <c r="C72" s="5">
         <v>2</v>
       </c>
@@ -28416,8 +28416,8 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="272"/>
-      <c r="B73" s="272"/>
+      <c r="A73" s="262"/>
+      <c r="B73" s="262"/>
       <c r="C73" s="5">
         <v>3</v>
       </c>
@@ -28429,8 +28429,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="272"/>
-      <c r="B74" s="272"/>
+      <c r="A74" s="262"/>
+      <c r="B74" s="262"/>
       <c r="C74" s="5">
         <v>4</v>
       </c>
@@ -28442,8 +28442,8 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="272"/>
-      <c r="B75" s="272"/>
+      <c r="A75" s="262"/>
+      <c r="B75" s="262"/>
       <c r="C75" s="5">
         <v>5</v>
       </c>
@@ -28455,8 +28455,8 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="272"/>
-      <c r="B76" s="272"/>
+      <c r="A76" s="262"/>
+      <c r="B76" s="262"/>
       <c r="C76" s="5">
         <v>6</v>
       </c>
@@ -28475,10 +28475,10 @@
       <c r="E77" s="69"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="272">
+      <c r="A78" s="262">
         <v>17</v>
       </c>
-      <c r="B78" s="272" t="s">
+      <c r="B78" s="262" t="s">
         <v>557</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -28490,8 +28490,8 @@
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="272"/>
-      <c r="B79" s="272"/>
+      <c r="A79" s="262"/>
+      <c r="B79" s="262"/>
       <c r="C79" s="5">
         <v>1</v>
       </c>
@@ -28503,8 +28503,8 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="272"/>
-      <c r="B80" s="272"/>
+      <c r="A80" s="262"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="5">
         <v>2</v>
       </c>
@@ -28516,8 +28516,8 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="272"/>
-      <c r="B81" s="272"/>
+      <c r="A81" s="262"/>
+      <c r="B81" s="262"/>
       <c r="C81" s="5">
         <v>3</v>
       </c>
@@ -28529,8 +28529,8 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="272"/>
-      <c r="B82" s="272"/>
+      <c r="A82" s="262"/>
+      <c r="B82" s="262"/>
       <c r="C82" s="5">
         <v>4</v>
       </c>
@@ -28542,8 +28542,8 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="272"/>
-      <c r="B83" s="272"/>
+      <c r="A83" s="262"/>
+      <c r="B83" s="262"/>
       <c r="C83" s="5">
         <v>5</v>
       </c>
@@ -28555,8 +28555,8 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="272"/>
-      <c r="B84" s="272"/>
+      <c r="A84" s="262"/>
+      <c r="B84" s="262"/>
       <c r="C84" s="5">
         <v>6</v>
       </c>
@@ -28571,10 +28571,10 @@
       <c r="E85" s="68"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="272">
+      <c r="A86" s="262">
         <v>17</v>
       </c>
-      <c r="B86" s="272" t="s">
+      <c r="B86" s="262" t="s">
         <v>557</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -28586,8 +28586,8 @@
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="272"/>
-      <c r="B87" s="272"/>
+      <c r="A87" s="262"/>
+      <c r="B87" s="262"/>
       <c r="C87" s="5">
         <v>1</v>
       </c>
@@ -28599,8 +28599,8 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="272"/>
-      <c r="B88" s="272"/>
+      <c r="A88" s="262"/>
+      <c r="B88" s="262"/>
       <c r="C88" s="5">
         <v>2</v>
       </c>
@@ -28612,8 +28612,8 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="272"/>
-      <c r="B89" s="272"/>
+      <c r="A89" s="262"/>
+      <c r="B89" s="262"/>
       <c r="C89" s="5">
         <v>3</v>
       </c>
@@ -28625,8 +28625,8 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="272"/>
-      <c r="B90" s="272"/>
+      <c r="A90" s="262"/>
+      <c r="B90" s="262"/>
       <c r="C90" s="5">
         <v>4</v>
       </c>
@@ -28638,8 +28638,8 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="272"/>
-      <c r="B91" s="272"/>
+      <c r="A91" s="262"/>
+      <c r="B91" s="262"/>
       <c r="C91" s="5">
         <v>5</v>
       </c>
@@ -28650,9 +28650,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A92" s="260"/>
-      <c r="B92" s="287"/>
+    <row r="92" spans="1:5" ht="15" thickBot="1">
+      <c r="A92" s="265"/>
+      <c r="B92" s="291"/>
       <c r="C92" s="133">
         <v>6</v>
       </c>
@@ -28668,6 +28668,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B84"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:B68"/>
@@ -28679,14 +28687,6 @@
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:F61"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Aspen Plus Automation Transfer/Simulation Mapper - A+.xlsx
+++ b/Aspen Plus Automation Transfer/Simulation Mapper - A+.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311B99D-6EB3-4E63-8111-A9F6853F599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67650490-D816-4EF3-B96E-DC16B7CE5347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pump &amp; Pump Curves" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="1331">
   <si>
     <r>
       <t>Capacity/Volumetirc flow rate (m</t>
@@ -4175,6 +4175,12 @@
   </si>
   <si>
     <t>Go to Simulation-&gt; Streams -&gt; 2 -&gt; Results, select 'add properties', add  cloud point, freeze point, smoke point</t>
+  </si>
+  <si>
+    <t>add attributes:</t>
+  </si>
+  <si>
+    <t>Heat capacity, viscosity, mixture, Ratio Cp/Cv, Compressibility factor</t>
   </si>
 </sst>
 </file>
@@ -5677,40 +5683,25 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5719,17 +5710,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5743,17 +5725,41 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5779,6 +5785,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5791,7 +5800,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5802,15 +5829,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5828,18 +5846,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10066,16 +10072,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.26953125" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
@@ -10083,7 +10089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="87" t="s">
         <v>64</v>
       </c>
@@ -10158,7 +10164,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.5">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="86" t="s">
         <v>140</v>
       </c>
@@ -10166,7 +10172,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1">
       <c r="A20" s="174" t="s">
         <v>714</v>
       </c>
@@ -10201,7 +10207,7 @@
       <c r="E22" s="241"/>
       <c r="F22" s="119"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="17.25">
       <c r="A23" s="130">
         <v>1</v>
       </c>
@@ -10371,7 +10377,7 @@
         <v>302.59399999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="17.25">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -10456,7 +10462,7 @@
         <v>17.898499999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="133">
         <v>24</v>
       </c>
@@ -10477,7 +10483,7 @@
       <c r="C39" s="135"/>
       <c r="D39" s="135"/>
     </row>
-    <row r="53" spans="1:8" ht="16" thickBot="1">
+    <row r="53" spans="1:8" ht="16.5" thickBot="1">
       <c r="A53" s="175" t="s">
         <v>715</v>
       </c>
@@ -10714,7 +10720,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1">
       <c r="A73" s="133"/>
       <c r="B73" s="121"/>
       <c r="C73" s="133"/>
@@ -10756,17 +10762,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10782,23 +10788,23 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>1319</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.5">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -10806,7 +10812,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -10814,7 +10820,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -10864,7 +10870,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16" thickBot="1">
+    <row r="17" spans="1:27" ht="16.5" thickBot="1">
       <c r="A17" s="86" t="s">
         <v>140</v>
       </c>
@@ -10937,13 +10943,13 @@
       <c r="AA19" s="279"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="268">
+      <c r="A20" s="253">
         <v>28</v>
       </c>
-      <c r="B20" s="268" t="s">
+      <c r="B20" s="253" t="s">
         <v>688</v>
       </c>
-      <c r="C20" s="265" t="s">
+      <c r="C20" s="260" t="s">
         <v>689</v>
       </c>
       <c r="D20" s="97" t="s">
@@ -10954,9 +10960,9 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="269"/>
-      <c r="B21" s="269"/>
-      <c r="C21" s="266"/>
+      <c r="A21" s="254"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="261"/>
       <c r="D21" s="97" t="s">
         <v>691</v>
       </c>
@@ -10965,9 +10971,9 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="270"/>
-      <c r="B22" s="270"/>
-      <c r="C22" s="275"/>
+      <c r="A22" s="255"/>
+      <c r="B22" s="255"/>
+      <c r="C22" s="262"/>
       <c r="D22" s="74" t="s">
         <v>692</v>
       </c>
@@ -10976,13 +10982,13 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="268">
+      <c r="A23" s="253">
         <v>29</v>
       </c>
-      <c r="B23" s="268" t="s">
+      <c r="B23" s="253" t="s">
         <v>693</v>
       </c>
-      <c r="C23" s="295" t="s">
+      <c r="C23" s="292" t="s">
         <v>694</v>
       </c>
       <c r="D23" s="97" t="s">
@@ -10993,9 +10999,9 @@
       </c>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="269"/>
-      <c r="B24" s="269"/>
-      <c r="C24" s="296"/>
+      <c r="A24" s="254"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="293"/>
       <c r="D24" s="97" t="s">
         <v>691</v>
       </c>
@@ -11004,9 +11010,9 @@
       </c>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="270"/>
-      <c r="B25" s="270"/>
-      <c r="C25" s="297"/>
+      <c r="A25" s="255"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="294"/>
       <c r="D25" s="74" t="s">
         <v>692</v>
       </c>
@@ -11015,13 +11021,13 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="268">
+      <c r="A26" s="253">
         <v>30</v>
       </c>
-      <c r="B26" s="268" t="s">
+      <c r="B26" s="253" t="s">
         <v>695</v>
       </c>
-      <c r="C26" s="295" t="s">
+      <c r="C26" s="292" t="s">
         <v>696</v>
       </c>
       <c r="D26" s="97" t="s">
@@ -11032,9 +11038,9 @@
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="269"/>
-      <c r="B27" s="269"/>
-      <c r="C27" s="296"/>
+      <c r="A27" s="254"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="293"/>
       <c r="D27" s="97" t="s">
         <v>691</v>
       </c>
@@ -11043,9 +11049,9 @@
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="270"/>
-      <c r="B28" s="270"/>
-      <c r="C28" s="297"/>
+      <c r="A28" s="255"/>
+      <c r="B28" s="255"/>
+      <c r="C28" s="294"/>
       <c r="D28" s="74" t="s">
         <v>692</v>
       </c>
@@ -11054,13 +11060,13 @@
       </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="268">
+      <c r="A29" s="253">
         <v>31</v>
       </c>
-      <c r="B29" s="268" t="s">
+      <c r="B29" s="253" t="s">
         <v>697</v>
       </c>
-      <c r="C29" s="265" t="s">
+      <c r="C29" s="260" t="s">
         <v>698</v>
       </c>
       <c r="D29" s="97" t="s">
@@ -11071,9 +11077,9 @@
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="269"/>
-      <c r="B30" s="269"/>
-      <c r="C30" s="266"/>
+      <c r="A30" s="254"/>
+      <c r="B30" s="254"/>
+      <c r="C30" s="261"/>
       <c r="D30" s="97" t="s">
         <v>691</v>
       </c>
@@ -11082,9 +11088,9 @@
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="270"/>
-      <c r="B31" s="270"/>
-      <c r="C31" s="275"/>
+      <c r="A31" s="255"/>
+      <c r="B31" s="255"/>
+      <c r="C31" s="262"/>
       <c r="D31" s="74" t="s">
         <v>692</v>
       </c>
@@ -11093,13 +11099,13 @@
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="268">
+      <c r="A32" s="253">
         <v>32</v>
       </c>
-      <c r="B32" s="268" t="s">
+      <c r="B32" s="253" t="s">
         <v>699</v>
       </c>
-      <c r="C32" s="265" t="s">
+      <c r="C32" s="260" t="s">
         <v>700</v>
       </c>
       <c r="D32" s="97" t="s">
@@ -11110,9 +11116,9 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="269"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="266"/>
+      <c r="A33" s="254"/>
+      <c r="B33" s="254"/>
+      <c r="C33" s="261"/>
       <c r="D33" s="97" t="s">
         <v>691</v>
       </c>
@@ -11121,9 +11127,9 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="270"/>
-      <c r="B34" s="270"/>
-      <c r="C34" s="275"/>
+      <c r="A34" s="255"/>
+      <c r="B34" s="255"/>
+      <c r="C34" s="262"/>
       <c r="D34" s="74" t="s">
         <v>692</v>
       </c>
@@ -11132,13 +11138,13 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="268">
+      <c r="A35" s="253">
         <v>33</v>
       </c>
-      <c r="B35" s="268" t="s">
+      <c r="B35" s="253" t="s">
         <v>701</v>
       </c>
-      <c r="C35" s="305" t="s">
+      <c r="C35" s="296" t="s">
         <v>702</v>
       </c>
       <c r="D35" s="97" t="s">
@@ -11149,9 +11155,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="269"/>
-      <c r="B36" s="269"/>
-      <c r="C36" s="306"/>
+      <c r="A36" s="254"/>
+      <c r="B36" s="254"/>
+      <c r="C36" s="297"/>
       <c r="D36" s="97" t="s">
         <v>691</v>
       </c>
@@ -11160,9 +11166,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="270"/>
-      <c r="B37" s="270"/>
-      <c r="C37" s="307"/>
+      <c r="A37" s="255"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="298"/>
       <c r="D37" s="74" t="s">
         <v>692</v>
       </c>
@@ -11171,13 +11177,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1">
-      <c r="A38" s="298">
+      <c r="A38" s="302">
         <v>34</v>
       </c>
-      <c r="B38" s="298" t="s">
+      <c r="B38" s="302" t="s">
         <v>703</v>
       </c>
-      <c r="C38" s="301" t="s">
+      <c r="C38" s="305" t="s">
         <v>704</v>
       </c>
       <c r="D38" s="99" t="s">
@@ -11186,42 +11192,42 @@
       <c r="E38" s="100">
         <v>0.72</v>
       </c>
-      <c r="F38" s="292" t="s">
+      <c r="F38" s="299" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="299"/>
-      <c r="B39" s="299"/>
-      <c r="C39" s="302"/>
+      <c r="A39" s="303"/>
+      <c r="B39" s="303"/>
+      <c r="C39" s="306"/>
       <c r="D39" s="99" t="s">
         <v>691</v>
       </c>
       <c r="E39" s="100">
         <v>0.72</v>
       </c>
-      <c r="F39" s="293"/>
+      <c r="F39" s="300"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="300"/>
-      <c r="B40" s="300"/>
-      <c r="C40" s="303"/>
+      <c r="A40" s="304"/>
+      <c r="B40" s="304"/>
+      <c r="C40" s="307"/>
       <c r="D40" s="101" t="s">
         <v>692</v>
       </c>
       <c r="E40" s="100">
         <v>0.72</v>
       </c>
-      <c r="F40" s="294"/>
+      <c r="F40" s="301"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="268">
+      <c r="A41" s="253">
         <v>35</v>
       </c>
-      <c r="B41" s="268" t="s">
+      <c r="B41" s="253" t="s">
         <v>706</v>
       </c>
-      <c r="C41" s="295" t="s">
+      <c r="C41" s="292" t="s">
         <v>707</v>
       </c>
       <c r="D41" s="97" t="s">
@@ -11232,9 +11238,9 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="269"/>
-      <c r="B42" s="269"/>
-      <c r="C42" s="296"/>
+      <c r="A42" s="254"/>
+      <c r="B42" s="254"/>
+      <c r="C42" s="293"/>
       <c r="D42" s="97" t="s">
         <v>691</v>
       </c>
@@ -11243,9 +11249,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="270"/>
-      <c r="B43" s="270"/>
-      <c r="C43" s="297"/>
+      <c r="A43" s="255"/>
+      <c r="B43" s="255"/>
+      <c r="C43" s="294"/>
       <c r="D43" s="74" t="s">
         <v>692</v>
       </c>
@@ -11254,13 +11260,13 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="268">
+      <c r="A44" s="253">
         <v>36</v>
       </c>
-      <c r="B44" s="268" t="s">
+      <c r="B44" s="253" t="s">
         <v>708</v>
       </c>
-      <c r="C44" s="295" t="s">
+      <c r="C44" s="292" t="s">
         <v>709</v>
       </c>
       <c r="D44" s="97" t="s">
@@ -11272,9 +11278,9 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="269"/>
-      <c r="B45" s="269"/>
-      <c r="C45" s="296"/>
+      <c r="A45" s="254"/>
+      <c r="B45" s="254"/>
+      <c r="C45" s="293"/>
       <c r="D45" s="97" t="s">
         <v>691</v>
       </c>
@@ -11283,9 +11289,9 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="270"/>
-      <c r="B46" s="270"/>
-      <c r="C46" s="297"/>
+      <c r="A46" s="255"/>
+      <c r="B46" s="255"/>
+      <c r="C46" s="294"/>
       <c r="D46" s="74" t="s">
         <v>692</v>
       </c>
@@ -11294,13 +11300,13 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="268">
+      <c r="A47" s="253">
         <v>37</v>
       </c>
-      <c r="B47" s="268" t="s">
+      <c r="B47" s="253" t="s">
         <v>710</v>
       </c>
-      <c r="C47" s="295" t="s">
+      <c r="C47" s="292" t="s">
         <v>711</v>
       </c>
       <c r="D47" s="97" t="s">
@@ -11311,9 +11317,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="269"/>
-      <c r="B48" s="269"/>
-      <c r="C48" s="296"/>
+      <c r="A48" s="254"/>
+      <c r="B48" s="254"/>
+      <c r="C48" s="293"/>
       <c r="D48" s="97" t="s">
         <v>691</v>
       </c>
@@ -11321,10 +11327,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1">
-      <c r="A49" s="269"/>
-      <c r="B49" s="276"/>
-      <c r="C49" s="304"/>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A49" s="254"/>
+      <c r="B49" s="256"/>
+      <c r="C49" s="295"/>
       <c r="D49" s="181" t="s">
         <v>692</v>
       </c>
@@ -11337,20 +11343,25 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
@@ -11363,25 +11374,20 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11396,23 +11402,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="81.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="81.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>732</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.5">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -11420,7 +11426,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -11428,7 +11434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -11478,7 +11484,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" thickBot="1">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickTop="1">
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
       <c r="A18" s="308" t="s">
         <v>36</v>
       </c>
@@ -11504,7 +11510,7 @@
       </c>
       <c r="F18" s="119"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="309"/>
       <c r="B19" s="250"/>
       <c r="C19" s="250"/>
@@ -11784,7 +11790,7 @@
         <v>3172188.11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
       <c r="A36" s="127">
         <v>20</v>
       </c>
@@ -11828,22 +11834,22 @@
       <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="39.54296875" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" thickBot="1">
+    <row r="1" spans="1:4" ht="18" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>730</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1"/>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
     <row r="3" spans="1:4">
       <c r="A3" s="114" t="s">
         <v>65</v>
@@ -11872,7 +11878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16" thickBot="1">
+    <row r="17" spans="1:27" ht="16.5" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -11930,8 +11936,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" thickTop="1">
-      <c r="A18" s="288" t="s">
+    <row r="18" spans="1:27" ht="15.75" thickTop="1">
+      <c r="A18" s="289" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="249" t="s">
@@ -11953,8 +11959,8 @@
         <v>863</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1">
-      <c r="A19" s="289"/>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A19" s="290"/>
       <c r="B19" s="250"/>
       <c r="C19" s="250"/>
       <c r="D19" s="285"/>
@@ -12580,7 +12586,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="262">
+      <c r="A60" s="272">
         <v>64</v>
       </c>
       <c r="B60" s="310" t="s">
@@ -12594,7 +12600,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="262"/>
+      <c r="A61" s="272"/>
       <c r="B61" s="310"/>
       <c r="C61" s="60" t="s">
         <v>865</v>
@@ -12604,7 +12610,7 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="262"/>
+      <c r="A62" s="272"/>
       <c r="B62" s="310"/>
       <c r="C62" s="60" t="s">
         <v>866</v>
@@ -12614,7 +12620,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="262"/>
+      <c r="A63" s="272"/>
       <c r="B63" s="310"/>
       <c r="C63" s="60" t="s">
         <v>858</v>
@@ -12624,7 +12630,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="262"/>
+      <c r="A64" s="272"/>
       <c r="B64" s="310"/>
       <c r="C64" s="60" t="s">
         <v>867</v>
@@ -12634,7 +12640,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="262"/>
+      <c r="A65" s="272"/>
       <c r="B65" s="310"/>
       <c r="C65" s="60" t="s">
         <v>868</v>
@@ -12644,7 +12650,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="262"/>
+      <c r="A66" s="272"/>
       <c r="B66" s="310"/>
       <c r="C66" s="60" t="s">
         <v>869</v>
@@ -12654,7 +12660,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="262"/>
+      <c r="A67" s="272"/>
       <c r="B67" s="310"/>
       <c r="C67" s="60" t="s">
         <v>870</v>
@@ -12664,7 +12670,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="262"/>
+      <c r="A68" s="272"/>
       <c r="B68" s="310"/>
       <c r="C68" s="60" t="s">
         <v>871</v>
@@ -12674,7 +12680,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="262"/>
+      <c r="A69" s="272"/>
       <c r="B69" s="310"/>
       <c r="C69" s="60" t="s">
         <v>872</v>
@@ -12684,7 +12690,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="262">
+      <c r="A70" s="272">
         <v>65</v>
       </c>
       <c r="B70" s="311" t="s">
@@ -12698,7 +12704,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="262"/>
+      <c r="A71" s="272"/>
       <c r="B71" s="312"/>
       <c r="C71" s="60" t="s">
         <v>865</v>
@@ -12708,7 +12714,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="262"/>
+      <c r="A72" s="272"/>
       <c r="B72" s="312"/>
       <c r="C72" s="60" t="s">
         <v>866</v>
@@ -12718,7 +12724,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="262"/>
+      <c r="A73" s="272"/>
       <c r="B73" s="312"/>
       <c r="C73" s="60" t="s">
         <v>858</v>
@@ -12728,7 +12734,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="262"/>
+      <c r="A74" s="272"/>
       <c r="B74" s="312"/>
       <c r="C74" s="60" t="s">
         <v>867</v>
@@ -12738,7 +12744,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="262"/>
+      <c r="A75" s="272"/>
       <c r="B75" s="312"/>
       <c r="C75" s="60" t="s">
         <v>868</v>
@@ -12749,7 +12755,7 @@
       <c r="F75" s="111"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="262"/>
+      <c r="A76" s="272"/>
       <c r="B76" s="312"/>
       <c r="C76" s="60" t="s">
         <v>869</v>
@@ -12760,7 +12766,7 @@
       <c r="F76" s="111"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="262"/>
+      <c r="A77" s="272"/>
       <c r="B77" s="312"/>
       <c r="C77" s="60" t="s">
         <v>870</v>
@@ -12771,7 +12777,7 @@
       <c r="F77" s="111"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="262"/>
+      <c r="A78" s="272"/>
       <c r="B78" s="312"/>
       <c r="C78" s="60" t="s">
         <v>871</v>
@@ -12782,7 +12788,7 @@
       <c r="F78" s="111"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="262"/>
+      <c r="A79" s="272"/>
       <c r="B79" s="313"/>
       <c r="C79" s="60" t="s">
         <v>872</v>
@@ -12826,7 +12832,7 @@
     <row r="85" spans="1:15">
       <c r="F85" s="111"/>
     </row>
-    <row r="86" spans="1:15" ht="15.5">
+    <row r="86" spans="1:15" ht="15.75">
       <c r="A86" s="176" t="s">
         <v>873</v>
       </c>
@@ -12845,7 +12851,7 @@
       <c r="F87" s="111"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="265">
+      <c r="A88" s="260">
         <v>66</v>
       </c>
       <c r="B88" s="311" t="s">
@@ -12860,7 +12866,7 @@
       <c r="E88" s="112"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="266"/>
+      <c r="A89" s="261"/>
       <c r="B89" s="312"/>
       <c r="C89" s="60" t="s">
         <v>875</v>
@@ -12871,7 +12877,7 @@
       <c r="E89" s="112"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="266"/>
+      <c r="A90" s="261"/>
       <c r="B90" s="312"/>
       <c r="C90" s="60" t="s">
         <v>876</v>
@@ -12882,7 +12888,7 @@
       <c r="E90" s="112"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="266"/>
+      <c r="A91" s="261"/>
       <c r="B91" s="312"/>
       <c r="C91" s="60" t="s">
         <v>877</v>
@@ -12893,7 +12899,7 @@
       <c r="E91" s="112"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="266"/>
+      <c r="A92" s="261"/>
       <c r="B92" s="312"/>
       <c r="C92" s="60" t="s">
         <v>878</v>
@@ -12904,7 +12910,7 @@
       <c r="E92" s="112"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="266"/>
+      <c r="A93" s="261"/>
       <c r="B93" s="312"/>
       <c r="C93" s="60" t="s">
         <v>879</v>
@@ -12915,7 +12921,7 @@
       <c r="E93" s="112"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="266"/>
+      <c r="A94" s="261"/>
       <c r="B94" s="312"/>
       <c r="C94" s="60" t="s">
         <v>880</v>
@@ -12926,7 +12932,7 @@
       <c r="E94" s="112"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="275"/>
+      <c r="A95" s="262"/>
       <c r="B95" s="313"/>
       <c r="C95" s="60" t="s">
         <v>881</v>
@@ -12937,7 +12943,7 @@
       <c r="E95" s="112"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="265">
+      <c r="A96" s="260">
         <v>67</v>
       </c>
       <c r="B96" s="311" t="s">
@@ -12952,7 +12958,7 @@
       <c r="E96" s="112"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="266"/>
+      <c r="A97" s="261"/>
       <c r="B97" s="312"/>
       <c r="C97" s="60" t="s">
         <v>875</v>
@@ -12963,7 +12969,7 @@
       <c r="E97" s="112"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="266"/>
+      <c r="A98" s="261"/>
       <c r="B98" s="312"/>
       <c r="C98" s="60" t="s">
         <v>876</v>
@@ -12974,7 +12980,7 @@
       <c r="E98" s="112"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="266"/>
+      <c r="A99" s="261"/>
       <c r="B99" s="312"/>
       <c r="C99" s="60" t="s">
         <v>877</v>
@@ -12985,7 +12991,7 @@
       <c r="E99" s="112"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="266"/>
+      <c r="A100" s="261"/>
       <c r="B100" s="312"/>
       <c r="C100" s="60" t="s">
         <v>878</v>
@@ -12996,7 +13002,7 @@
       <c r="E100" s="112"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="266"/>
+      <c r="A101" s="261"/>
       <c r="B101" s="312"/>
       <c r="C101" s="60" t="s">
         <v>879</v>
@@ -13007,7 +13013,7 @@
       <c r="E101" s="112"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="266"/>
+      <c r="A102" s="261"/>
       <c r="B102" s="312"/>
       <c r="C102" s="60" t="s">
         <v>880</v>
@@ -13018,7 +13024,7 @@
       <c r="E102" s="112"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="275"/>
+      <c r="A103" s="262"/>
       <c r="B103" s="313"/>
       <c r="C103" s="60" t="s">
         <v>881</v>
@@ -13029,7 +13035,7 @@
       <c r="E103" s="112"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="265">
+      <c r="A104" s="260">
         <v>68</v>
       </c>
       <c r="B104" s="311" t="s">
@@ -13044,7 +13050,7 @@
       <c r="E104" s="112"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="266"/>
+      <c r="A105" s="261"/>
       <c r="B105" s="312"/>
       <c r="C105" s="60" t="s">
         <v>875</v>
@@ -13055,7 +13061,7 @@
       <c r="E105" s="112"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="266"/>
+      <c r="A106" s="261"/>
       <c r="B106" s="312"/>
       <c r="C106" s="60" t="s">
         <v>876</v>
@@ -13066,7 +13072,7 @@
       <c r="E106" s="112"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="266"/>
+      <c r="A107" s="261"/>
       <c r="B107" s="312"/>
       <c r="C107" s="60" t="s">
         <v>877</v>
@@ -13083,7 +13089,7 @@
       </c>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="266"/>
+      <c r="A108" s="261"/>
       <c r="B108" s="312"/>
       <c r="C108" s="60" t="s">
         <v>878</v>
@@ -13094,7 +13100,7 @@
       <c r="E108" s="112"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="266"/>
+      <c r="A109" s="261"/>
       <c r="B109" s="312"/>
       <c r="C109" s="60" t="s">
         <v>879</v>
@@ -13105,7 +13111,7 @@
       <c r="E109" s="112"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="266"/>
+      <c r="A110" s="261"/>
       <c r="B110" s="312"/>
       <c r="C110" s="60" t="s">
         <v>880</v>
@@ -13116,7 +13122,7 @@
       <c r="E110" s="112"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="275"/>
+      <c r="A111" s="262"/>
       <c r="B111" s="313"/>
       <c r="C111" s="60" t="s">
         <v>881</v>
@@ -13127,7 +13133,7 @@
       <c r="E111" s="112"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="262">
+      <c r="A112" s="272">
         <v>69</v>
       </c>
       <c r="B112" s="310" t="s">
@@ -13141,7 +13147,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="262"/>
+      <c r="A113" s="272"/>
       <c r="B113" s="310"/>
       <c r="C113" s="60" t="s">
         <v>875</v>
@@ -13152,7 +13158,7 @@
       <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="262"/>
+      <c r="A114" s="272"/>
       <c r="B114" s="310"/>
       <c r="C114" s="60" t="s">
         <v>876</v>
@@ -13163,7 +13169,7 @@
       <c r="F114" s="111"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="262"/>
+      <c r="A115" s="272"/>
       <c r="B115" s="310"/>
       <c r="C115" s="60" t="s">
         <v>877</v>
@@ -13174,7 +13180,7 @@
       <c r="F115" s="111"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="262"/>
+      <c r="A116" s="272"/>
       <c r="B116" s="310"/>
       <c r="C116" s="60" t="s">
         <v>878</v>
@@ -13185,7 +13191,7 @@
       <c r="F116" s="111"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="262"/>
+      <c r="A117" s="272"/>
       <c r="B117" s="310"/>
       <c r="C117" s="60" t="s">
         <v>879</v>
@@ -13196,7 +13202,7 @@
       <c r="F117" s="111"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="262"/>
+      <c r="A118" s="272"/>
       <c r="B118" s="310"/>
       <c r="C118" s="60" t="s">
         <v>880</v>
@@ -13207,7 +13213,7 @@
       <c r="F118" s="111"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="262"/>
+      <c r="A119" s="272"/>
       <c r="B119" s="310"/>
       <c r="C119" s="60" t="s">
         <v>881</v>
@@ -13248,7 +13254,7 @@
     <row r="127" spans="1:6">
       <c r="F127" s="111"/>
     </row>
-    <row r="128" spans="1:6" ht="15.5">
+    <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="176" t="s">
         <v>979</v>
       </c>
@@ -13349,6 +13355,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="X19:Y19"/>
     <mergeCell ref="B112:B119"/>
     <mergeCell ref="A112:A119"/>
     <mergeCell ref="A88:A95"/>
@@ -13357,16 +13373,6 @@
     <mergeCell ref="A96:A103"/>
     <mergeCell ref="B104:B111"/>
     <mergeCell ref="A104:A111"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13382,22 +13388,22 @@
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>729</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.5">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -13405,7 +13411,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -13413,7 +13419,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -13463,7 +13469,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16" thickBot="1">
+    <row r="17" spans="1:16" ht="16.5" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>678</v>
       </c>
@@ -13471,8 +13477,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" thickTop="1">
-      <c r="A18" s="288" t="s">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1">
+      <c r="A18" s="289" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="249" t="s">
@@ -13489,8 +13495,8 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1">
-      <c r="A19" s="289"/>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A19" s="290"/>
       <c r="B19" s="250"/>
       <c r="C19" s="250"/>
       <c r="D19" s="315"/>
@@ -13961,7 +13967,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1">
       <c r="A53" s="133">
         <v>60</v>
       </c>
@@ -14035,7 +14041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="146"/>
       <c r="B59" s="190" t="s">
         <v>86</v>
@@ -14053,7 +14059,7 @@
       <c r="C60" s="135"/>
       <c r="D60" s="135"/>
     </row>
-    <row r="61" spans="1:6" ht="15.5">
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="180" t="s">
         <v>1001</v>
       </c>
@@ -14192,11 +14198,11 @@
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14207,13 +14213,13 @@
       <c r="B1" s="93"/>
       <c r="G1" s="124"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1"/>
-    <row r="3" spans="1:10" ht="15.5">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="125" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="122" t="s">
         <v>141</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="16.5" thickBot="1">
       <c r="A9" s="86" t="s">
         <v>140</v>
       </c>
@@ -14250,7 +14256,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickTop="1">
+    <row r="10" spans="1:10" ht="15.75" thickTop="1">
       <c r="A10" s="247" t="s">
         <v>36</v>
       </c>
@@ -14270,7 +14276,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="248"/>
       <c r="B11" s="241"/>
       <c r="C11" s="241"/>
@@ -14344,7 +14350,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="120" t="s">
         <v>917</v>
       </c>
@@ -14359,12 +14365,12 @@
       </c>
       <c r="E16" s="121"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="125" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="122" t="s">
         <v>141</v>
       </c>
@@ -14393,7 +14399,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" thickBot="1">
+    <row r="26" spans="1:7" ht="16.5" thickBot="1">
       <c r="A26" s="122" t="s">
         <v>140</v>
       </c>
@@ -14401,7 +14407,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickTop="1">
+    <row r="27" spans="1:7" ht="15.75" thickTop="1">
       <c r="A27" s="247" t="s">
         <v>36</v>
       </c>
@@ -14421,7 +14427,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
       <c r="A28" s="248"/>
       <c r="B28" s="241"/>
       <c r="C28" s="241"/>
@@ -14494,7 +14500,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="120" t="s">
         <v>917</v>
       </c>
@@ -14509,12 +14515,12 @@
       </c>
       <c r="E33" s="121"/>
     </row>
-    <row r="37" spans="1:7" ht="15.5">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="125" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="122" t="s">
         <v>141</v>
       </c>
@@ -14543,7 +14549,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" thickBot="1">
+    <row r="43" spans="1:7" ht="16.5" thickBot="1">
       <c r="A43" s="86" t="s">
         <v>140</v>
       </c>
@@ -14551,7 +14557,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickTop="1">
+    <row r="44" spans="1:7" ht="15.75" thickTop="1">
       <c r="A44" s="247" t="s">
         <v>36</v>
       </c>
@@ -14571,7 +14577,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1">
       <c r="A45" s="248"/>
       <c r="B45" s="241"/>
       <c r="C45" s="241"/>
@@ -14644,7 +14650,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1">
       <c r="A50" s="120" t="s">
         <v>917</v>
       </c>
@@ -14661,12 +14667,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.5">
+    <row r="54" spans="1:7" ht="15.75">
       <c r="A54" s="125" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.5">
+    <row r="55" spans="1:7" ht="15.75">
       <c r="A55" s="122" t="s">
         <v>141</v>
       </c>
@@ -14698,7 +14704,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" thickBot="1">
+    <row r="60" spans="1:7" ht="16.5" thickBot="1">
       <c r="A60" s="86" t="s">
         <v>140</v>
       </c>
@@ -14706,7 +14712,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" thickTop="1">
+    <row r="61" spans="1:7" ht="15.75" thickTop="1">
       <c r="A61" s="247" t="s">
         <v>36</v>
       </c>
@@ -14767,12 +14773,12 @@
         <v>916</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.5">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="125" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.5">
+    <row r="69" spans="1:7" ht="15.75">
       <c r="A69" s="122" t="s">
         <v>141</v>
       </c>
@@ -14801,7 +14807,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16" thickBot="1">
+    <row r="74" spans="1:7" ht="16.5" thickBot="1">
       <c r="A74" s="86" t="s">
         <v>140</v>
       </c>
@@ -14809,7 +14815,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickTop="1">
+    <row r="75" spans="1:7" ht="15.75" thickTop="1">
       <c r="A75" s="247" t="s">
         <v>36</v>
       </c>
@@ -14829,7 +14835,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1">
+    <row r="76" spans="1:7" ht="15.75" thickBot="1">
       <c r="A76" s="248"/>
       <c r="B76" s="241"/>
       <c r="C76" s="241"/>
@@ -14902,7 +14908,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" thickBot="1">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1">
       <c r="A81" s="121" t="s">
         <v>917</v>
       </c>
@@ -14919,12 +14925,12 @@
         <v>923</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.5">
+    <row r="85" spans="1:5" ht="15.75">
       <c r="A85" s="125" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.5">
+    <row r="86" spans="1:5" ht="15.75">
       <c r="A86" s="122" t="s">
         <v>141</v>
       </c>
@@ -15020,7 +15026,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16" thickBot="1">
+    <row r="106" spans="1:14" ht="16.5" thickBot="1">
       <c r="A106" s="86" t="s">
         <v>140</v>
       </c>
@@ -15028,7 +15034,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15" thickTop="1">
+    <row r="107" spans="1:14" ht="15.75" thickTop="1">
       <c r="A107" s="247" t="s">
         <v>36</v>
       </c>
@@ -15224,12 +15230,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.5">
+    <row r="125" spans="1:5" ht="15.75">
       <c r="A125" s="125" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.5">
+    <row r="126" spans="1:5" ht="15.75">
       <c r="A126" s="122" t="s">
         <v>141</v>
       </c>
@@ -15258,7 +15264,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16" thickBot="1">
+    <row r="131" spans="1:7" ht="16.5" thickBot="1">
       <c r="A131" s="86" t="s">
         <v>140</v>
       </c>
@@ -15359,7 +15365,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" thickBot="1">
+    <row r="138" spans="1:7" ht="15.75" thickBot="1">
       <c r="A138" s="120" t="s">
         <v>917</v>
       </c>
@@ -15378,41 +15384,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="D107:D108"/>
     <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15428,26 +15434,26 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="8" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="14" max="14" width="20.453125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1"/>
-    <row r="3" spans="1:4" ht="15.5">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -15458,7 +15464,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -15469,7 +15475,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -15524,7 +15530,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" t="s">
         <v>1313</v>
       </c>
@@ -15532,7 +15538,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickTop="1">
+    <row r="18" spans="1:12" ht="15.75" thickTop="1">
       <c r="A18" t="s">
         <v>971</v>
       </c>
@@ -15552,12 +15558,12 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.5">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="86" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="8" t="s">
         <v>1297</v>
       </c>
@@ -15678,7 +15684,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="196">
         <v>58</v>
       </c>
@@ -15696,7 +15702,7 @@
       </c>
       <c r="F31" s="206"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="196">
         <v>59</v>
       </c>
@@ -15833,7 +15839,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" thickBot="1">
+    <row r="39" spans="1:16" ht="15.75" thickBot="1">
       <c r="A39" s="200">
         <v>79</v>
       </c>
@@ -15881,7 +15887,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1">
       <c r="A45" s="8" t="s">
         <v>1061</v>
       </c>
@@ -16022,7 +16028,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1">
       <c r="A53" s="200">
         <v>56</v>
       </c>
@@ -16242,7 +16248,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1">
       <c r="A64" s="200">
         <v>33</v>
       </c>
@@ -16360,7 +16366,7 @@
       </c>
       <c r="F69" s="206"/>
     </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1">
+    <row r="70" spans="1:9" ht="15.75" thickBot="1">
       <c r="A70" s="200">
         <v>64</v>
       </c>
@@ -16386,7 +16392,7 @@
     <row r="73" spans="1:9">
       <c r="I73" s="8"/>
     </row>
-    <row r="77" spans="1:9" ht="15" thickBot="1">
+    <row r="77" spans="1:9" ht="15.75" thickBot="1">
       <c r="A77" s="8" t="s">
         <v>1133</v>
       </c>
@@ -16613,7 +16619,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1">
+    <row r="89" spans="1:6" ht="15.75" thickBot="1">
       <c r="A89" s="200">
         <v>20</v>
       </c>
@@ -16669,7 +16675,7 @@
     <row r="100" spans="1:9" ht="24" customHeight="1">
       <c r="A100" s="33"/>
     </row>
-    <row r="101" spans="1:9" ht="15" thickBot="1">
+    <row r="101" spans="1:9" ht="15.75" thickBot="1">
       <c r="A101" s="8" t="s">
         <v>1181</v>
       </c>
@@ -16958,7 +16964,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" thickBot="1">
+    <row r="116" spans="1:9" ht="15.75" thickBot="1">
       <c r="A116" s="200">
         <v>49</v>
       </c>
@@ -17038,7 +17044,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15" thickBot="1">
+    <row r="129" spans="1:17" ht="15.75" thickBot="1">
       <c r="A129" s="8" t="s">
         <v>1224</v>
       </c>
@@ -17119,7 +17125,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15" thickBot="1">
+    <row r="134" spans="1:17" ht="15.75" thickBot="1">
       <c r="A134" s="210">
         <v>80</v>
       </c>
@@ -17147,13 +17153,13 @@
     <row r="137" spans="1:17">
       <c r="I137" s="33"/>
     </row>
-    <row r="138" spans="1:17" ht="15.5">
+    <row r="138" spans="1:17" ht="15.75">
       <c r="A138" s="9" t="s">
         <v>1245</v>
       </c>
       <c r="I138" s="33"/>
     </row>
-    <row r="139" spans="1:17" ht="15" thickBot="1">
+    <row r="139" spans="1:17" ht="15.75" thickBot="1">
       <c r="A139" s="8" t="s">
         <v>1246</v>
       </c>
@@ -17172,7 +17178,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15" thickBot="1">
+    <row r="141" spans="1:17" ht="15.75" thickBot="1">
       <c r="A141" s="250"/>
       <c r="B141" s="250"/>
       <c r="C141" s="317"/>
@@ -17300,7 +17306,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" thickBot="1">
+    <row r="157" spans="1:3" ht="15.75" thickBot="1">
       <c r="A157" s="215" t="s">
         <v>1280</v>
       </c>
@@ -17311,7 +17317,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" thickBot="1">
+    <row r="160" spans="1:3" ht="15.75" thickBot="1">
       <c r="A160" s="8" t="s">
         <v>1301</v>
       </c>
@@ -17514,7 +17520,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" thickBot="1">
+    <row r="179" spans="1:9" ht="15.75" thickBot="1">
       <c r="A179" s="229" t="s">
         <v>1291</v>
       </c>
@@ -17535,7 +17541,7 @@
       <c r="B181" s="33"/>
       <c r="F181" s="33"/>
     </row>
-    <row r="182" spans="1:9" ht="15" thickBot="1">
+    <row r="182" spans="1:9" ht="15.75" thickBot="1">
       <c r="A182" s="8" t="s">
         <v>692</v>
       </c>
@@ -17567,7 +17573,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15" thickBot="1">
+    <row r="185" spans="1:9" ht="15.75" thickBot="1">
       <c r="A185" s="215" t="s">
         <v>1263</v>
       </c>
@@ -17586,7 +17592,7 @@
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
     </row>
-    <row r="188" spans="1:9" ht="15" thickBot="1">
+    <row r="188" spans="1:9" ht="15.75" thickBot="1">
       <c r="A188" s="8" t="s">
         <v>1247</v>
       </c>
@@ -17672,7 +17678,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" thickBot="1">
+    <row r="196" spans="1:16" ht="15.75" thickBot="1">
       <c r="A196" s="215" t="s">
         <v>1282</v>
       </c>
@@ -17683,7 +17689,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" thickBot="1">
+    <row r="203" spans="1:16" ht="15.75" thickBot="1">
       <c r="A203" s="8" t="s">
         <v>1307</v>
       </c>
@@ -17716,7 +17722,7 @@
       <c r="G204" s="197"/>
       <c r="H204" s="14"/>
     </row>
-    <row r="205" spans="1:16" ht="15" thickBot="1">
+    <row r="205" spans="1:16" ht="15.75" thickBot="1">
       <c r="A205" s="250"/>
       <c r="B205" s="250"/>
       <c r="C205" s="250"/>
@@ -17793,7 +17799,7 @@
       <c r="G209" s="14"/>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="1:16" ht="15" thickBot="1">
+    <row r="210" spans="1:16" ht="15.75" thickBot="1">
       <c r="A210" s="210">
         <v>85</v>
       </c>
@@ -17950,7 +17956,7 @@
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" ht="15" thickBot="1">
+    <row r="230" spans="1:8" ht="15.75" thickBot="1">
       <c r="A230" s="8" t="s">
         <v>1308</v>
       </c>
@@ -17979,7 +17985,7 @@
       </c>
       <c r="G231" s="209"/>
     </row>
-    <row r="232" spans="1:8" ht="15" thickBot="1">
+    <row r="232" spans="1:8" ht="15.75" thickBot="1">
       <c r="A232" s="250"/>
       <c r="B232" s="250"/>
       <c r="C232" s="250"/>
@@ -18045,7 +18051,7 @@
       <c r="E236" s="209"/>
       <c r="F236" s="198"/>
     </row>
-    <row r="237" spans="1:8" ht="15" thickBot="1">
+    <row r="237" spans="1:8" ht="15.75" thickBot="1">
       <c r="A237" s="210">
         <v>89</v>
       </c>
@@ -18066,6 +18072,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
     <mergeCell ref="B140:B141"/>
     <mergeCell ref="C140:C141"/>
     <mergeCell ref="A204:A205"/>
@@ -18075,15 +18090,6 @@
     <mergeCell ref="A146:A149"/>
     <mergeCell ref="A152:A155"/>
     <mergeCell ref="A140:A141"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="F231:F232"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18099,16 +18105,16 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="47.453125" customWidth="1"/>
+    <col min="1" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
@@ -18116,7 +18122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="87" t="s">
         <v>64</v>
       </c>
@@ -18124,12 +18130,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
       <c r="A4" s="92" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickTop="1">
+    <row r="5" spans="1:7" ht="16.5" thickTop="1">
       <c r="A5" s="86" t="s">
         <v>141</v>
       </c>
@@ -18179,7 +18185,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1">
       <c r="A16" s="166" t="s">
         <v>140</v>
       </c>
@@ -18255,13 +18261,13 @@
     <row r="23" spans="1:9" ht="21.75" customHeight="1">
       <c r="A23" s="28"/>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1">
+    <row r="25" spans="1:9" ht="16.5" thickBot="1">
       <c r="A25" s="94" t="s">
         <v>717</v>
       </c>
       <c r="B25" s="94"/>
     </row>
-    <row r="26" spans="1:9" ht="16" thickTop="1">
+    <row r="26" spans="1:9" ht="16.5" thickTop="1">
       <c r="A26" s="86" t="s">
         <v>141</v>
       </c>
@@ -18301,7 +18307,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" thickBot="1">
+    <row r="35" spans="1:8" ht="16.5" thickBot="1">
       <c r="A35" s="166" t="s">
         <v>140</v>
       </c>
@@ -18538,7 +18544,7 @@
         <v>404.59699999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1">
       <c r="A50" s="19"/>
       <c r="B50" s="21" t="s">
         <v>80</v>
@@ -18746,7 +18752,7 @@
         <v>3447380</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1">
       <c r="A63" s="19"/>
       <c r="B63" s="21" t="s">
         <v>84</v>
@@ -18954,7 +18960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="A76" s="19"/>
       <c r="B76" s="21" t="s">
         <v>85</v>
@@ -19162,7 +19168,7 @@
         <v>-74.957300000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1">
+    <row r="89" spans="1:6" ht="15.75" thickBot="1">
       <c r="A89" s="19"/>
       <c r="B89" s="21" t="s">
         <v>87</v>
@@ -19180,6 +19186,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -19188,12 +19200,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19209,26 +19215,26 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.5" thickBot="1">
+    <row r="1" spans="1:6" ht="18" thickBot="1">
       <c r="A1" s="83" t="s">
         <v>718</v>
       </c>
       <c r="B1" s="84"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1"/>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -19236,7 +19242,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -19244,7 +19250,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -19297,7 +19303,7 @@
     <row r="16" spans="1:6">
       <c r="F16" s="242"/>
     </row>
-    <row r="17" spans="1:15" ht="17.5" thickBot="1">
+    <row r="17" spans="1:15" ht="18" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -19576,7 +19582,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="150">
         <v>19</v>
       </c>
@@ -19734,26 +19740,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="A1:D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" thickBot="1">
+    <row r="1" spans="1:4" ht="18" thickBot="1">
       <c r="A1" s="83" t="s">
         <v>719</v>
       </c>
       <c r="B1" s="58"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.5">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -19761,7 +19767,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -19769,57 +19775,63 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" thickBot="1">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -20172,7 +20184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
       <c r="A43" s="146">
         <v>2</v>
       </c>
@@ -20209,28 +20221,28 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="6" max="6" width="61.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="44" max="44" width="18.54296875" customWidth="1"/>
-    <col min="46" max="46" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="17.5" thickBot="1">
+    <row r="1" spans="1:44" ht="18" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>721</v>
       </c>
       <c r="B1" s="85"/>
     </row>
-    <row r="2" spans="1:44" ht="15" thickTop="1"/>
-    <row r="3" spans="1:44" ht="15.5">
+    <row r="2" spans="1:44" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:44" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -20241,7 +20253,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.5">
+    <row r="4" spans="1:44" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -20252,12 +20264,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.5">
+    <row r="6" spans="1:44" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="17.5" thickBot="1">
+    <row r="7" spans="1:44" ht="18" thickBot="1">
       <c r="A7" t="s">
         <v>976</v>
       </c>
@@ -20265,7 +20277,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15" thickTop="1">
+    <row r="8" spans="1:44" ht="15.75" thickTop="1">
       <c r="A8" t="s">
         <v>638</v>
       </c>
@@ -20316,7 +20328,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1">
+    <row r="19" spans="1:8" ht="16.5" thickBot="1">
       <c r="A19" s="122" t="s">
         <v>140</v>
       </c>
@@ -20848,7 +20860,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="1:8" ht="17.5" thickBot="1">
+    <row r="47" spans="1:8" ht="18" thickBot="1">
       <c r="A47" s="89" t="s">
         <v>720</v>
       </c>
@@ -20860,7 +20872,7 @@
       <c r="G47" s="36"/>
       <c r="H47" s="34"/>
     </row>
-    <row r="48" spans="1:8" ht="16" thickTop="1">
+    <row r="48" spans="1:8" ht="16.5" thickTop="1">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="48"/>
@@ -20870,7 +20882,7 @@
       <c r="G48" s="36"/>
       <c r="H48" s="34"/>
     </row>
-    <row r="49" spans="1:8" ht="15.5">
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="86" t="s">
         <v>65</v>
       </c>
@@ -20884,7 +20896,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="34"/>
     </row>
-    <row r="50" spans="1:8" ht="15.5">
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="86" t="s">
         <v>64</v>
       </c>
@@ -20898,7 +20910,7 @@
       <c r="G50" s="36"/>
       <c r="H50" s="34"/>
     </row>
-    <row r="52" spans="1:8" ht="15.5">
+    <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="86" t="s">
         <v>188</v>
       </c>
@@ -20948,7 +20960,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17.5" thickBot="1">
+    <row r="63" spans="1:8" ht="18" thickBot="1">
       <c r="A63" s="86" t="s">
         <v>140</v>
       </c>
@@ -20986,7 +20998,7 @@
       <c r="F65" s="241"/>
       <c r="G65" s="119"/>
     </row>
-    <row r="66" spans="1:7" ht="29">
+    <row r="66" spans="1:7" ht="30">
       <c r="A66" s="12">
         <v>19</v>
       </c>
@@ -21006,7 +21018,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="29">
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="12">
         <v>20</v>
       </c>
@@ -21066,7 +21078,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="29">
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="12">
         <v>30</v>
       </c>
@@ -21086,7 +21098,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="29">
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="12">
         <v>31</v>
       </c>
@@ -21464,7 +21476,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="143">
         <v>89</v>
       </c>
@@ -21506,26 +21518,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="50.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" thickBot="1">
+    <row r="1" spans="1:4" ht="18" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>722</v>
       </c>
       <c r="B1" s="89"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1"/>
-    <row r="3" spans="1:4" ht="15.5">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -21537,7 +21549,7 @@
       </c>
       <c r="D3" s="81"/>
     </row>
-    <row r="4" spans="1:4" ht="15.5">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -21545,7 +21557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>188</v>
       </c>
@@ -21595,7 +21607,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.5" thickBot="1">
+    <row r="17" spans="1:7" ht="18" thickBot="1">
       <c r="A17" s="122" t="s">
         <v>140</v>
       </c>
@@ -21603,20 +21615,20 @@
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickTop="1">
-      <c r="A18" s="253" t="s">
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="256" t="s">
+      <c r="B18" s="271" t="s">
         <v>562</v>
       </c>
-      <c r="C18" s="259" t="s">
+      <c r="C18" s="278" t="s">
         <v>563</v>
       </c>
-      <c r="D18" s="259" t="s">
+      <c r="D18" s="278" t="s">
         <v>564</v>
       </c>
-      <c r="E18" s="259" t="s">
+      <c r="E18" s="278" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -21624,33 +21636,33 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="254"/>
-      <c r="B19" s="257"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="257"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
-      <c r="A20" s="255"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="258"/>
-      <c r="D20" s="258"/>
-      <c r="E20" s="258"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.5">
-      <c r="A21" s="260" t="s">
+      <c r="A19" s="274"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="276"/>
+      <c r="E19" s="276"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A20" s="275"/>
+      <c r="B20" s="277"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="277"/>
+      <c r="E20" s="277"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="270" t="s">
         <v>1022</v>
       </c>
-      <c r="B21" s="256"/>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="261">
+      <c r="A22" s="257">
         <v>32</v>
       </c>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="272" t="s">
         <v>565</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -21664,8 +21676,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="261"/>
-      <c r="B23" s="262"/>
+      <c r="A23" s="257"/>
+      <c r="B23" s="272"/>
       <c r="C23" s="12">
         <v>2</v>
       </c>
@@ -21677,8 +21689,8 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="261"/>
-      <c r="B24" s="262"/>
+      <c r="A24" s="257"/>
+      <c r="B24" s="272"/>
       <c r="C24" s="12">
         <v>3</v>
       </c>
@@ -21690,8 +21702,8 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="261"/>
-      <c r="B25" s="262"/>
+      <c r="A25" s="257"/>
+      <c r="B25" s="272"/>
       <c r="C25" s="12">
         <v>4</v>
       </c>
@@ -21703,8 +21715,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="261"/>
-      <c r="B26" s="262"/>
+      <c r="A26" s="257"/>
+      <c r="B26" s="272"/>
       <c r="C26" s="12">
         <v>5</v>
       </c>
@@ -21716,8 +21728,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="261"/>
-      <c r="B27" s="262"/>
+      <c r="A27" s="257"/>
+      <c r="B27" s="272"/>
       <c r="C27" s="12">
         <v>6</v>
       </c>
@@ -21729,8 +21741,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="261"/>
-      <c r="B28" s="262"/>
+      <c r="A28" s="257"/>
+      <c r="B28" s="272"/>
       <c r="C28" s="12">
         <v>7</v>
       </c>
@@ -21742,8 +21754,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="261"/>
-      <c r="B29" s="262"/>
+      <c r="A29" s="257"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="12">
         <v>8</v>
       </c>
@@ -21755,8 +21767,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="261"/>
-      <c r="B30" s="262"/>
+      <c r="A30" s="257"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="12">
         <v>9</v>
       </c>
@@ -21768,8 +21780,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="261"/>
-      <c r="B31" s="262"/>
+      <c r="A31" s="257"/>
+      <c r="B31" s="272"/>
       <c r="C31" s="12">
         <v>10</v>
       </c>
@@ -21781,8 +21793,8 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="261"/>
-      <c r="B32" s="262"/>
+      <c r="A32" s="257"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="12">
         <v>11</v>
       </c>
@@ -21794,8 +21806,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="261"/>
-      <c r="B33" s="262"/>
+      <c r="A33" s="257"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="12">
         <v>12</v>
       </c>
@@ -21807,10 +21819,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="263">
+      <c r="A34" s="267">
         <v>33</v>
       </c>
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="260" t="s">
         <v>568</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -21824,8 +21836,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="264"/>
-      <c r="B35" s="266"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="261"/>
       <c r="C35" s="12">
         <v>2</v>
       </c>
@@ -21837,8 +21849,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="264"/>
-      <c r="B36" s="266"/>
+      <c r="A36" s="268"/>
+      <c r="B36" s="261"/>
       <c r="C36" s="12">
         <v>3</v>
       </c>
@@ -21850,8 +21862,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="264"/>
-      <c r="B37" s="266"/>
+      <c r="A37" s="268"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="12">
         <v>4</v>
       </c>
@@ -21863,8 +21875,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="264"/>
-      <c r="B38" s="266"/>
+      <c r="A38" s="268"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="12">
         <v>5</v>
       </c>
@@ -21876,8 +21888,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="264"/>
-      <c r="B39" s="266"/>
+      <c r="A39" s="268"/>
+      <c r="B39" s="261"/>
       <c r="C39" s="12">
         <v>6</v>
       </c>
@@ -21889,8 +21901,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="264"/>
-      <c r="B40" s="266"/>
+      <c r="A40" s="268"/>
+      <c r="B40" s="261"/>
       <c r="C40" s="12">
         <v>7</v>
       </c>
@@ -21902,8 +21914,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="264"/>
-      <c r="B41" s="266"/>
+      <c r="A41" s="268"/>
+      <c r="B41" s="261"/>
       <c r="C41" s="12">
         <v>8</v>
       </c>
@@ -21915,8 +21927,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="264"/>
-      <c r="B42" s="266"/>
+      <c r="A42" s="268"/>
+      <c r="B42" s="261"/>
       <c r="C42" s="12">
         <v>9</v>
       </c>
@@ -21928,8 +21940,8 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="264"/>
-      <c r="B43" s="266"/>
+      <c r="A43" s="268"/>
+      <c r="B43" s="261"/>
       <c r="C43" s="12">
         <v>10</v>
       </c>
@@ -21941,8 +21953,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="264"/>
-      <c r="B44" s="266"/>
+      <c r="A44" s="268"/>
+      <c r="B44" s="261"/>
       <c r="C44" s="12">
         <v>11</v>
       </c>
@@ -21954,8 +21966,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="264"/>
-      <c r="B45" s="266"/>
+      <c r="A45" s="268"/>
+      <c r="B45" s="261"/>
       <c r="C45" s="12">
         <v>12</v>
       </c>
@@ -21966,11 +21978,11 @@
         <v>1896060</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="263">
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="267">
         <v>34</v>
       </c>
-      <c r="B46" s="268" t="s">
+      <c r="B46" s="253" t="s">
         <v>571</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -21984,10 +21996,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="264">
+      <c r="A47" s="268">
         <v>62</v>
       </c>
-      <c r="B47" s="269" t="s">
+      <c r="B47" s="254" t="s">
         <v>574</v>
       </c>
       <c r="C47" s="12">
@@ -22001,8 +22013,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="264"/>
-      <c r="B48" s="269"/>
+      <c r="A48" s="268"/>
+      <c r="B48" s="254"/>
       <c r="C48" s="12">
         <v>3</v>
       </c>
@@ -22014,8 +22026,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="264"/>
-      <c r="B49" s="269"/>
+      <c r="A49" s="268"/>
+      <c r="B49" s="254"/>
       <c r="C49" s="12">
         <v>4</v>
       </c>
@@ -22027,8 +22039,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="264"/>
-      <c r="B50" s="269"/>
+      <c r="A50" s="268"/>
+      <c r="B50" s="254"/>
       <c r="C50" s="12">
         <v>5</v>
       </c>
@@ -22040,8 +22052,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="264"/>
-      <c r="B51" s="269"/>
+      <c r="A51" s="268"/>
+      <c r="B51" s="254"/>
       <c r="C51" s="12">
         <v>6</v>
       </c>
@@ -22053,8 +22065,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="264"/>
-      <c r="B52" s="269"/>
+      <c r="A52" s="268"/>
+      <c r="B52" s="254"/>
       <c r="C52" s="12">
         <v>7</v>
       </c>
@@ -22066,8 +22078,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="264"/>
-      <c r="B53" s="269"/>
+      <c r="A53" s="268"/>
+      <c r="B53" s="254"/>
       <c r="C53" s="12">
         <v>8</v>
       </c>
@@ -22079,8 +22091,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="264"/>
-      <c r="B54" s="269"/>
+      <c r="A54" s="268"/>
+      <c r="B54" s="254"/>
       <c r="C54" s="12">
         <v>9</v>
       </c>
@@ -22092,8 +22104,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="264"/>
-      <c r="B55" s="269"/>
+      <c r="A55" s="268"/>
+      <c r="B55" s="254"/>
       <c r="C55" s="12">
         <v>10</v>
       </c>
@@ -22105,8 +22117,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="264"/>
-      <c r="B56" s="269"/>
+      <c r="A56" s="268"/>
+      <c r="B56" s="254"/>
       <c r="C56" s="12">
         <v>11</v>
       </c>
@@ -22118,8 +22130,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="264"/>
-      <c r="B57" s="269"/>
+      <c r="A57" s="268"/>
+      <c r="B57" s="254"/>
       <c r="C57" s="12">
         <v>12</v>
       </c>
@@ -22131,8 +22143,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="267"/>
-      <c r="B58" s="269"/>
+      <c r="A58" s="269"/>
+      <c r="B58" s="254"/>
       <c r="C58" s="70"/>
       <c r="D58" s="71">
         <v>13</v>
@@ -22140,10 +22152,10 @@
       <c r="E58" s="72"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="263">
+      <c r="A59" s="267">
         <v>35</v>
       </c>
-      <c r="B59" s="268" t="s">
+      <c r="B59" s="253" t="s">
         <v>575</v>
       </c>
       <c r="C59" s="73" t="s">
@@ -22157,8 +22169,8 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="264"/>
-      <c r="B60" s="269"/>
+      <c r="A60" s="268"/>
+      <c r="B60" s="254"/>
       <c r="C60" s="12">
         <v>2</v>
       </c>
@@ -22170,8 +22182,8 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="264"/>
-      <c r="B61" s="269"/>
+      <c r="A61" s="268"/>
+      <c r="B61" s="254"/>
       <c r="C61" s="12">
         <v>3</v>
       </c>
@@ -22183,8 +22195,8 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="264"/>
-      <c r="B62" s="269"/>
+      <c r="A62" s="268"/>
+      <c r="B62" s="254"/>
       <c r="C62" s="12">
         <v>4</v>
       </c>
@@ -22196,8 +22208,8 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="264"/>
-      <c r="B63" s="269"/>
+      <c r="A63" s="268"/>
+      <c r="B63" s="254"/>
       <c r="C63" s="12">
         <v>5</v>
       </c>
@@ -22209,8 +22221,8 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="264"/>
-      <c r="B64" s="269"/>
+      <c r="A64" s="268"/>
+      <c r="B64" s="254"/>
       <c r="C64" s="12">
         <v>6</v>
       </c>
@@ -22222,8 +22234,8 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="264"/>
-      <c r="B65" s="269"/>
+      <c r="A65" s="268"/>
+      <c r="B65" s="254"/>
       <c r="C65" s="12">
         <v>7</v>
       </c>
@@ -22235,8 +22247,8 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="264"/>
-      <c r="B66" s="269"/>
+      <c r="A66" s="268"/>
+      <c r="B66" s="254"/>
       <c r="C66" s="12">
         <v>8</v>
       </c>
@@ -22248,8 +22260,8 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="264"/>
-      <c r="B67" s="269"/>
+      <c r="A67" s="268"/>
+      <c r="B67" s="254"/>
       <c r="C67" s="12">
         <v>9</v>
       </c>
@@ -22261,8 +22273,8 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="264"/>
-      <c r="B68" s="269"/>
+      <c r="A68" s="268"/>
+      <c r="B68" s="254"/>
       <c r="C68" s="12">
         <v>10</v>
       </c>
@@ -22274,8 +22286,8 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="264"/>
-      <c r="B69" s="269"/>
+      <c r="A69" s="268"/>
+      <c r="B69" s="254"/>
       <c r="C69" s="12">
         <v>11</v>
       </c>
@@ -22287,8 +22299,8 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="264"/>
-      <c r="B70" s="269"/>
+      <c r="A70" s="268"/>
+      <c r="B70" s="254"/>
       <c r="C70" s="12">
         <v>12</v>
       </c>
@@ -22300,13 +22312,13 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="267"/>
-      <c r="B71" s="269"/>
+      <c r="A71" s="269"/>
+      <c r="B71" s="254"/>
       <c r="C71" s="70"/>
       <c r="D71" s="71"/>
       <c r="E71" s="72"/>
     </row>
-    <row r="72" spans="1:5" ht="29">
+    <row r="72" spans="1:5" ht="30">
       <c r="A72" s="223">
         <v>36</v>
       </c>
@@ -22323,11 +22335,11 @@
         <v>39.283200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="268">
+    <row r="73" spans="1:5" ht="30">
+      <c r="A73" s="253">
         <v>37</v>
       </c>
-      <c r="B73" s="268" t="s">
+      <c r="B73" s="253" t="s">
         <v>581</v>
       </c>
       <c r="C73" s="12" t="s">
@@ -22341,8 +22353,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="269"/>
-      <c r="B74" s="269"/>
+      <c r="A74" s="254"/>
+      <c r="B74" s="254"/>
       <c r="C74" s="12">
         <v>2</v>
       </c>
@@ -22354,8 +22366,8 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="269"/>
-      <c r="B75" s="269"/>
+      <c r="A75" s="254"/>
+      <c r="B75" s="254"/>
       <c r="C75" s="12">
         <v>3</v>
       </c>
@@ -22367,8 +22379,8 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="269"/>
-      <c r="B76" s="269"/>
+      <c r="A76" s="254"/>
+      <c r="B76" s="254"/>
       <c r="C76" s="12">
         <v>4</v>
       </c>
@@ -22380,8 +22392,8 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="269"/>
-      <c r="B77" s="269"/>
+      <c r="A77" s="254"/>
+      <c r="B77" s="254"/>
       <c r="C77" s="12">
         <v>5</v>
       </c>
@@ -22393,8 +22405,8 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="269"/>
-      <c r="B78" s="269"/>
+      <c r="A78" s="254"/>
+      <c r="B78" s="254"/>
       <c r="C78" s="12">
         <v>6</v>
       </c>
@@ -22406,8 +22418,8 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="269"/>
-      <c r="B79" s="269"/>
+      <c r="A79" s="254"/>
+      <c r="B79" s="254"/>
       <c r="C79" s="12">
         <v>7</v>
       </c>
@@ -22419,8 +22431,8 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="269"/>
-      <c r="B80" s="269"/>
+      <c r="A80" s="254"/>
+      <c r="B80" s="254"/>
       <c r="C80" s="12">
         <v>8</v>
       </c>
@@ -22432,8 +22444,8 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="269"/>
-      <c r="B81" s="269"/>
+      <c r="A81" s="254"/>
+      <c r="B81" s="254"/>
       <c r="C81" s="12">
         <v>9</v>
       </c>
@@ -22445,8 +22457,8 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="269"/>
-      <c r="B82" s="269"/>
+      <c r="A82" s="254"/>
+      <c r="B82" s="254"/>
       <c r="C82" s="12">
         <v>10</v>
       </c>
@@ -22458,8 +22470,8 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="269"/>
-      <c r="B83" s="269"/>
+      <c r="A83" s="254"/>
+      <c r="B83" s="254"/>
       <c r="C83" s="12">
         <v>11</v>
       </c>
@@ -22471,8 +22483,8 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="269"/>
-      <c r="B84" s="269"/>
+      <c r="A84" s="254"/>
+      <c r="B84" s="254"/>
       <c r="C84" s="12">
         <v>12</v>
       </c>
@@ -22484,8 +22496,8 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="270"/>
-      <c r="B85" s="270"/>
+      <c r="A85" s="255"/>
+      <c r="B85" s="255"/>
       <c r="C85" s="70"/>
       <c r="D85" s="74"/>
       <c r="E85" s="72"/>
@@ -22508,10 +22520,10 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="268">
+      <c r="A87" s="253">
         <v>39</v>
       </c>
-      <c r="B87" s="268" t="s">
+      <c r="B87" s="253" t="s">
         <v>587</v>
       </c>
       <c r="C87" s="12" t="s">
@@ -22525,8 +22537,8 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="269"/>
-      <c r="B88" s="269"/>
+      <c r="A88" s="254"/>
+      <c r="B88" s="254"/>
       <c r="C88" s="12">
         <v>2</v>
       </c>
@@ -22538,8 +22550,8 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="269"/>
-      <c r="B89" s="269"/>
+      <c r="A89" s="254"/>
+      <c r="B89" s="254"/>
       <c r="C89" s="12">
         <v>3</v>
       </c>
@@ -22551,8 +22563,8 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="269"/>
-      <c r="B90" s="269"/>
+      <c r="A90" s="254"/>
+      <c r="B90" s="254"/>
       <c r="C90" s="12">
         <v>4</v>
       </c>
@@ -22564,8 +22576,8 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="269"/>
-      <c r="B91" s="269"/>
+      <c r="A91" s="254"/>
+      <c r="B91" s="254"/>
       <c r="C91" s="12">
         <v>5</v>
       </c>
@@ -22577,8 +22589,8 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="269"/>
-      <c r="B92" s="269"/>
+      <c r="A92" s="254"/>
+      <c r="B92" s="254"/>
       <c r="C92" s="12">
         <v>6</v>
       </c>
@@ -22590,8 +22602,8 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="269"/>
-      <c r="B93" s="269"/>
+      <c r="A93" s="254"/>
+      <c r="B93" s="254"/>
       <c r="C93" s="12">
         <v>7</v>
       </c>
@@ -22603,8 +22615,8 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="269"/>
-      <c r="B94" s="269"/>
+      <c r="A94" s="254"/>
+      <c r="B94" s="254"/>
       <c r="C94" s="12">
         <v>8</v>
       </c>
@@ -22616,8 +22628,8 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="269"/>
-      <c r="B95" s="269"/>
+      <c r="A95" s="254"/>
+      <c r="B95" s="254"/>
       <c r="C95" s="12">
         <v>9</v>
       </c>
@@ -22629,8 +22641,8 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="269"/>
-      <c r="B96" s="269"/>
+      <c r="A96" s="254"/>
+      <c r="B96" s="254"/>
       <c r="C96" s="12">
         <v>10</v>
       </c>
@@ -22642,8 +22654,8 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="269"/>
-      <c r="B97" s="269"/>
+      <c r="A97" s="254"/>
+      <c r="B97" s="254"/>
       <c r="C97" s="12">
         <v>11</v>
       </c>
@@ -22655,8 +22667,8 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="269"/>
-      <c r="B98" s="269"/>
+      <c r="A98" s="254"/>
+      <c r="B98" s="254"/>
       <c r="C98" s="12">
         <v>12</v>
       </c>
@@ -22668,8 +22680,8 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="270"/>
-      <c r="B99" s="270"/>
+      <c r="A99" s="255"/>
+      <c r="B99" s="255"/>
       <c r="C99" s="70"/>
       <c r="D99" s="70"/>
       <c r="E99" s="72"/>
@@ -22692,10 +22704,10 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A101" s="268">
+      <c r="A101" s="253">
         <v>41</v>
       </c>
-      <c r="B101" s="268" t="s">
+      <c r="B101" s="253" t="s">
         <v>593</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -22709,8 +22721,8 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="269"/>
-      <c r="B102" s="269"/>
+      <c r="A102" s="254"/>
+      <c r="B102" s="254"/>
       <c r="C102" s="12">
         <v>2</v>
       </c>
@@ -22722,8 +22734,8 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="269"/>
-      <c r="B103" s="269"/>
+      <c r="A103" s="254"/>
+      <c r="B103" s="254"/>
       <c r="C103" s="12">
         <v>3</v>
       </c>
@@ -22735,8 +22747,8 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="269"/>
-      <c r="B104" s="269"/>
+      <c r="A104" s="254"/>
+      <c r="B104" s="254"/>
       <c r="C104" s="12">
         <v>4</v>
       </c>
@@ -22748,8 +22760,8 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="269"/>
-      <c r="B105" s="269"/>
+      <c r="A105" s="254"/>
+      <c r="B105" s="254"/>
       <c r="C105" s="12">
         <v>5</v>
       </c>
@@ -22761,8 +22773,8 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="269"/>
-      <c r="B106" s="269"/>
+      <c r="A106" s="254"/>
+      <c r="B106" s="254"/>
       <c r="C106" s="12">
         <v>6</v>
       </c>
@@ -22774,8 +22786,8 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="269"/>
-      <c r="B107" s="269"/>
+      <c r="A107" s="254"/>
+      <c r="B107" s="254"/>
       <c r="C107" s="12">
         <v>7</v>
       </c>
@@ -22787,8 +22799,8 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="269"/>
-      <c r="B108" s="269"/>
+      <c r="A108" s="254"/>
+      <c r="B108" s="254"/>
       <c r="C108" s="12">
         <v>8</v>
       </c>
@@ -22800,8 +22812,8 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="269"/>
-      <c r="B109" s="269"/>
+      <c r="A109" s="254"/>
+      <c r="B109" s="254"/>
       <c r="C109" s="12">
         <v>9</v>
       </c>
@@ -22813,8 +22825,8 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="269"/>
-      <c r="B110" s="269"/>
+      <c r="A110" s="254"/>
+      <c r="B110" s="254"/>
       <c r="C110" s="12">
         <v>10</v>
       </c>
@@ -22826,8 +22838,8 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="269"/>
-      <c r="B111" s="269"/>
+      <c r="A111" s="254"/>
+      <c r="B111" s="254"/>
       <c r="C111" s="12">
         <v>11</v>
       </c>
@@ -22839,8 +22851,8 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="269"/>
-      <c r="B112" s="269"/>
+      <c r="A112" s="254"/>
+      <c r="B112" s="254"/>
       <c r="C112" s="12">
         <v>12</v>
       </c>
@@ -22852,10 +22864,10 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A113" s="268">
+      <c r="A113" s="253">
         <v>44</v>
       </c>
-      <c r="B113" s="268" t="s">
+      <c r="B113" s="253" t="s">
         <v>596</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -22869,8 +22881,8 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="269"/>
-      <c r="B114" s="269"/>
+      <c r="A114" s="254"/>
+      <c r="B114" s="254"/>
       <c r="C114" s="12">
         <v>2</v>
       </c>
@@ -22882,8 +22894,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="269"/>
-      <c r="B115" s="269"/>
+      <c r="A115" s="254"/>
+      <c r="B115" s="254"/>
       <c r="C115" s="12">
         <v>3</v>
       </c>
@@ -22895,8 +22907,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="269"/>
-      <c r="B116" s="269"/>
+      <c r="A116" s="254"/>
+      <c r="B116" s="254"/>
       <c r="C116" s="12">
         <v>4</v>
       </c>
@@ -22908,8 +22920,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="269"/>
-      <c r="B117" s="269"/>
+      <c r="A117" s="254"/>
+      <c r="B117" s="254"/>
       <c r="C117" s="12">
         <v>5</v>
       </c>
@@ -22921,8 +22933,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="269"/>
-      <c r="B118" s="269"/>
+      <c r="A118" s="254"/>
+      <c r="B118" s="254"/>
       <c r="C118" s="12">
         <v>6</v>
       </c>
@@ -22934,8 +22946,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="269"/>
-      <c r="B119" s="269"/>
+      <c r="A119" s="254"/>
+      <c r="B119" s="254"/>
       <c r="C119" s="12">
         <v>7</v>
       </c>
@@ -22947,8 +22959,8 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="269"/>
-      <c r="B120" s="269"/>
+      <c r="A120" s="254"/>
+      <c r="B120" s="254"/>
       <c r="C120" s="12">
         <v>8</v>
       </c>
@@ -22960,8 +22972,8 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="269"/>
-      <c r="B121" s="269"/>
+      <c r="A121" s="254"/>
+      <c r="B121" s="254"/>
       <c r="C121" s="12">
         <v>9</v>
       </c>
@@ -22973,8 +22985,8 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="269"/>
-      <c r="B122" s="269"/>
+      <c r="A122" s="254"/>
+      <c r="B122" s="254"/>
       <c r="C122" s="12">
         <v>10</v>
       </c>
@@ -22986,8 +22998,8 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="269"/>
-      <c r="B123" s="269"/>
+      <c r="A123" s="254"/>
+      <c r="B123" s="254"/>
       <c r="C123" s="12">
         <v>11</v>
       </c>
@@ -22999,8 +23011,8 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="269"/>
-      <c r="B124" s="269"/>
+      <c r="A124" s="254"/>
+      <c r="B124" s="254"/>
       <c r="C124" s="12">
         <v>12</v>
       </c>
@@ -23012,8 +23024,8 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="270"/>
-      <c r="B125" s="270"/>
+      <c r="A125" s="255"/>
+      <c r="B125" s="255"/>
       <c r="C125" s="70"/>
       <c r="D125" s="70">
         <v>13</v>
@@ -23021,10 +23033,10 @@
       <c r="E125" s="72"/>
     </row>
     <row r="126" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A126" s="268">
+      <c r="A126" s="253">
         <v>45</v>
       </c>
-      <c r="B126" s="268" t="s">
+      <c r="B126" s="253" t="s">
         <v>599</v>
       </c>
       <c r="C126" s="12" t="s">
@@ -23038,8 +23050,8 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="269"/>
-      <c r="B127" s="269"/>
+      <c r="A127" s="254"/>
+      <c r="B127" s="254"/>
       <c r="C127" s="12">
         <v>2</v>
       </c>
@@ -23051,8 +23063,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="269"/>
-      <c r="B128" s="269"/>
+      <c r="A128" s="254"/>
+      <c r="B128" s="254"/>
       <c r="C128" s="12">
         <v>3</v>
       </c>
@@ -23064,8 +23076,8 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="269"/>
-      <c r="B129" s="269"/>
+      <c r="A129" s="254"/>
+      <c r="B129" s="254"/>
       <c r="C129" s="12">
         <v>4</v>
       </c>
@@ -23077,8 +23089,8 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="269"/>
-      <c r="B130" s="269"/>
+      <c r="A130" s="254"/>
+      <c r="B130" s="254"/>
       <c r="C130" s="12">
         <v>5</v>
       </c>
@@ -23090,8 +23102,8 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="269"/>
-      <c r="B131" s="269"/>
+      <c r="A131" s="254"/>
+      <c r="B131" s="254"/>
       <c r="C131" s="12">
         <v>6</v>
       </c>
@@ -23103,8 +23115,8 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="269"/>
-      <c r="B132" s="269"/>
+      <c r="A132" s="254"/>
+      <c r="B132" s="254"/>
       <c r="C132" s="12">
         <v>7</v>
       </c>
@@ -23116,8 +23128,8 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="269"/>
-      <c r="B133" s="269"/>
+      <c r="A133" s="254"/>
+      <c r="B133" s="254"/>
       <c r="C133" s="12">
         <v>8</v>
       </c>
@@ -23129,8 +23141,8 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="269"/>
-      <c r="B134" s="269"/>
+      <c r="A134" s="254"/>
+      <c r="B134" s="254"/>
       <c r="C134" s="12">
         <v>9</v>
       </c>
@@ -23142,8 +23154,8 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="269"/>
-      <c r="B135" s="269"/>
+      <c r="A135" s="254"/>
+      <c r="B135" s="254"/>
       <c r="C135" s="12">
         <v>10</v>
       </c>
@@ -23155,8 +23167,8 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="269"/>
-      <c r="B136" s="269"/>
+      <c r="A136" s="254"/>
+      <c r="B136" s="254"/>
       <c r="C136" s="12">
         <v>11</v>
       </c>
@@ -23168,8 +23180,8 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="269"/>
-      <c r="B137" s="269"/>
+      <c r="A137" s="254"/>
+      <c r="B137" s="254"/>
       <c r="C137" s="12">
         <v>12</v>
       </c>
@@ -23180,9 +23192,9 @@
         <v>4231300</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" thickBot="1">
-      <c r="A138" s="269"/>
-      <c r="B138" s="269"/>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A138" s="254"/>
+      <c r="B138" s="254"/>
       <c r="C138" s="70"/>
       <c r="D138" s="70"/>
       <c r="E138" s="72"/>
@@ -23191,10 +23203,10 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="45" hidden="1" customHeight="1">
-      <c r="A139" s="268">
+      <c r="A139" s="253">
         <v>46</v>
       </c>
-      <c r="B139" s="268" t="s">
+      <c r="B139" s="253" t="s">
         <v>602</v>
       </c>
       <c r="C139" s="12" t="s">
@@ -23208,8 +23220,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="269"/>
-      <c r="B140" s="269"/>
+      <c r="A140" s="254"/>
+      <c r="B140" s="254"/>
       <c r="C140" s="12">
         <v>2</v>
       </c>
@@ -23219,8 +23231,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="269"/>
-      <c r="B141" s="269"/>
+      <c r="A141" s="254"/>
+      <c r="B141" s="254"/>
       <c r="C141" s="12">
         <v>3</v>
       </c>
@@ -23230,8 +23242,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="269"/>
-      <c r="B142" s="269"/>
+      <c r="A142" s="254"/>
+      <c r="B142" s="254"/>
       <c r="C142" s="12">
         <v>4</v>
       </c>
@@ -23241,8 +23253,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="269"/>
-      <c r="B143" s="269"/>
+      <c r="A143" s="254"/>
+      <c r="B143" s="254"/>
       <c r="C143" s="12">
         <v>5</v>
       </c>
@@ -23252,8 +23264,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="269"/>
-      <c r="B144" s="269"/>
+      <c r="A144" s="254"/>
+      <c r="B144" s="254"/>
       <c r="C144" s="12">
         <v>6</v>
       </c>
@@ -23263,8 +23275,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="269"/>
-      <c r="B145" s="269"/>
+      <c r="A145" s="254"/>
+      <c r="B145" s="254"/>
       <c r="C145" s="12">
         <v>7</v>
       </c>
@@ -23274,8 +23286,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="269"/>
-      <c r="B146" s="269"/>
+      <c r="A146" s="254"/>
+      <c r="B146" s="254"/>
       <c r="C146" s="12">
         <v>8</v>
       </c>
@@ -23285,8 +23297,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="269"/>
-      <c r="B147" s="269"/>
+      <c r="A147" s="254"/>
+      <c r="B147" s="254"/>
       <c r="C147" s="12">
         <v>9</v>
       </c>
@@ -23296,8 +23308,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="269"/>
-      <c r="B148" s="269"/>
+      <c r="A148" s="254"/>
+      <c r="B148" s="254"/>
       <c r="C148" s="12">
         <v>10</v>
       </c>
@@ -23307,8 +23319,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="269"/>
-      <c r="B149" s="269"/>
+      <c r="A149" s="254"/>
+      <c r="B149" s="254"/>
       <c r="C149" s="12">
         <v>11</v>
       </c>
@@ -23318,8 +23330,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="A150" s="269"/>
-      <c r="B150" s="269"/>
+      <c r="A150" s="254"/>
+      <c r="B150" s="254"/>
       <c r="C150" s="12">
         <v>12</v>
       </c>
@@ -23328,20 +23340,20 @@
         <v>943.53399999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16" thickBot="1">
-      <c r="A151" s="273" t="s">
+    <row r="151" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A151" s="265" t="s">
         <v>1021</v>
       </c>
-      <c r="B151" s="274"/>
-      <c r="C151" s="274"/>
-      <c r="D151" s="274"/>
-      <c r="E151" s="274"/>
+      <c r="B151" s="266"/>
+      <c r="C151" s="266"/>
+      <c r="D151" s="266"/>
+      <c r="E151" s="266"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="271">
+      <c r="A152" s="263">
         <v>47</v>
       </c>
-      <c r="B152" s="272" t="s">
+      <c r="B152" s="264" t="s">
         <v>605</v>
       </c>
       <c r="C152" s="78" t="s">
@@ -23355,8 +23367,8 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="269"/>
-      <c r="B153" s="266"/>
+      <c r="A153" s="254"/>
+      <c r="B153" s="261"/>
       <c r="C153" s="12">
         <v>2</v>
       </c>
@@ -23368,8 +23380,8 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="269"/>
-      <c r="B154" s="266"/>
+      <c r="A154" s="254"/>
+      <c r="B154" s="261"/>
       <c r="C154" s="12">
         <v>3</v>
       </c>
@@ -23381,8 +23393,8 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="269"/>
-      <c r="B155" s="266"/>
+      <c r="A155" s="254"/>
+      <c r="B155" s="261"/>
       <c r="C155" s="12">
         <v>4</v>
       </c>
@@ -23394,8 +23406,8 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="269"/>
-      <c r="B156" s="266"/>
+      <c r="A156" s="254"/>
+      <c r="B156" s="261"/>
       <c r="C156" s="12">
         <v>5</v>
       </c>
@@ -23407,8 +23419,8 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="269"/>
-      <c r="B157" s="266"/>
+      <c r="A157" s="254"/>
+      <c r="B157" s="261"/>
       <c r="C157" s="12">
         <v>6</v>
       </c>
@@ -23420,8 +23432,8 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="269"/>
-      <c r="B158" s="266"/>
+      <c r="A158" s="254"/>
+      <c r="B158" s="261"/>
       <c r="C158" s="12">
         <v>7</v>
       </c>
@@ -23433,8 +23445,8 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="269"/>
-      <c r="B159" s="266"/>
+      <c r="A159" s="254"/>
+      <c r="B159" s="261"/>
       <c r="C159" s="12">
         <v>8</v>
       </c>
@@ -23446,8 +23458,8 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="269"/>
-      <c r="B160" s="266"/>
+      <c r="A160" s="254"/>
+      <c r="B160" s="261"/>
       <c r="C160" s="12">
         <v>9</v>
       </c>
@@ -23459,8 +23471,8 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="269"/>
-      <c r="B161" s="266"/>
+      <c r="A161" s="254"/>
+      <c r="B161" s="261"/>
       <c r="C161" s="12">
         <v>10</v>
       </c>
@@ -23472,8 +23484,8 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="269"/>
-      <c r="B162" s="266"/>
+      <c r="A162" s="254"/>
+      <c r="B162" s="261"/>
       <c r="C162" s="12">
         <v>11</v>
       </c>
@@ -23485,8 +23497,8 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="269"/>
-      <c r="B163" s="266"/>
+      <c r="A163" s="254"/>
+      <c r="B163" s="261"/>
       <c r="C163" s="12">
         <v>12</v>
       </c>
@@ -23498,10 +23510,10 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="268">
+      <c r="A164" s="253">
         <v>48</v>
       </c>
-      <c r="B164" s="265" t="s">
+      <c r="B164" s="260" t="s">
         <v>607</v>
       </c>
       <c r="C164" s="12" t="s">
@@ -23515,8 +23527,8 @@
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="269"/>
-      <c r="B165" s="266"/>
+      <c r="A165" s="254"/>
+      <c r="B165" s="261"/>
       <c r="C165" s="12">
         <v>2</v>
       </c>
@@ -23528,8 +23540,8 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="269"/>
-      <c r="B166" s="266"/>
+      <c r="A166" s="254"/>
+      <c r="B166" s="261"/>
       <c r="C166" s="12">
         <v>3</v>
       </c>
@@ -23541,8 +23553,8 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="269"/>
-      <c r="B167" s="266"/>
+      <c r="A167" s="254"/>
+      <c r="B167" s="261"/>
       <c r="C167" s="12">
         <v>4</v>
       </c>
@@ -23554,8 +23566,8 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="269"/>
-      <c r="B168" s="266"/>
+      <c r="A168" s="254"/>
+      <c r="B168" s="261"/>
       <c r="C168" s="12">
         <v>5</v>
       </c>
@@ -23567,8 +23579,8 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="269"/>
-      <c r="B169" s="266"/>
+      <c r="A169" s="254"/>
+      <c r="B169" s="261"/>
       <c r="C169" s="12">
         <v>6</v>
       </c>
@@ -23580,8 +23592,8 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="269"/>
-      <c r="B170" s="266"/>
+      <c r="A170" s="254"/>
+      <c r="B170" s="261"/>
       <c r="C170" s="12">
         <v>7</v>
       </c>
@@ -23593,8 +23605,8 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="269"/>
-      <c r="B171" s="266"/>
+      <c r="A171" s="254"/>
+      <c r="B171" s="261"/>
       <c r="C171" s="12">
         <v>8</v>
       </c>
@@ -23606,8 +23618,8 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="269"/>
-      <c r="B172" s="266"/>
+      <c r="A172" s="254"/>
+      <c r="B172" s="261"/>
       <c r="C172" s="12">
         <v>9</v>
       </c>
@@ -23619,8 +23631,8 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="269"/>
-      <c r="B173" s="266"/>
+      <c r="A173" s="254"/>
+      <c r="B173" s="261"/>
       <c r="C173" s="12">
         <v>10</v>
       </c>
@@ -23632,8 +23644,8 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="269"/>
-      <c r="B174" s="266"/>
+      <c r="A174" s="254"/>
+      <c r="B174" s="261"/>
       <c r="C174" s="12">
         <v>11</v>
       </c>
@@ -23645,8 +23657,8 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="270"/>
-      <c r="B175" s="275"/>
+      <c r="A175" s="255"/>
+      <c r="B175" s="262"/>
       <c r="C175" s="12">
         <v>12</v>
       </c>
@@ -23657,11 +23669,11 @@
         <v>2068430</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="29">
-      <c r="A176" s="268">
+    <row r="176" spans="1:5" ht="30">
+      <c r="A176" s="253">
         <v>49</v>
       </c>
-      <c r="B176" s="265" t="s">
+      <c r="B176" s="260" t="s">
         <v>610</v>
       </c>
       <c r="C176" s="12" t="s">
@@ -23675,8 +23687,8 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="269"/>
-      <c r="B177" s="266"/>
+      <c r="A177" s="254"/>
+      <c r="B177" s="261"/>
       <c r="C177" s="12">
         <v>2</v>
       </c>
@@ -23688,8 +23700,8 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="269"/>
-      <c r="B178" s="266"/>
+      <c r="A178" s="254"/>
+      <c r="B178" s="261"/>
       <c r="C178" s="12">
         <v>3</v>
       </c>
@@ -23701,8 +23713,8 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="269"/>
-      <c r="B179" s="266"/>
+      <c r="A179" s="254"/>
+      <c r="B179" s="261"/>
       <c r="C179" s="12">
         <v>4</v>
       </c>
@@ -23714,8 +23726,8 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="269"/>
-      <c r="B180" s="266"/>
+      <c r="A180" s="254"/>
+      <c r="B180" s="261"/>
       <c r="C180" s="12">
         <v>5</v>
       </c>
@@ -23727,8 +23739,8 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="269"/>
-      <c r="B181" s="266"/>
+      <c r="A181" s="254"/>
+      <c r="B181" s="261"/>
       <c r="C181" s="12">
         <v>6</v>
       </c>
@@ -23740,8 +23752,8 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="269"/>
-      <c r="B182" s="266"/>
+      <c r="A182" s="254"/>
+      <c r="B182" s="261"/>
       <c r="C182" s="12">
         <v>7</v>
       </c>
@@ -23753,8 +23765,8 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="269"/>
-      <c r="B183" s="266"/>
+      <c r="A183" s="254"/>
+      <c r="B183" s="261"/>
       <c r="C183" s="12">
         <v>8</v>
       </c>
@@ -23766,8 +23778,8 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="269"/>
-      <c r="B184" s="266"/>
+      <c r="A184" s="254"/>
+      <c r="B184" s="261"/>
       <c r="C184" s="12">
         <v>9</v>
       </c>
@@ -23779,8 +23791,8 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="269"/>
-      <c r="B185" s="266"/>
+      <c r="A185" s="254"/>
+      <c r="B185" s="261"/>
       <c r="C185" s="12">
         <v>10</v>
       </c>
@@ -23792,8 +23804,8 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="269"/>
-      <c r="B186" s="266"/>
+      <c r="A186" s="254"/>
+      <c r="B186" s="261"/>
       <c r="C186" s="12">
         <v>11</v>
       </c>
@@ -23805,8 +23817,8 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="270"/>
-      <c r="B187" s="275"/>
+      <c r="A187" s="255"/>
+      <c r="B187" s="262"/>
       <c r="C187" s="12">
         <v>12</v>
       </c>
@@ -23818,10 +23830,10 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="268">
+      <c r="A188" s="253">
         <v>50</v>
       </c>
-      <c r="B188" s="265" t="s">
+      <c r="B188" s="260" t="s">
         <v>612</v>
       </c>
       <c r="C188" s="12" t="s">
@@ -23835,8 +23847,8 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="269"/>
-      <c r="B189" s="266"/>
+      <c r="A189" s="254"/>
+      <c r="B189" s="261"/>
       <c r="C189" s="12">
         <v>2</v>
       </c>
@@ -23848,8 +23860,8 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="269"/>
-      <c r="B190" s="266"/>
+      <c r="A190" s="254"/>
+      <c r="B190" s="261"/>
       <c r="C190" s="12">
         <v>3</v>
       </c>
@@ -23861,8 +23873,8 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="269"/>
-      <c r="B191" s="266"/>
+      <c r="A191" s="254"/>
+      <c r="B191" s="261"/>
       <c r="C191" s="12">
         <v>4</v>
       </c>
@@ -23874,8 +23886,8 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="269"/>
-      <c r="B192" s="266"/>
+      <c r="A192" s="254"/>
+      <c r="B192" s="261"/>
       <c r="C192" s="12">
         <v>5</v>
       </c>
@@ -23887,8 +23899,8 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="269"/>
-      <c r="B193" s="266"/>
+      <c r="A193" s="254"/>
+      <c r="B193" s="261"/>
       <c r="C193" s="12">
         <v>6</v>
       </c>
@@ -23900,8 +23912,8 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="269"/>
-      <c r="B194" s="266"/>
+      <c r="A194" s="254"/>
+      <c r="B194" s="261"/>
       <c r="C194" s="12">
         <v>7</v>
       </c>
@@ -23913,8 +23925,8 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="269"/>
-      <c r="B195" s="266"/>
+      <c r="A195" s="254"/>
+      <c r="B195" s="261"/>
       <c r="C195" s="12">
         <v>8</v>
       </c>
@@ -23926,8 +23938,8 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="269"/>
-      <c r="B196" s="266"/>
+      <c r="A196" s="254"/>
+      <c r="B196" s="261"/>
       <c r="C196" s="12">
         <v>9</v>
       </c>
@@ -23939,8 +23951,8 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="269"/>
-      <c r="B197" s="266"/>
+      <c r="A197" s="254"/>
+      <c r="B197" s="261"/>
       <c r="C197" s="12">
         <v>10</v>
       </c>
@@ -23952,8 +23964,8 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="269"/>
-      <c r="B198" s="266"/>
+      <c r="A198" s="254"/>
+      <c r="B198" s="261"/>
       <c r="C198" s="12">
         <v>11</v>
       </c>
@@ -23965,8 +23977,8 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="270"/>
-      <c r="B199" s="275"/>
+      <c r="A199" s="255"/>
+      <c r="B199" s="262"/>
       <c r="C199" s="12">
         <v>12</v>
       </c>
@@ -23978,10 +23990,10 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="268">
+      <c r="A200" s="253">
         <v>51</v>
       </c>
-      <c r="B200" s="268" t="s">
+      <c r="B200" s="253" t="s">
         <v>614</v>
       </c>
       <c r="C200" s="12" t="s">
@@ -23995,8 +24007,8 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="269"/>
-      <c r="B201" s="269"/>
+      <c r="A201" s="254"/>
+      <c r="B201" s="254"/>
       <c r="C201" s="12">
         <v>2</v>
       </c>
@@ -24008,8 +24020,8 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="269"/>
-      <c r="B202" s="269"/>
+      <c r="A202" s="254"/>
+      <c r="B202" s="254"/>
       <c r="C202" s="12">
         <v>3</v>
       </c>
@@ -24021,8 +24033,8 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="269"/>
-      <c r="B203" s="269"/>
+      <c r="A203" s="254"/>
+      <c r="B203" s="254"/>
       <c r="C203" s="12">
         <v>4</v>
       </c>
@@ -24034,8 +24046,8 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="269"/>
-      <c r="B204" s="269"/>
+      <c r="A204" s="254"/>
+      <c r="B204" s="254"/>
       <c r="C204" s="12">
         <v>5</v>
       </c>
@@ -24047,8 +24059,8 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="269"/>
-      <c r="B205" s="269"/>
+      <c r="A205" s="254"/>
+      <c r="B205" s="254"/>
       <c r="C205" s="12">
         <v>6</v>
       </c>
@@ -24060,8 +24072,8 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="269"/>
-      <c r="B206" s="269"/>
+      <c r="A206" s="254"/>
+      <c r="B206" s="254"/>
       <c r="C206" s="12">
         <v>7</v>
       </c>
@@ -24073,8 +24085,8 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="269"/>
-      <c r="B207" s="269"/>
+      <c r="A207" s="254"/>
+      <c r="B207" s="254"/>
       <c r="C207" s="12">
         <v>8</v>
       </c>
@@ -24086,8 +24098,8 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="269"/>
-      <c r="B208" s="269"/>
+      <c r="A208" s="254"/>
+      <c r="B208" s="254"/>
       <c r="C208" s="12">
         <v>9</v>
       </c>
@@ -24099,8 +24111,8 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="269"/>
-      <c r="B209" s="269"/>
+      <c r="A209" s="254"/>
+      <c r="B209" s="254"/>
       <c r="C209" s="12">
         <v>10</v>
       </c>
@@ -24112,8 +24124,8 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="269"/>
-      <c r="B210" s="269"/>
+      <c r="A210" s="254"/>
+      <c r="B210" s="254"/>
       <c r="C210" s="12">
         <v>11</v>
       </c>
@@ -24125,8 +24137,8 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="270"/>
-      <c r="B211" s="270"/>
+      <c r="A211" s="255"/>
+      <c r="B211" s="255"/>
       <c r="C211" s="12">
         <v>12</v>
       </c>
@@ -24138,10 +24150,10 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="268">
+      <c r="A212" s="253">
         <v>52</v>
       </c>
-      <c r="B212" s="268" t="s">
+      <c r="B212" s="253" t="s">
         <v>616</v>
       </c>
       <c r="C212" s="12" t="s">
@@ -24155,8 +24167,8 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="269"/>
-      <c r="B213" s="269"/>
+      <c r="A213" s="254"/>
+      <c r="B213" s="254"/>
       <c r="C213" s="12">
         <v>2</v>
       </c>
@@ -24168,8 +24180,8 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="269"/>
-      <c r="B214" s="269"/>
+      <c r="A214" s="254"/>
+      <c r="B214" s="254"/>
       <c r="C214" s="12">
         <v>3</v>
       </c>
@@ -24181,8 +24193,8 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="269"/>
-      <c r="B215" s="269"/>
+      <c r="A215" s="254"/>
+      <c r="B215" s="254"/>
       <c r="C215" s="12">
         <v>4</v>
       </c>
@@ -24194,8 +24206,8 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="269"/>
-      <c r="B216" s="269"/>
+      <c r="A216" s="254"/>
+      <c r="B216" s="254"/>
       <c r="C216" s="12">
         <v>5</v>
       </c>
@@ -24207,8 +24219,8 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="269"/>
-      <c r="B217" s="269"/>
+      <c r="A217" s="254"/>
+      <c r="B217" s="254"/>
       <c r="C217" s="12">
         <v>6</v>
       </c>
@@ -24220,8 +24232,8 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="269"/>
-      <c r="B218" s="269"/>
+      <c r="A218" s="254"/>
+      <c r="B218" s="254"/>
       <c r="C218" s="12">
         <v>7</v>
       </c>
@@ -24233,8 +24245,8 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="269"/>
-      <c r="B219" s="269"/>
+      <c r="A219" s="254"/>
+      <c r="B219" s="254"/>
       <c r="C219" s="12">
         <v>8</v>
       </c>
@@ -24246,8 +24258,8 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="269"/>
-      <c r="B220" s="269"/>
+      <c r="A220" s="254"/>
+      <c r="B220" s="254"/>
       <c r="C220" s="12">
         <v>9</v>
       </c>
@@ -24259,8 +24271,8 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="269"/>
-      <c r="B221" s="269"/>
+      <c r="A221" s="254"/>
+      <c r="B221" s="254"/>
       <c r="C221" s="12">
         <v>10</v>
       </c>
@@ -24272,8 +24284,8 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="269"/>
-      <c r="B222" s="269"/>
+      <c r="A222" s="254"/>
+      <c r="B222" s="254"/>
       <c r="C222" s="12">
         <v>11</v>
       </c>
@@ -24285,8 +24297,8 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="270"/>
-      <c r="B223" s="270"/>
+      <c r="A223" s="255"/>
+      <c r="B223" s="255"/>
       <c r="C223" s="12">
         <v>12</v>
       </c>
@@ -24298,10 +24310,10 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="268">
+      <c r="A224" s="253">
         <v>53</v>
       </c>
-      <c r="B224" s="268" t="s">
+      <c r="B224" s="253" t="s">
         <v>618</v>
       </c>
       <c r="C224" s="12" t="s">
@@ -24315,8 +24327,8 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="269"/>
-      <c r="B225" s="269"/>
+      <c r="A225" s="254"/>
+      <c r="B225" s="254"/>
       <c r="C225" s="12">
         <v>2</v>
       </c>
@@ -24328,8 +24340,8 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="269"/>
-      <c r="B226" s="269"/>
+      <c r="A226" s="254"/>
+      <c r="B226" s="254"/>
       <c r="C226" s="12">
         <v>3</v>
       </c>
@@ -24341,8 +24353,8 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="269"/>
-      <c r="B227" s="269"/>
+      <c r="A227" s="254"/>
+      <c r="B227" s="254"/>
       <c r="C227" s="12">
         <v>4</v>
       </c>
@@ -24354,8 +24366,8 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="269"/>
-      <c r="B228" s="269"/>
+      <c r="A228" s="254"/>
+      <c r="B228" s="254"/>
       <c r="C228" s="12">
         <v>5</v>
       </c>
@@ -24367,8 +24379,8 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="269"/>
-      <c r="B229" s="269"/>
+      <c r="A229" s="254"/>
+      <c r="B229" s="254"/>
       <c r="C229" s="12">
         <v>6</v>
       </c>
@@ -24380,8 +24392,8 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="269"/>
-      <c r="B230" s="269"/>
+      <c r="A230" s="254"/>
+      <c r="B230" s="254"/>
       <c r="C230" s="12">
         <v>7</v>
       </c>
@@ -24393,8 +24405,8 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="269"/>
-      <c r="B231" s="269"/>
+      <c r="A231" s="254"/>
+      <c r="B231" s="254"/>
       <c r="C231" s="12">
         <v>8</v>
       </c>
@@ -24406,8 +24418,8 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="269"/>
-      <c r="B232" s="269"/>
+      <c r="A232" s="254"/>
+      <c r="B232" s="254"/>
       <c r="C232" s="12">
         <v>9</v>
       </c>
@@ -24419,8 +24431,8 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="269"/>
-      <c r="B233" s="269"/>
+      <c r="A233" s="254"/>
+      <c r="B233" s="254"/>
       <c r="C233" s="12">
         <v>10</v>
       </c>
@@ -24432,8 +24444,8 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="269"/>
-      <c r="B234" s="269"/>
+      <c r="A234" s="254"/>
+      <c r="B234" s="254"/>
       <c r="C234" s="12">
         <v>11</v>
       </c>
@@ -24445,8 +24457,8 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="270"/>
-      <c r="B235" s="270"/>
+      <c r="A235" s="255"/>
+      <c r="B235" s="255"/>
       <c r="C235" s="12">
         <v>12</v>
       </c>
@@ -24458,10 +24470,10 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="268">
+      <c r="A236" s="253">
         <v>54</v>
       </c>
-      <c r="B236" s="268" t="s">
+      <c r="B236" s="253" t="s">
         <v>620</v>
       </c>
       <c r="C236" s="12" t="s">
@@ -24475,8 +24487,8 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="269"/>
-      <c r="B237" s="269"/>
+      <c r="A237" s="254"/>
+      <c r="B237" s="254"/>
       <c r="C237" s="12">
         <v>2</v>
       </c>
@@ -24488,8 +24500,8 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="269"/>
-      <c r="B238" s="269"/>
+      <c r="A238" s="254"/>
+      <c r="B238" s="254"/>
       <c r="C238" s="12">
         <v>3</v>
       </c>
@@ -24501,8 +24513,8 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="269"/>
-      <c r="B239" s="269"/>
+      <c r="A239" s="254"/>
+      <c r="B239" s="254"/>
       <c r="C239" s="12">
         <v>4</v>
       </c>
@@ -24514,8 +24526,8 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="269"/>
-      <c r="B240" s="269"/>
+      <c r="A240" s="254"/>
+      <c r="B240" s="254"/>
       <c r="C240" s="12">
         <v>5</v>
       </c>
@@ -24527,8 +24539,8 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="269"/>
-      <c r="B241" s="269"/>
+      <c r="A241" s="254"/>
+      <c r="B241" s="254"/>
       <c r="C241" s="12">
         <v>6</v>
       </c>
@@ -24540,8 +24552,8 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="269"/>
-      <c r="B242" s="269"/>
+      <c r="A242" s="254"/>
+      <c r="B242" s="254"/>
       <c r="C242" s="12">
         <v>7</v>
       </c>
@@ -24553,8 +24565,8 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="269"/>
-      <c r="B243" s="269"/>
+      <c r="A243" s="254"/>
+      <c r="B243" s="254"/>
       <c r="C243" s="12">
         <v>8</v>
       </c>
@@ -24566,8 +24578,8 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="269"/>
-      <c r="B244" s="269"/>
+      <c r="A244" s="254"/>
+      <c r="B244" s="254"/>
       <c r="C244" s="12">
         <v>9</v>
       </c>
@@ -24579,8 +24591,8 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="269"/>
-      <c r="B245" s="269"/>
+      <c r="A245" s="254"/>
+      <c r="B245" s="254"/>
       <c r="C245" s="12">
         <v>10</v>
       </c>
@@ -24592,8 +24604,8 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="269"/>
-      <c r="B246" s="269"/>
+      <c r="A246" s="254"/>
+      <c r="B246" s="254"/>
       <c r="C246" s="12">
         <v>11</v>
       </c>
@@ -24605,8 +24617,8 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="270"/>
-      <c r="B247" s="270"/>
+      <c r="A247" s="255"/>
+      <c r="B247" s="255"/>
       <c r="C247" s="12">
         <v>12</v>
       </c>
@@ -24618,10 +24630,10 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A248" s="268">
+      <c r="A248" s="253">
         <v>55</v>
       </c>
-      <c r="B248" s="268" t="s">
+      <c r="B248" s="253" t="s">
         <v>622</v>
       </c>
       <c r="C248" s="12" t="s">
@@ -24635,8 +24647,8 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="269"/>
-      <c r="B249" s="269"/>
+      <c r="A249" s="254"/>
+      <c r="B249" s="254"/>
       <c r="C249" s="12">
         <v>2</v>
       </c>
@@ -24648,8 +24660,8 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="269"/>
-      <c r="B250" s="269"/>
+      <c r="A250" s="254"/>
+      <c r="B250" s="254"/>
       <c r="C250" s="12">
         <v>3</v>
       </c>
@@ -24661,8 +24673,8 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="269"/>
-      <c r="B251" s="269"/>
+      <c r="A251" s="254"/>
+      <c r="B251" s="254"/>
       <c r="C251" s="12">
         <v>4</v>
       </c>
@@ -24674,8 +24686,8 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="269"/>
-      <c r="B252" s="269"/>
+      <c r="A252" s="254"/>
+      <c r="B252" s="254"/>
       <c r="C252" s="12">
         <v>5</v>
       </c>
@@ -24687,8 +24699,8 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="269"/>
-      <c r="B253" s="269"/>
+      <c r="A253" s="254"/>
+      <c r="B253" s="254"/>
       <c r="C253" s="12">
         <v>6</v>
       </c>
@@ -24700,8 +24712,8 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="269"/>
-      <c r="B254" s="269"/>
+      <c r="A254" s="254"/>
+      <c r="B254" s="254"/>
       <c r="C254" s="12">
         <v>7</v>
       </c>
@@ -24713,8 +24725,8 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="269"/>
-      <c r="B255" s="269"/>
+      <c r="A255" s="254"/>
+      <c r="B255" s="254"/>
       <c r="C255" s="12">
         <v>8</v>
       </c>
@@ -24726,8 +24738,8 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="269"/>
-      <c r="B256" s="269"/>
+      <c r="A256" s="254"/>
+      <c r="B256" s="254"/>
       <c r="C256" s="12">
         <v>9</v>
       </c>
@@ -24739,8 +24751,8 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="269"/>
-      <c r="B257" s="269"/>
+      <c r="A257" s="254"/>
+      <c r="B257" s="254"/>
       <c r="C257" s="12">
         <v>10</v>
       </c>
@@ -24752,8 +24764,8 @@
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="269"/>
-      <c r="B258" s="269"/>
+      <c r="A258" s="254"/>
+      <c r="B258" s="254"/>
       <c r="C258" s="12">
         <v>11</v>
       </c>
@@ -24765,8 +24777,8 @@
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="270"/>
-      <c r="B259" s="270"/>
+      <c r="A259" s="255"/>
+      <c r="B259" s="255"/>
       <c r="C259" s="12">
         <v>12</v>
       </c>
@@ -24777,11 +24789,11 @@
         <v>3.0354699999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="29">
-      <c r="A260" s="268">
+    <row r="260" spans="1:5" ht="30">
+      <c r="A260" s="253">
         <v>56</v>
       </c>
-      <c r="B260" s="268" t="s">
+      <c r="B260" s="253" t="s">
         <v>625</v>
       </c>
       <c r="C260" s="12" t="s">
@@ -24795,8 +24807,8 @@
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="269"/>
-      <c r="B261" s="269"/>
+      <c r="A261" s="254"/>
+      <c r="B261" s="254"/>
       <c r="C261" s="12">
         <v>2</v>
       </c>
@@ -24808,8 +24820,8 @@
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="269"/>
-      <c r="B262" s="269"/>
+      <c r="A262" s="254"/>
+      <c r="B262" s="254"/>
       <c r="C262" s="12">
         <v>3</v>
       </c>
@@ -24821,8 +24833,8 @@
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="269"/>
-      <c r="B263" s="269"/>
+      <c r="A263" s="254"/>
+      <c r="B263" s="254"/>
       <c r="C263" s="12">
         <v>4</v>
       </c>
@@ -24834,8 +24846,8 @@
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="269"/>
-      <c r="B264" s="269"/>
+      <c r="A264" s="254"/>
+      <c r="B264" s="254"/>
       <c r="C264" s="12">
         <v>5</v>
       </c>
@@ -24847,8 +24859,8 @@
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="269"/>
-      <c r="B265" s="269"/>
+      <c r="A265" s="254"/>
+      <c r="B265" s="254"/>
       <c r="C265" s="12">
         <v>6</v>
       </c>
@@ -24860,8 +24872,8 @@
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="269"/>
-      <c r="B266" s="269"/>
+      <c r="A266" s="254"/>
+      <c r="B266" s="254"/>
       <c r="C266" s="12">
         <v>7</v>
       </c>
@@ -24873,8 +24885,8 @@
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="269"/>
-      <c r="B267" s="269"/>
+      <c r="A267" s="254"/>
+      <c r="B267" s="254"/>
       <c r="C267" s="12">
         <v>8</v>
       </c>
@@ -24886,8 +24898,8 @@
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="269"/>
-      <c r="B268" s="269"/>
+      <c r="A268" s="254"/>
+      <c r="B268" s="254"/>
       <c r="C268" s="12">
         <v>9</v>
       </c>
@@ -24899,8 +24911,8 @@
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="269"/>
-      <c r="B269" s="269"/>
+      <c r="A269" s="254"/>
+      <c r="B269" s="254"/>
       <c r="C269" s="12">
         <v>10</v>
       </c>
@@ -24912,8 +24924,8 @@
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="269"/>
-      <c r="B270" s="269"/>
+      <c r="A270" s="254"/>
+      <c r="B270" s="254"/>
       <c r="C270" s="12">
         <v>11</v>
       </c>
@@ -24925,8 +24937,8 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="270"/>
-      <c r="B271" s="270"/>
+      <c r="A271" s="255"/>
+      <c r="B271" s="255"/>
       <c r="C271" s="12">
         <v>12</v>
       </c>
@@ -24937,11 +24949,11 @@
         <v>8.9287599999999995E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="29">
-      <c r="A272" s="268">
+    <row r="272" spans="1:5" ht="30">
+      <c r="A272" s="253">
         <v>59</v>
       </c>
-      <c r="B272" s="268" t="s">
+      <c r="B272" s="253" t="s">
         <v>627</v>
       </c>
       <c r="C272" s="12" t="s">
@@ -24955,8 +24967,8 @@
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="269"/>
-      <c r="B273" s="269"/>
+      <c r="A273" s="254"/>
+      <c r="B273" s="254"/>
       <c r="C273" s="12">
         <v>2</v>
       </c>
@@ -24968,8 +24980,8 @@
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="269"/>
-      <c r="B274" s="269"/>
+      <c r="A274" s="254"/>
+      <c r="B274" s="254"/>
       <c r="C274" s="12">
         <v>3</v>
       </c>
@@ -24981,8 +24993,8 @@
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="269"/>
-      <c r="B275" s="269"/>
+      <c r="A275" s="254"/>
+      <c r="B275" s="254"/>
       <c r="C275" s="12">
         <v>4</v>
       </c>
@@ -24994,8 +25006,8 @@
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="269"/>
-      <c r="B276" s="269"/>
+      <c r="A276" s="254"/>
+      <c r="B276" s="254"/>
       <c r="C276" s="12">
         <v>5</v>
       </c>
@@ -25007,8 +25019,8 @@
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="269"/>
-      <c r="B277" s="269"/>
+      <c r="A277" s="254"/>
+      <c r="B277" s="254"/>
       <c r="C277" s="12">
         <v>6</v>
       </c>
@@ -25020,8 +25032,8 @@
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="269"/>
-      <c r="B278" s="269"/>
+      <c r="A278" s="254"/>
+      <c r="B278" s="254"/>
       <c r="C278" s="12">
         <v>7</v>
       </c>
@@ -25033,8 +25045,8 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="269"/>
-      <c r="B279" s="269"/>
+      <c r="A279" s="254"/>
+      <c r="B279" s="254"/>
       <c r="C279" s="12">
         <v>8</v>
       </c>
@@ -25046,8 +25058,8 @@
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="269"/>
-      <c r="B280" s="269"/>
+      <c r="A280" s="254"/>
+      <c r="B280" s="254"/>
       <c r="C280" s="12">
         <v>9</v>
       </c>
@@ -25059,8 +25071,8 @@
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="269"/>
-      <c r="B281" s="269"/>
+      <c r="A281" s="254"/>
+      <c r="B281" s="254"/>
       <c r="C281" s="12">
         <v>10</v>
       </c>
@@ -25072,8 +25084,8 @@
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="269"/>
-      <c r="B282" s="269"/>
+      <c r="A282" s="254"/>
+      <c r="B282" s="254"/>
       <c r="C282" s="12">
         <v>11</v>
       </c>
@@ -25085,8 +25097,8 @@
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="270"/>
-      <c r="B283" s="270"/>
+      <c r="A283" s="255"/>
+      <c r="B283" s="255"/>
       <c r="C283" s="12">
         <v>12</v>
       </c>
@@ -25097,11 +25109,11 @@
         <v>1.3520000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="29">
-      <c r="A284" s="268">
+    <row r="284" spans="1:5" ht="30">
+      <c r="A284" s="253">
         <v>60</v>
       </c>
-      <c r="B284" s="268" t="s">
+      <c r="B284" s="253" t="s">
         <v>630</v>
       </c>
       <c r="C284" s="12" t="s">
@@ -25115,8 +25127,8 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="269"/>
-      <c r="B285" s="269"/>
+      <c r="A285" s="254"/>
+      <c r="B285" s="254"/>
       <c r="C285" s="12">
         <v>2</v>
       </c>
@@ -25128,8 +25140,8 @@
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="269"/>
-      <c r="B286" s="269"/>
+      <c r="A286" s="254"/>
+      <c r="B286" s="254"/>
       <c r="C286" s="12">
         <v>3</v>
       </c>
@@ -25141,8 +25153,8 @@
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="269"/>
-      <c r="B287" s="269"/>
+      <c r="A287" s="254"/>
+      <c r="B287" s="254"/>
       <c r="C287" s="12">
         <v>4</v>
       </c>
@@ -25154,8 +25166,8 @@
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="269"/>
-      <c r="B288" s="269"/>
+      <c r="A288" s="254"/>
+      <c r="B288" s="254"/>
       <c r="C288" s="12">
         <v>5</v>
       </c>
@@ -25167,8 +25179,8 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="269"/>
-      <c r="B289" s="269"/>
+      <c r="A289" s="254"/>
+      <c r="B289" s="254"/>
       <c r="C289" s="12">
         <v>6</v>
       </c>
@@ -25180,8 +25192,8 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="269"/>
-      <c r="B290" s="269"/>
+      <c r="A290" s="254"/>
+      <c r="B290" s="254"/>
       <c r="C290" s="12">
         <v>7</v>
       </c>
@@ -25193,8 +25205,8 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="269"/>
-      <c r="B291" s="269"/>
+      <c r="A291" s="254"/>
+      <c r="B291" s="254"/>
       <c r="C291" s="12">
         <v>8</v>
       </c>
@@ -25206,8 +25218,8 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="269"/>
-      <c r="B292" s="269"/>
+      <c r="A292" s="254"/>
+      <c r="B292" s="254"/>
       <c r="C292" s="12">
         <v>9</v>
       </c>
@@ -25219,8 +25231,8 @@
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="269"/>
-      <c r="B293" s="269"/>
+      <c r="A293" s="254"/>
+      <c r="B293" s="254"/>
       <c r="C293" s="12">
         <v>10</v>
       </c>
@@ -25232,8 +25244,8 @@
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="269"/>
-      <c r="B294" s="269"/>
+      <c r="A294" s="254"/>
+      <c r="B294" s="254"/>
       <c r="C294" s="12">
         <v>11</v>
       </c>
@@ -25244,9 +25256,9 @@
         <v>4197060</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" thickBot="1">
-      <c r="A295" s="276"/>
-      <c r="B295" s="276"/>
+    <row r="295" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A295" s="256"/>
+      <c r="B295" s="256"/>
       <c r="C295" s="143">
         <v>12</v>
       </c>
@@ -25258,10 +25270,10 @@
       </c>
     </row>
     <row r="296" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A296" s="270">
+      <c r="A296" s="255">
         <v>61</v>
       </c>
-      <c r="B296" s="277" t="s">
+      <c r="B296" s="258" t="s">
         <v>632</v>
       </c>
       <c r="C296" s="142" t="s">
@@ -25274,9 +25286,9 @@
         <v>417.214</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A297" s="261"/>
-      <c r="B297" s="278"/>
+    <row r="297" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A297" s="257"/>
+      <c r="B297" s="259"/>
       <c r="C297" s="12">
         <v>2</v>
       </c>
@@ -25287,9 +25299,9 @@
         <v>420.73500000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A298" s="261"/>
-      <c r="B298" s="278"/>
+    <row r="298" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A298" s="257"/>
+      <c r="B298" s="259"/>
       <c r="C298" s="12">
         <v>3</v>
       </c>
@@ -25300,9 +25312,9 @@
         <v>424.48899999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A299" s="261"/>
-      <c r="B299" s="278"/>
+    <row r="299" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A299" s="257"/>
+      <c r="B299" s="259"/>
       <c r="C299" s="12">
         <v>4</v>
       </c>
@@ -25313,9 +25325,9 @@
         <v>428.51600000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A300" s="261"/>
-      <c r="B300" s="278"/>
+    <row r="300" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A300" s="257"/>
+      <c r="B300" s="259"/>
       <c r="C300" s="12">
         <v>5</v>
       </c>
@@ -25326,9 +25338,9 @@
         <v>432.85300000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A301" s="261"/>
-      <c r="B301" s="278"/>
+    <row r="301" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A301" s="257"/>
+      <c r="B301" s="259"/>
       <c r="C301" s="12">
         <v>6</v>
       </c>
@@ -25339,9 +25351,9 @@
         <v>437.53300000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A302" s="261"/>
-      <c r="B302" s="278"/>
+    <row r="302" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A302" s="257"/>
+      <c r="B302" s="259"/>
       <c r="C302" s="12">
         <v>7</v>
       </c>
@@ -25352,9 +25364,9 @@
         <v>442.58199999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A303" s="261"/>
-      <c r="B303" s="278"/>
+    <row r="303" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A303" s="257"/>
+      <c r="B303" s="259"/>
       <c r="C303" s="12">
         <v>8</v>
       </c>
@@ -25365,9 +25377,9 @@
         <v>448.01600000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A304" s="261"/>
-      <c r="B304" s="278"/>
+    <row r="304" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A304" s="257"/>
+      <c r="B304" s="259"/>
       <c r="C304" s="12">
         <v>9</v>
       </c>
@@ -25378,9 +25390,9 @@
         <v>453.08350000000002</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A305" s="261"/>
-      <c r="B305" s="278"/>
+    <row r="305" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A305" s="257"/>
+      <c r="B305" s="259"/>
       <c r="C305" s="12">
         <v>10</v>
       </c>
@@ -25391,9 +25403,9 @@
         <v>460.03100000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A306" s="261"/>
-      <c r="B306" s="278"/>
+    <row r="306" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A306" s="257"/>
+      <c r="B306" s="259"/>
       <c r="C306" s="12">
         <v>11</v>
       </c>
@@ -25404,9 +25416,9 @@
         <v>466.57799999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" hidden="1" thickBot="1">
-      <c r="A307" s="261"/>
-      <c r="B307" s="278"/>
+    <row r="307" spans="1:5" ht="15.75" hidden="1" thickBot="1">
+      <c r="A307" s="257"/>
+      <c r="B307" s="259"/>
       <c r="C307" s="12">
         <v>12</v>
       </c>
@@ -25422,30 +25434,22 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A272:A283"/>
-    <mergeCell ref="B272:B283"/>
-    <mergeCell ref="A284:A295"/>
-    <mergeCell ref="B284:B295"/>
-    <mergeCell ref="A296:A307"/>
-    <mergeCell ref="B296:B307"/>
-    <mergeCell ref="A236:A247"/>
-    <mergeCell ref="B236:B247"/>
-    <mergeCell ref="A248:A259"/>
-    <mergeCell ref="B248:B259"/>
-    <mergeCell ref="A260:A271"/>
-    <mergeCell ref="B260:B271"/>
-    <mergeCell ref="A200:A211"/>
-    <mergeCell ref="B200:B211"/>
-    <mergeCell ref="A212:A223"/>
-    <mergeCell ref="B212:B223"/>
-    <mergeCell ref="A224:A235"/>
-    <mergeCell ref="B224:B235"/>
-    <mergeCell ref="A164:A175"/>
-    <mergeCell ref="B164:B175"/>
-    <mergeCell ref="A176:A187"/>
-    <mergeCell ref="B176:B187"/>
-    <mergeCell ref="A188:A199"/>
-    <mergeCell ref="B188:B199"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="B46:B58"/>
+    <mergeCell ref="A59:A71"/>
+    <mergeCell ref="B59:B71"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B73:B85"/>
     <mergeCell ref="A87:A99"/>
     <mergeCell ref="B87:B99"/>
     <mergeCell ref="A101:A112"/>
@@ -25459,22 +25463,30 @@
     <mergeCell ref="A139:A150"/>
     <mergeCell ref="B139:B150"/>
     <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="B46:B58"/>
-    <mergeCell ref="A59:A71"/>
-    <mergeCell ref="B59:B71"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B73:B85"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="B34:B45"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A164:A175"/>
+    <mergeCell ref="B164:B175"/>
+    <mergeCell ref="A176:A187"/>
+    <mergeCell ref="B176:B187"/>
+    <mergeCell ref="A188:A199"/>
+    <mergeCell ref="B188:B199"/>
+    <mergeCell ref="A200:A211"/>
+    <mergeCell ref="B200:B211"/>
+    <mergeCell ref="A212:A223"/>
+    <mergeCell ref="B212:B223"/>
+    <mergeCell ref="A224:A235"/>
+    <mergeCell ref="B224:B235"/>
+    <mergeCell ref="A236:A247"/>
+    <mergeCell ref="B236:B247"/>
+    <mergeCell ref="A248:A259"/>
+    <mergeCell ref="B248:B259"/>
+    <mergeCell ref="A260:A271"/>
+    <mergeCell ref="B260:B271"/>
+    <mergeCell ref="A272:A283"/>
+    <mergeCell ref="B272:B283"/>
+    <mergeCell ref="A284:A295"/>
+    <mergeCell ref="B284:B295"/>
+    <mergeCell ref="A296:A307"/>
+    <mergeCell ref="B296:B307"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25490,24 +25502,24 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="6" max="6" width="61.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
-    <col min="28" max="28" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.5" thickBot="1">
+    <row r="1" spans="1:18" ht="18" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>724</v>
       </c>
       <c r="B1" s="90"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickTop="1"/>
-    <row r="3" spans="1:18" ht="15.5">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:18" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -25518,7 +25530,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17">
+    <row r="4" spans="1:18" ht="17.25">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -25540,7 +25552,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.5">
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -25560,7 +25572,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1">
+    <row r="11" spans="1:18" ht="16.5" thickBot="1">
       <c r="A11" s="122" t="s">
         <v>140</v>
       </c>
@@ -25588,7 +25600,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
       <c r="A13" s="281"/>
       <c r="B13" s="283"/>
       <c r="C13" s="250"/>
@@ -25897,7 +25909,7 @@
       <c r="I26" s="36"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="127">
         <v>87</v>
       </c>
@@ -26030,14 +26042,14 @@
       <c r="I37" s="36"/>
       <c r="J37" s="34"/>
     </row>
-    <row r="40" spans="1:10" ht="17.5" thickBot="1">
+    <row r="40" spans="1:10" ht="18" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>723</v>
       </c>
       <c r="B40" s="89"/>
     </row>
-    <row r="41" spans="1:10" ht="15" thickTop="1"/>
-    <row r="42" spans="1:10" ht="15.5">
+    <row r="41" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="86" t="s">
         <v>65</v>
       </c>
@@ -26045,7 +26057,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.5">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="86" t="s">
         <v>64</v>
       </c>
@@ -26053,7 +26065,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.5">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="86" t="s">
         <v>141</v>
       </c>
@@ -26068,10 +26080,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.5">
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:9" ht="17.5" thickBot="1">
+    <row r="49" spans="1:9" ht="18" thickBot="1">
       <c r="A49" s="86" t="s">
         <v>140</v>
       </c>
@@ -26308,7 +26320,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1">
+    <row r="62" spans="1:9" ht="15.75" thickBot="1">
       <c r="A62" s="127">
         <v>87</v>
       </c>
@@ -26364,27 +26376,27 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" customWidth="1"/>
-    <col min="6" max="6" width="62.453125" customWidth="1"/>
-    <col min="7" max="7" width="40.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5" thickBot="1">
+    <row r="1" spans="1:7" ht="18" thickBot="1">
       <c r="A1" s="89" t="s">
         <v>725</v>
       </c>
       <c r="B1" s="84"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1"/>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -26392,7 +26404,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -26400,7 +26412,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -26433,7 +26445,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="18" thickBot="1">
       <c r="A12" t="s">
         <v>670</v>
       </c>
@@ -26441,7 +26453,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickTop="1">
+    <row r="13" spans="1:7" ht="15.75" thickTop="1">
       <c r="A13" t="s">
         <v>645</v>
       </c>
@@ -26461,7 +26473,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" thickBot="1">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1">
       <c r="A18" s="166" t="s">
         <v>140</v>
       </c>
@@ -26485,7 +26497,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="241"/>
       <c r="B20" s="241"/>
       <c r="C20" s="240"/>
@@ -26971,7 +26983,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1">
       <c r="A48" s="127">
         <v>52</v>
       </c>
@@ -27016,13 +27028,13 @@
       <c r="D52" s="47"/>
       <c r="E52" s="64"/>
     </row>
-    <row r="56" spans="1:5" ht="17.5" thickBot="1">
+    <row r="56" spans="1:5" ht="18" thickBot="1">
       <c r="A56" s="89" t="s">
         <v>726</v>
       </c>
       <c r="B56" s="57"/>
     </row>
-    <row r="57" spans="1:5" ht="15" thickTop="1"/>
+    <row r="57" spans="1:5" ht="15.75" thickTop="1"/>
     <row r="58" spans="1:5" ht="45" customHeight="1">
       <c r="A58" s="128" t="s">
         <v>65</v>
@@ -27039,7 +27051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.5">
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="86" t="s">
         <v>141</v>
       </c>
@@ -27094,7 +27106,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17.5" thickBot="1">
+    <row r="73" spans="1:8" ht="18" thickBot="1">
       <c r="A73" s="122" t="s">
         <v>678</v>
       </c>
@@ -27764,7 +27776,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" thickBot="1">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1">
       <c r="A108" s="121" t="s">
         <v>490</v>
       </c>
@@ -27790,17 +27802,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="E74:E75"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -27816,20 +27828,20 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
+    <col min="1" max="2" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>727</v>
       </c>
       <c r="B1" s="93"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1"/>
-    <row r="3" spans="1:2" ht="15.5">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="86" t="s">
         <v>65</v>
       </c>
@@ -27837,7 +27849,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>64</v>
       </c>
@@ -27845,7 +27857,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="86" t="s">
         <v>141</v>
       </c>
@@ -27901,7 +27913,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1">
+    <row r="18" spans="1:14" ht="16.5" thickBot="1">
       <c r="A18" s="122" t="s">
         <v>140</v>
       </c>
@@ -27909,7 +27921,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickTop="1">
+    <row r="19" spans="1:14" ht="15.75" thickTop="1">
       <c r="A19" s="247" t="s">
         <v>37</v>
       </c>
@@ -27923,7 +27935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
       <c r="A20" s="248"/>
       <c r="B20" s="241"/>
       <c r="C20" s="241"/>
@@ -28127,7 +28139,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
       <c r="A36" s="165" t="s">
         <v>543</v>
       </c>
@@ -28162,14 +28174,14 @@
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
     </row>
-    <row r="43" spans="1:4" ht="16" thickBot="1">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1">
       <c r="A43" s="96" t="s">
         <v>728</v>
       </c>
       <c r="B43" s="93"/>
     </row>
-    <row r="44" spans="1:4" ht="15" thickTop="1"/>
-    <row r="45" spans="1:4" ht="15.5">
+    <row r="44" spans="1:4" ht="15.75" thickTop="1"/>
+    <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="86" t="s">
         <v>65</v>
       </c>
@@ -28177,7 +28189,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.5">
+    <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="86" t="s">
         <v>64</v>
       </c>
@@ -28185,7 +28197,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.5">
+    <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="86" t="s">
         <v>141</v>
       </c>
@@ -28235,10 +28247,10 @@
         <v>655</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.5">
+    <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="16" thickBot="1">
+    <row r="59" spans="1:8" ht="16.5" thickBot="1">
       <c r="A59" s="122" t="s">
         <v>140</v>
       </c>
@@ -28246,8 +28258,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickTop="1">
-      <c r="A60" s="288" t="s">
+    <row r="60" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A60" s="289" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="249" t="s">
@@ -28262,23 +28274,23 @@
       <c r="E60" s="284" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="290"/>
-      <c r="G60" s="287"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
-      <c r="A61" s="289"/>
+      <c r="F60" s="291"/>
+      <c r="G60" s="288"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A61" s="290"/>
       <c r="B61" s="250"/>
       <c r="C61" s="250"/>
       <c r="D61" s="250"/>
       <c r="E61" s="285"/>
-      <c r="F61" s="290"/>
-      <c r="G61" s="287"/>
+      <c r="F61" s="291"/>
+      <c r="G61" s="288"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="262">
+      <c r="A62" s="272">
         <v>19</v>
       </c>
-      <c r="B62" s="265" t="s">
+      <c r="B62" s="260" t="s">
         <v>551</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -28290,8 +28302,8 @@
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="262"/>
-      <c r="B63" s="266"/>
+      <c r="A63" s="272"/>
+      <c r="B63" s="261"/>
       <c r="C63" s="5">
         <v>1</v>
       </c>
@@ -28303,8 +28315,8 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="262"/>
-      <c r="B64" s="266"/>
+      <c r="A64" s="272"/>
+      <c r="B64" s="261"/>
       <c r="C64" s="5">
         <v>2</v>
       </c>
@@ -28316,8 +28328,8 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="262"/>
-      <c r="B65" s="266"/>
+      <c r="A65" s="272"/>
+      <c r="B65" s="261"/>
       <c r="C65" s="5">
         <v>3</v>
       </c>
@@ -28329,8 +28341,8 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="262"/>
-      <c r="B66" s="266"/>
+      <c r="A66" s="272"/>
+      <c r="B66" s="261"/>
       <c r="C66" s="5">
         <v>4</v>
       </c>
@@ -28342,8 +28354,8 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="262"/>
-      <c r="B67" s="266"/>
+      <c r="A67" s="272"/>
+      <c r="B67" s="261"/>
       <c r="C67" s="5">
         <v>5</v>
       </c>
@@ -28355,8 +28367,8 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="262"/>
-      <c r="B68" s="275"/>
+      <c r="A68" s="272"/>
+      <c r="B68" s="262"/>
       <c r="C68" s="5">
         <v>6</v>
       </c>
@@ -28375,10 +28387,10 @@
       <c r="E69" s="69"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="262">
+      <c r="A70" s="272">
         <v>18</v>
       </c>
-      <c r="B70" s="262" t="s">
+      <c r="B70" s="272" t="s">
         <v>554</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -28390,8 +28402,8 @@
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="262"/>
-      <c r="B71" s="262"/>
+      <c r="A71" s="272"/>
+      <c r="B71" s="272"/>
       <c r="C71" s="5">
         <v>1</v>
       </c>
@@ -28403,8 +28415,8 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="262"/>
-      <c r="B72" s="262"/>
+      <c r="A72" s="272"/>
+      <c r="B72" s="272"/>
       <c r="C72" s="5">
         <v>2</v>
       </c>
@@ -28416,8 +28428,8 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="262"/>
-      <c r="B73" s="262"/>
+      <c r="A73" s="272"/>
+      <c r="B73" s="272"/>
       <c r="C73" s="5">
         <v>3</v>
       </c>
@@ -28429,8 +28441,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="262"/>
-      <c r="B74" s="262"/>
+      <c r="A74" s="272"/>
+      <c r="B74" s="272"/>
       <c r="C74" s="5">
         <v>4</v>
       </c>
@@ -28442,8 +28454,8 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="262"/>
-      <c r="B75" s="262"/>
+      <c r="A75" s="272"/>
+      <c r="B75" s="272"/>
       <c r="C75" s="5">
         <v>5</v>
       </c>
@@ -28455,8 +28467,8 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="262"/>
-      <c r="B76" s="262"/>
+      <c r="A76" s="272"/>
+      <c r="B76" s="272"/>
       <c r="C76" s="5">
         <v>6</v>
       </c>
@@ -28475,10 +28487,10 @@
       <c r="E77" s="69"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="262">
+      <c r="A78" s="272">
         <v>17</v>
       </c>
-      <c r="B78" s="262" t="s">
+      <c r="B78" s="272" t="s">
         <v>557</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -28490,8 +28502,8 @@
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="262"/>
-      <c r="B79" s="262"/>
+      <c r="A79" s="272"/>
+      <c r="B79" s="272"/>
       <c r="C79" s="5">
         <v>1</v>
       </c>
@@ -28503,8 +28515,8 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="262"/>
-      <c r="B80" s="262"/>
+      <c r="A80" s="272"/>
+      <c r="B80" s="272"/>
       <c r="C80" s="5">
         <v>2</v>
       </c>
@@ -28516,8 +28528,8 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="262"/>
-      <c r="B81" s="262"/>
+      <c r="A81" s="272"/>
+      <c r="B81" s="272"/>
       <c r="C81" s="5">
         <v>3</v>
       </c>
@@ -28529,8 +28541,8 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="262"/>
-      <c r="B82" s="262"/>
+      <c r="A82" s="272"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="5">
         <v>4</v>
       </c>
@@ -28542,8 +28554,8 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="262"/>
-      <c r="B83" s="262"/>
+      <c r="A83" s="272"/>
+      <c r="B83" s="272"/>
       <c r="C83" s="5">
         <v>5</v>
       </c>
@@ -28555,8 +28567,8 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="262"/>
-      <c r="B84" s="262"/>
+      <c r="A84" s="272"/>
+      <c r="B84" s="272"/>
       <c r="C84" s="5">
         <v>6</v>
       </c>
@@ -28571,10 +28583,10 @@
       <c r="E85" s="68"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="262">
+      <c r="A86" s="272">
         <v>17</v>
       </c>
-      <c r="B86" s="262" t="s">
+      <c r="B86" s="272" t="s">
         <v>557</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -28586,8 +28598,8 @@
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="262"/>
-      <c r="B87" s="262"/>
+      <c r="A87" s="272"/>
+      <c r="B87" s="272"/>
       <c r="C87" s="5">
         <v>1</v>
       </c>
@@ -28599,8 +28611,8 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="262"/>
-      <c r="B88" s="262"/>
+      <c r="A88" s="272"/>
+      <c r="B88" s="272"/>
       <c r="C88" s="5">
         <v>2</v>
       </c>
@@ -28612,8 +28624,8 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="262"/>
-      <c r="B89" s="262"/>
+      <c r="A89" s="272"/>
+      <c r="B89" s="272"/>
       <c r="C89" s="5">
         <v>3</v>
       </c>
@@ -28625,8 +28637,8 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="262"/>
-      <c r="B90" s="262"/>
+      <c r="A90" s="272"/>
+      <c r="B90" s="272"/>
       <c r="C90" s="5">
         <v>4</v>
       </c>
@@ -28638,8 +28650,8 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="262"/>
-      <c r="B91" s="262"/>
+      <c r="A91" s="272"/>
+      <c r="B91" s="272"/>
       <c r="C91" s="5">
         <v>5</v>
       </c>
@@ -28650,9 +28662,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1">
-      <c r="A92" s="265"/>
-      <c r="B92" s="291"/>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A92" s="260"/>
+      <c r="B92" s="287"/>
       <c r="C92" s="133">
         <v>6</v>
       </c>
@@ -28668,14 +28680,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B84"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="A62:A68"/>
     <mergeCell ref="B62:B68"/>
@@ -28687,6 +28691,14 @@
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
